--- a/Praktikum/211 - Gekoppelte Pendel/Gekopplete_Pendel.xlsx
+++ b/Praktikum/211 - Gekoppelte Pendel/Gekopplete_Pendel.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thorben Frey\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\Thorben\Documents\GitHub\Universe\Praktikum\211 - Gekoppelte Pendel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -132,15 +132,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -148,21 +154,171 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -443,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J44"/>
+  <dimension ref="B2:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,223 +620,225 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="25" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="B5" s="4">
         <v>1.33</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>25.53</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <f>C5-B5</f>
         <v>24.200000000000003</v>
       </c>
-      <c r="E5">
-        <v>15</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="E5" s="5">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5">
         <f>D5/E5</f>
         <v>1.6133333333333335</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="5">
         <f>1/F5</f>
         <v>0.61983471074380159</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H5" s="5"/>
+      <c r="I5" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6">
+      <c r="B6" s="4">
         <v>5.97</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>30.19</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <f t="shared" ref="D6:D11" si="0">C6-B6</f>
         <v>24.220000000000002</v>
       </c>
-      <c r="E6">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="E6" s="5">
+        <v>15</v>
+      </c>
+      <c r="F6" s="5">
         <f t="shared" ref="F6:F8" si="1">D6/E6</f>
         <v>1.6146666666666669</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="5">
         <f t="shared" ref="G6:G11" si="2">1/F6</f>
         <v>0.61932287365813365</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7">
+      <c r="B7" s="4">
         <v>1.44</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>21.82</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <f t="shared" si="0"/>
         <v>20.38</v>
       </c>
-      <c r="E7">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="E7" s="5">
+        <v>15</v>
+      </c>
+      <c r="F7" s="5">
         <f t="shared" si="1"/>
         <v>1.3586666666666667</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="5">
         <f t="shared" si="2"/>
         <v>0.73601570166830221</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" t="s">
+      <c r="H7" s="7"/>
+      <c r="I7" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8">
+      <c r="B8" s="4">
         <v>0.59</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>24.75</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <f t="shared" si="0"/>
         <v>24.16</v>
       </c>
-      <c r="E8">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="E8" s="5">
+        <v>15</v>
+      </c>
+      <c r="F8" s="5">
         <f t="shared" si="1"/>
         <v>1.6106666666666667</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="5">
         <f t="shared" si="2"/>
         <v>0.62086092715231789</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9">
+      <c r="B9" s="4">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <v>22.18</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <f t="shared" si="0"/>
         <v>21.89</v>
       </c>
-      <c r="E9">
-        <v>15</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="E9" s="5">
+        <v>15</v>
+      </c>
+      <c r="F9" s="5">
         <f>D9/E9</f>
         <v>1.4593333333333334</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="5">
         <f t="shared" si="2"/>
         <v>0.68524440383736862</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" t="s">
+      <c r="H9" s="7"/>
+      <c r="I9" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10">
+      <c r="B10" s="4">
         <v>0.94</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <v>25.11</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <f t="shared" si="0"/>
         <v>24.169999999999998</v>
       </c>
-      <c r="E10">
-        <v>15</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="E10" s="5">
+        <v>15</v>
+      </c>
+      <c r="F10" s="5">
         <f t="shared" ref="F10:F11" si="3">D10/E10</f>
         <v>1.6113333333333333</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="5">
         <f t="shared" si="2"/>
         <v>0.62060405461315682</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11">
+    <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="8">
         <v>0.94</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="9">
         <v>24.12</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="9">
         <f t="shared" si="0"/>
         <v>23.18</v>
       </c>
-      <c r="E11">
-        <v>15</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="E11" s="9">
+        <v>15</v>
+      </c>
+      <c r="F11" s="9">
         <f t="shared" si="3"/>
         <v>1.5453333333333332</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="9">
         <f t="shared" si="2"/>
         <v>0.64710957722174289</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" t="s">
+      <c r="H11" s="10"/>
+      <c r="I11" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -695,227 +853,228 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="31" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16">
+      <c r="B16" s="12">
         <v>1.53</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="13">
         <v>25.86</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="13">
         <f>C16-B16</f>
         <v>24.33</v>
       </c>
-      <c r="E16">
-        <v>15</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="E16" s="13">
+        <v>15</v>
+      </c>
+      <c r="F16" s="14">
         <f>D16/E16</f>
         <v>1.6219999999999999</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="14">
         <f>1/F16</f>
         <v>0.61652281134401976</v>
       </c>
-      <c r="I16" t="s">
+      <c r="H16" s="13"/>
+      <c r="I16" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17">
+      <c r="B17" s="12">
         <v>5.98</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="13">
         <v>30.16</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="13">
         <f t="shared" ref="D17:D22" si="4">C17-B17</f>
         <v>24.18</v>
       </c>
-      <c r="E17">
-        <v>15</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="E17" s="13">
+        <v>15</v>
+      </c>
+      <c r="F17" s="14">
         <f t="shared" ref="F17:F19" si="5">D17/E17</f>
         <v>1.6119999999999999</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="14">
         <f t="shared" ref="G17:G22" si="6">1/F17</f>
         <v>0.62034739454094301</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18">
+      <c r="B18" s="12">
         <v>0.72</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="13">
         <v>21.14</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="13">
         <f t="shared" si="4"/>
         <v>20.420000000000002</v>
       </c>
-      <c r="E18">
-        <v>15</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="E18" s="13">
+        <v>15</v>
+      </c>
+      <c r="F18" s="14">
         <f t="shared" si="5"/>
         <v>1.3613333333333335</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="14">
         <f t="shared" si="6"/>
         <v>0.7345739471106757</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" t="s">
+      <c r="H18" s="16"/>
+      <c r="I18" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19">
+      <c r="B19" s="12">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="13">
         <v>24.73</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="13">
         <f t="shared" si="4"/>
         <v>24.17</v>
       </c>
-      <c r="E19">
-        <v>15</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="E19" s="13">
+        <v>15</v>
+      </c>
+      <c r="F19" s="14">
         <f t="shared" si="5"/>
         <v>1.6113333333333335</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="14">
         <f t="shared" si="6"/>
         <v>0.62060405461315671</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20">
+      <c r="B20" s="12">
         <v>1.01</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="13">
         <v>22.87</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="13">
         <f t="shared" si="4"/>
         <v>21.86</v>
       </c>
-      <c r="E20">
-        <v>15</v>
-      </c>
-      <c r="F20" s="2">
+      <c r="E20" s="13">
+        <v>15</v>
+      </c>
+      <c r="F20" s="14">
         <f>D20/E20</f>
         <v>1.4573333333333334</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="14">
         <f t="shared" si="6"/>
         <v>0.68618481244281793</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" t="s">
+      <c r="H20" s="16"/>
+      <c r="I20" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21">
+      <c r="B21" s="12">
         <v>0.98</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="13">
         <v>25.17</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="13">
         <f t="shared" si="4"/>
         <v>24.19</v>
       </c>
-      <c r="E21">
-        <v>15</v>
-      </c>
-      <c r="F21" s="2">
+      <c r="E21" s="13">
+        <v>15</v>
+      </c>
+      <c r="F21" s="14">
         <f t="shared" ref="F21:F22" si="7">D21/E21</f>
         <v>1.6126666666666667</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="14">
         <f t="shared" si="6"/>
         <v>0.62009094667217857</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22">
+    <row r="22" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="17">
         <v>0.16</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="18">
         <v>23.35</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="18">
         <f t="shared" si="4"/>
         <v>23.19</v>
       </c>
-      <c r="E22">
-        <v>15</v>
-      </c>
-      <c r="F22" s="2">
+      <c r="E22" s="18">
+        <v>15</v>
+      </c>
+      <c r="F22" s="19">
         <f t="shared" si="7"/>
         <v>1.546</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="19">
         <f t="shared" si="6"/>
         <v>0.64683053040103489</v>
       </c>
-      <c r="H22" s="5"/>
-      <c r="I22" t="s">
+      <c r="H22" s="20"/>
+      <c r="I22" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -930,418 +1089,421 @@
       </c>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="27" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="J28" s="4"/>
+      <c r="J28" s="3"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29">
+      <c r="B29" s="12">
         <v>3.23</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="13">
         <v>27.52</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="13">
         <f t="shared" ref="D29:D34" si="8">C29-B29</f>
         <v>24.29</v>
       </c>
-      <c r="E29">
-        <v>15</v>
-      </c>
-      <c r="F29" s="2">
+      <c r="E29" s="13">
+        <v>15</v>
+      </c>
+      <c r="F29" s="14">
         <f t="shared" ref="F29:F31" si="9">D29/E29</f>
         <v>1.6193333333333333</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="14">
         <f t="shared" ref="G29:G34" si="10">1/F29</f>
         <v>0.61753808151502676</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30">
+      <c r="B30" s="12">
         <v>3.23</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="13">
         <v>90.31</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="13">
         <f t="shared" si="8"/>
         <v>87.08</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="13">
         <v>10</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="14">
         <f t="shared" si="9"/>
         <v>8.7080000000000002</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="14">
         <f t="shared" si="10"/>
         <v>0.11483693155718878</v>
       </c>
-      <c r="H30" s="5"/>
-      <c r="I30" t="s">
+      <c r="H30" s="16"/>
+      <c r="I30" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31">
+      <c r="B31" s="12">
         <v>5.86</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="13">
         <v>28.05</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="13">
         <f t="shared" si="8"/>
         <v>22.19</v>
       </c>
-      <c r="E31">
-        <v>15</v>
-      </c>
-      <c r="F31" s="2">
+      <c r="E31" s="13">
+        <v>15</v>
+      </c>
+      <c r="F31" s="14">
         <f t="shared" si="9"/>
         <v>1.4793333333333334</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="14">
         <f t="shared" si="10"/>
         <v>0.67598017124831</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32">
+      <c r="B32" s="12">
         <v>5.85</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="13">
         <v>146.13999999999999</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="13">
         <f t="shared" si="8"/>
         <v>140.29</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="13">
         <v>10</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="14">
         <f>D32/E32</f>
         <v>14.029</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="14">
         <f t="shared" si="10"/>
         <v>7.1280918098225107E-2</v>
       </c>
-      <c r="H32" s="5"/>
-      <c r="I32" t="s">
+      <c r="H32" s="16"/>
+      <c r="I32" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="12">
         <v>30.84</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="13">
         <v>53.85</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="13">
         <f t="shared" si="8"/>
         <v>23.01</v>
       </c>
-      <c r="E33">
-        <v>15</v>
-      </c>
-      <c r="F33" s="2">
+      <c r="E33" s="13">
+        <v>15</v>
+      </c>
+      <c r="F33" s="14">
         <f t="shared" ref="F33:F34" si="11">D33/E33</f>
         <v>1.534</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="14">
         <f t="shared" si="10"/>
         <v>0.65189048239895697</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34">
+    <row r="34" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="17">
         <v>30.84</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="18">
         <v>213.07</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="18">
         <f t="shared" si="8"/>
         <v>182.23</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="18">
         <v>5</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="19">
         <f t="shared" si="11"/>
         <v>36.445999999999998</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="19">
         <f t="shared" si="10"/>
         <v>2.7437853262360753E-2</v>
       </c>
-      <c r="H34" s="5"/>
-      <c r="I34" t="s">
+      <c r="H34" s="20"/>
+      <c r="I34" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" s="31" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39">
+      <c r="K38" s="32"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="12">
         <v>6.56</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="13">
         <v>30.87</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="13">
         <f t="shared" ref="D39:D44" si="12">C39-B39</f>
         <v>24.310000000000002</v>
       </c>
-      <c r="E39">
-        <v>15</v>
-      </c>
-      <c r="F39" s="2">
+      <c r="E39" s="13">
+        <v>15</v>
+      </c>
+      <c r="F39" s="14">
         <f t="shared" ref="F39:F41" si="13">D39/E39</f>
         <v>1.6206666666666669</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="14">
         <f t="shared" ref="G39:G44" si="14">1/F39</f>
         <v>0.61703002879473456</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="12">
         <v>6.56</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="13">
         <v>95.23</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="13">
         <f t="shared" si="12"/>
         <v>88.67</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="13">
         <v>10</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="14">
         <f t="shared" si="13"/>
         <v>8.8670000000000009</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="14">
         <f t="shared" si="14"/>
         <v>0.11277771512349159</v>
       </c>
-      <c r="H40" s="5"/>
-      <c r="I40" t="s">
+      <c r="H40" s="16"/>
+      <c r="I40" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="12">
         <v>12.51</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="13">
         <v>34.659999999999997</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="13">
         <f t="shared" si="12"/>
         <v>22.15</v>
       </c>
-      <c r="E41">
-        <v>15</v>
-      </c>
-      <c r="F41" s="2">
+      <c r="E41" s="13">
+        <v>15</v>
+      </c>
+      <c r="F41" s="14">
         <f t="shared" si="13"/>
         <v>1.4766666666666666</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="14">
         <f t="shared" si="14"/>
         <v>0.67720090293453727</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="12">
         <v>12.51</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="13">
         <v>154.38999999999999</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="13">
         <f t="shared" si="12"/>
         <v>141.88</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="13">
         <v>10</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="14">
         <f>D42/E42</f>
         <v>14.187999999999999</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="14">
         <f t="shared" si="14"/>
         <v>7.048209754722301E-2</v>
       </c>
-      <c r="H42" s="5"/>
-      <c r="I42" t="s">
+      <c r="H42" s="16"/>
+      <c r="I42" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="12">
         <v>50.21</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="13">
         <v>74.62</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="13">
         <f t="shared" si="12"/>
         <v>24.410000000000004</v>
       </c>
-      <c r="E43">
-        <v>15</v>
-      </c>
-      <c r="F43" s="2">
+      <c r="E43" s="13">
+        <v>15</v>
+      </c>
+      <c r="F43" s="14">
         <f t="shared" ref="F43:F44" si="15">D43/E43</f>
         <v>1.6273333333333335</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="14">
         <f t="shared" si="14"/>
         <v>0.61450225317492824</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44">
+    <row r="44" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="17">
         <v>13.11</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="18">
         <v>195.3</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="18">
         <f t="shared" si="12"/>
         <v>182.19</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="18">
         <v>5</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="19">
         <f t="shared" si="15"/>
         <v>36.438000000000002</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="19">
         <f t="shared" si="14"/>
         <v>2.7443877270980844E-2</v>
       </c>
-      <c r="H44" s="5"/>
-      <c r="I44" t="s">
+      <c r="H44" s="20"/>
+      <c r="I44" s="21" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H33:H34"/>
     <mergeCell ref="H21:H22"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H33:H34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Praktikum/211 - Gekoppelte Pendel/Gekopplete_Pendel.xlsx
+++ b/Praktikum/211 - Gekoppelte Pendel/Gekopplete_Pendel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="18">
   <si>
     <t>Pendel links</t>
   </si>
@@ -48,6 +48,27 @@
   </si>
   <si>
     <t>Kopplungspos. [cm]</t>
+  </si>
+  <si>
+    <t>Pendel rechts</t>
+  </si>
+  <si>
+    <t>Schwingungstyp</t>
+  </si>
+  <si>
+    <t>ungekoppelt</t>
+  </si>
+  <si>
+    <t>symmetrisch</t>
+  </si>
+  <si>
+    <t>asymmetrisch</t>
+  </si>
+  <si>
+    <t>Schwebung</t>
+  </si>
+  <si>
+    <t>Schwing</t>
   </si>
   <si>
     <r>
@@ -60,7 +81,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>±0,1</t>
+      <t>±0,1 Kopplung 1</t>
     </r>
   </si>
   <si>
@@ -74,7 +95,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>±0,1</t>
+      <t>±0,1 Kopplung 2</t>
     </r>
   </si>
   <si>
@@ -88,29 +109,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>±0,1</t>
+      <t>±0,1   Kopplung 3</t>
     </r>
-  </si>
-  <si>
-    <t>Pendel rechts</t>
-  </si>
-  <si>
-    <t>Schwingungstyp</t>
-  </si>
-  <si>
-    <t>ungekoppelt</t>
-  </si>
-  <si>
-    <t>symmetrisch</t>
-  </si>
-  <si>
-    <t>asymmetrisch</t>
-  </si>
-  <si>
-    <t>Schwebung</t>
-  </si>
-  <si>
-    <t>Schwing</t>
   </si>
 </sst>
 </file>
@@ -285,28 +285,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -319,6 +307,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -602,7 +602,7 @@
   <dimension ref="B2:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,29 +622,29 @@
     </row>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="25" t="s">
-        <v>12</v>
+      <c r="I4" s="21" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -669,9 +669,11 @@
         <f>1/F5</f>
         <v>0.61983471074380159</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="I5" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -696,11 +698,11 @@
         <f t="shared" ref="G6:G11" si="2">1/F6</f>
         <v>0.61932287365813365</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>8</v>
+      <c r="H6" s="31" t="s">
+        <v>15</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -725,9 +727,9 @@
         <f t="shared" si="2"/>
         <v>0.73601570166830221</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="31"/>
       <c r="I7" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -752,11 +754,11 @@
         <f t="shared" si="2"/>
         <v>0.62086092715231789</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>9</v>
+      <c r="H8" s="31" t="s">
+        <v>16</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -781,9 +783,9 @@
         <f t="shared" si="2"/>
         <v>0.68524440383736862</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="31"/>
       <c r="I9" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -808,38 +810,38 @@
         <f t="shared" si="2"/>
         <v>0.62060405461315682</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>10</v>
+      <c r="H10" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>0.94</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>24.12</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <f t="shared" si="0"/>
         <v>23.18</v>
       </c>
-      <c r="E11" s="9">
-        <v>15</v>
-      </c>
-      <c r="F11" s="9">
+      <c r="E11" s="8">
+        <v>15</v>
+      </c>
+      <c r="F11" s="8">
         <f t="shared" si="3"/>
         <v>1.5453333333333332</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <f t="shared" si="2"/>
         <v>0.64710957722174289</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11" t="s">
-        <v>15</v>
+      <c r="H11" s="32"/>
+      <c r="I11" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -848,7 +850,7 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -858,229 +860,231 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="31" t="s">
-        <v>12</v>
+      <c r="I15" s="27" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="12">
+      <c r="B16" s="10">
         <v>1.53</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="11">
         <v>25.86</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="11">
         <f>C16-B16</f>
         <v>24.33</v>
       </c>
-      <c r="E16" s="13">
-        <v>15</v>
-      </c>
-      <c r="F16" s="14">
+      <c r="E16" s="11">
+        <v>15</v>
+      </c>
+      <c r="F16" s="12">
         <f>D16/E16</f>
         <v>1.6219999999999999</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="12">
         <f>1/F16</f>
         <v>0.61652281134401976</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="15" t="s">
-        <v>13</v>
+      <c r="H16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="12">
+      <c r="B17" s="10">
         <v>5.98</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="11">
         <v>30.16</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="11">
         <f t="shared" ref="D17:D22" si="4">C17-B17</f>
         <v>24.18</v>
       </c>
-      <c r="E17" s="13">
-        <v>15</v>
-      </c>
-      <c r="F17" s="14">
+      <c r="E17" s="11">
+        <v>15</v>
+      </c>
+      <c r="F17" s="12">
         <f t="shared" ref="F17:F19" si="5">D17/E17</f>
         <v>1.6119999999999999</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="12">
         <f t="shared" ref="G17:G22" si="6">1/F17</f>
         <v>0.62034739454094301</v>
       </c>
-      <c r="H17" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>14</v>
+      <c r="H17" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="12">
+      <c r="B18" s="10">
         <v>0.72</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="11">
         <v>21.14</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="11">
         <f t="shared" si="4"/>
         <v>20.420000000000002</v>
       </c>
-      <c r="E18" s="13">
-        <v>15</v>
-      </c>
-      <c r="F18" s="14">
+      <c r="E18" s="11">
+        <v>15</v>
+      </c>
+      <c r="F18" s="12">
         <f t="shared" si="5"/>
         <v>1.3613333333333335</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="12">
         <f t="shared" si="6"/>
         <v>0.7345739471106757</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="15" t="s">
-        <v>15</v>
+      <c r="H18" s="29"/>
+      <c r="I18" s="13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="12">
+      <c r="B19" s="10">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="11">
         <v>24.73</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="11">
         <f t="shared" si="4"/>
         <v>24.17</v>
       </c>
-      <c r="E19" s="13">
-        <v>15</v>
-      </c>
-      <c r="F19" s="14">
+      <c r="E19" s="11">
+        <v>15</v>
+      </c>
+      <c r="F19" s="12">
         <f t="shared" si="5"/>
         <v>1.6113333333333335</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="12">
         <f t="shared" si="6"/>
         <v>0.62060405461315671</v>
       </c>
-      <c r="H19" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>14</v>
+      <c r="H19" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="12">
+      <c r="B20" s="10">
         <v>1.01</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="11">
         <v>22.87</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="11">
         <f t="shared" si="4"/>
         <v>21.86</v>
       </c>
-      <c r="E20" s="13">
-        <v>15</v>
-      </c>
-      <c r="F20" s="14">
+      <c r="E20" s="11">
+        <v>15</v>
+      </c>
+      <c r="F20" s="12">
         <f>D20/E20</f>
         <v>1.4573333333333334</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="12">
         <f t="shared" si="6"/>
         <v>0.68618481244281793</v>
       </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="15" t="s">
-        <v>15</v>
+      <c r="H20" s="29"/>
+      <c r="I20" s="13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="12">
+      <c r="B21" s="10">
         <v>0.98</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="11">
         <v>25.17</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="11">
         <f t="shared" si="4"/>
         <v>24.19</v>
       </c>
-      <c r="E21" s="13">
-        <v>15</v>
-      </c>
-      <c r="F21" s="14">
+      <c r="E21" s="11">
+        <v>15</v>
+      </c>
+      <c r="F21" s="12">
         <f t="shared" ref="F21:F22" si="7">D21/E21</f>
         <v>1.6126666666666667</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="12">
         <f t="shared" si="6"/>
         <v>0.62009094667217857</v>
       </c>
-      <c r="H21" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>14</v>
+      <c r="H21" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="17">
+      <c r="B22" s="14">
         <v>0.16</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="15">
         <v>23.35</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="15">
         <f t="shared" si="4"/>
         <v>23.19</v>
       </c>
-      <c r="E22" s="18">
-        <v>15</v>
-      </c>
-      <c r="F22" s="19">
+      <c r="E22" s="15">
+        <v>15</v>
+      </c>
+      <c r="F22" s="16">
         <f t="shared" si="7"/>
         <v>1.546</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="16">
         <f t="shared" si="6"/>
         <v>0.64683053040103489</v>
       </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="21" t="s">
-        <v>15</v>
+      <c r="H22" s="30"/>
+      <c r="I22" s="17" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
@@ -1093,415 +1097,415 @@
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F28" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="30" t="s">
+      <c r="G28" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="30" t="s">
+      <c r="H28" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="31" t="s">
-        <v>12</v>
+      <c r="I28" s="27" t="s">
+        <v>9</v>
       </c>
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="12">
+      <c r="B29" s="10">
         <v>3.23</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="11">
         <v>27.52</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="11">
         <f t="shared" ref="D29:D34" si="8">C29-B29</f>
         <v>24.29</v>
       </c>
-      <c r="E29" s="13">
-        <v>15</v>
-      </c>
-      <c r="F29" s="14">
+      <c r="E29" s="11">
+        <v>15</v>
+      </c>
+      <c r="F29" s="12">
         <f t="shared" ref="F29:F31" si="9">D29/E29</f>
         <v>1.6193333333333333</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="12">
         <f t="shared" ref="G29:G34" si="10">1/F29</f>
         <v>0.61753808151502676</v>
       </c>
-      <c r="H29" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>17</v>
+      <c r="H29" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="12">
+      <c r="B30" s="10">
         <v>3.23</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="11">
         <v>90.31</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="11">
         <f t="shared" si="8"/>
         <v>87.08</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="11">
         <v>10</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="12">
         <f t="shared" si="9"/>
         <v>8.7080000000000002</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="12">
         <f t="shared" si="10"/>
         <v>0.11483693155718878</v>
       </c>
-      <c r="H30" s="16"/>
-      <c r="I30" s="15" t="s">
-        <v>16</v>
+      <c r="H30" s="29"/>
+      <c r="I30" s="13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="12">
+      <c r="B31" s="10">
         <v>5.86</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="11">
         <v>28.05</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="11">
         <f t="shared" si="8"/>
         <v>22.19</v>
       </c>
-      <c r="E31" s="13">
-        <v>15</v>
-      </c>
-      <c r="F31" s="14">
+      <c r="E31" s="11">
+        <v>15</v>
+      </c>
+      <c r="F31" s="12">
         <f t="shared" si="9"/>
         <v>1.4793333333333334</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="12">
         <f t="shared" si="10"/>
         <v>0.67598017124831</v>
       </c>
-      <c r="H31" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>17</v>
+      <c r="H31" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="12">
+      <c r="B32" s="10">
         <v>5.85</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="11">
         <v>146.13999999999999</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="11">
         <f t="shared" si="8"/>
         <v>140.29</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="11">
         <v>10</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="12">
         <f>D32/E32</f>
         <v>14.029</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="12">
         <f t="shared" si="10"/>
         <v>7.1280918098225107E-2</v>
       </c>
-      <c r="H32" s="16"/>
-      <c r="I32" s="15" t="s">
-        <v>16</v>
+      <c r="H32" s="29"/>
+      <c r="I32" s="13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="12">
+      <c r="B33" s="10">
         <v>30.84</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="11">
         <v>53.85</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="11">
         <f t="shared" si="8"/>
         <v>23.01</v>
       </c>
-      <c r="E33" s="13">
-        <v>15</v>
-      </c>
-      <c r="F33" s="14">
+      <c r="E33" s="11">
+        <v>15</v>
+      </c>
+      <c r="F33" s="12">
         <f t="shared" ref="F33:F34" si="11">D33/E33</f>
         <v>1.534</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="12">
         <f t="shared" si="10"/>
         <v>0.65189048239895697</v>
       </c>
-      <c r="H33" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="15" t="s">
+      <c r="H33" s="29" t="s">
         <v>17</v>
       </c>
+      <c r="I33" s="13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="34" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="17">
+      <c r="B34" s="14">
         <v>30.84</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="15">
         <v>213.07</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="15">
         <f t="shared" si="8"/>
         <v>182.23</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="15">
         <v>5</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="16">
         <f t="shared" si="11"/>
         <v>36.445999999999998</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="16">
         <f t="shared" si="10"/>
         <v>2.7437853262360753E-2</v>
       </c>
-      <c r="H34" s="20"/>
-      <c r="I34" s="21" t="s">
-        <v>16</v>
+      <c r="H34" s="30"/>
+      <c r="I34" s="17" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="E38" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F38" s="27" t="s">
+      <c r="F38" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="30" t="s">
+      <c r="G38" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="30" t="s">
+      <c r="H38" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I38" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K38" s="32"/>
+      <c r="I38" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" s="28"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="12">
+      <c r="B39" s="10">
         <v>6.56</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="11">
         <v>30.87</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="11">
         <f t="shared" ref="D39:D44" si="12">C39-B39</f>
         <v>24.310000000000002</v>
       </c>
-      <c r="E39" s="13">
-        <v>15</v>
-      </c>
-      <c r="F39" s="14">
+      <c r="E39" s="11">
+        <v>15</v>
+      </c>
+      <c r="F39" s="12">
         <f t="shared" ref="F39:F41" si="13">D39/E39</f>
         <v>1.6206666666666669</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G39" s="12">
         <f t="shared" ref="G39:G44" si="14">1/F39</f>
         <v>0.61703002879473456</v>
       </c>
-      <c r="H39" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>17</v>
+      <c r="H39" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="12">
+      <c r="B40" s="10">
         <v>6.56</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="11">
         <v>95.23</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="11">
         <f t="shared" si="12"/>
         <v>88.67</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="11">
         <v>10</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F40" s="12">
         <f t="shared" si="13"/>
         <v>8.8670000000000009</v>
       </c>
-      <c r="G40" s="14">
+      <c r="G40" s="12">
         <f t="shared" si="14"/>
         <v>0.11277771512349159</v>
       </c>
-      <c r="H40" s="16"/>
-      <c r="I40" s="15" t="s">
-        <v>16</v>
+      <c r="H40" s="29"/>
+      <c r="I40" s="13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="12">
+      <c r="B41" s="10">
         <v>12.51</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="11">
         <v>34.659999999999997</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="11">
         <f t="shared" si="12"/>
         <v>22.15</v>
       </c>
-      <c r="E41" s="13">
-        <v>15</v>
-      </c>
-      <c r="F41" s="14">
+      <c r="E41" s="11">
+        <v>15</v>
+      </c>
+      <c r="F41" s="12">
         <f t="shared" si="13"/>
         <v>1.4766666666666666</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G41" s="12">
         <f t="shared" si="14"/>
         <v>0.67720090293453727</v>
       </c>
-      <c r="H41" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I41" s="15" t="s">
-        <v>17</v>
+      <c r="H41" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="12">
+      <c r="B42" s="10">
         <v>12.51</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="11">
         <v>154.38999999999999</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="11">
         <f t="shared" si="12"/>
         <v>141.88</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="11">
         <v>10</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F42" s="12">
         <f>D42/E42</f>
         <v>14.187999999999999</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G42" s="12">
         <f t="shared" si="14"/>
         <v>7.048209754722301E-2</v>
       </c>
-      <c r="H42" s="16"/>
-      <c r="I42" s="15" t="s">
-        <v>16</v>
+      <c r="H42" s="29"/>
+      <c r="I42" s="13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="12">
+      <c r="B43" s="10">
         <v>50.21</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="11">
         <v>74.62</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="11">
         <f t="shared" si="12"/>
         <v>24.410000000000004</v>
       </c>
-      <c r="E43" s="13">
-        <v>15</v>
-      </c>
-      <c r="F43" s="14">
+      <c r="E43" s="11">
+        <v>15</v>
+      </c>
+      <c r="F43" s="12">
         <f t="shared" ref="F43:F44" si="15">D43/E43</f>
         <v>1.6273333333333335</v>
       </c>
-      <c r="G43" s="14">
+      <c r="G43" s="12">
         <f t="shared" si="14"/>
         <v>0.61450225317492824</v>
       </c>
-      <c r="H43" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I43" s="15" t="s">
+      <c r="H43" s="29" t="s">
         <v>17</v>
       </c>
+      <c r="I43" s="13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="44" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="17">
+      <c r="B44" s="14">
         <v>13.11</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C44" s="15">
         <v>195.3</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D44" s="15">
         <f t="shared" si="12"/>
         <v>182.19</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E44" s="15">
         <v>5</v>
       </c>
-      <c r="F44" s="19">
+      <c r="F44" s="16">
         <f t="shared" si="15"/>
         <v>36.438000000000002</v>
       </c>
-      <c r="G44" s="19">
+      <c r="G44" s="16">
         <f t="shared" si="14"/>
         <v>2.7443877270980844E-2</v>
       </c>
-      <c r="H44" s="20"/>
-      <c r="I44" s="21" t="s">
-        <v>16</v>
+      <c r="H44" s="30"/>
+      <c r="I44" s="17" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H20"/>
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="H41:H42"/>
     <mergeCell ref="H43:H44"/>
     <mergeCell ref="H29:H30"/>
     <mergeCell ref="H31:H32"/>
     <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H19:H20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Praktikum/211 - Gekoppelte Pendel/Gekopplete_Pendel.xlsx
+++ b/Praktikum/211 - Gekoppelte Pendel/Gekopplete_Pendel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="23">
   <si>
     <t>Pendel links</t>
   </si>
@@ -112,11 +112,31 @@
       <t>±0,1   Kopplung 3</t>
     </r>
   </si>
+  <si>
+    <t>Δ Startzeit [s]</t>
+  </si>
+  <si>
+    <t>Δ Endzeit [s]</t>
+  </si>
+  <si>
+    <t>Δ Schwingzeit [s]</t>
+  </si>
+  <si>
+    <t>Δ Periodendauer [s</t>
+  </si>
+  <si>
+    <t>Δ ω [Hz]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -146,7 +166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -271,28 +291,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -300,12 +351,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -319,6 +364,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -599,913 +671,1306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K44"/>
+  <dimension ref="B2:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
+    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="E4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="G4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="I4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="J4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="L4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="N4" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="4">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="30">
         <v>1.33</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="D5" s="31">
         <v>25.53</v>
       </c>
-      <c r="D5" s="5">
-        <f>C5-B5</f>
+      <c r="E5" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="F5" s="31">
+        <f>D5-B5</f>
         <v>24.200000000000003</v>
       </c>
-      <c r="E5" s="5">
-        <v>15</v>
-      </c>
-      <c r="F5" s="5">
-        <f>D5/E5</f>
+      <c r="G5" s="24">
+        <f>($E$5*2)^(1/2)</f>
+        <v>0.89442719099991586</v>
+      </c>
+      <c r="H5" s="4">
+        <v>15</v>
+      </c>
+      <c r="I5" s="9">
+        <f>F5/H5</f>
         <v>1.6133333333333335</v>
       </c>
-      <c r="G5" s="5">
-        <f>1/F5</f>
-        <v>0.61983471074380159</v>
-      </c>
-      <c r="H5" s="5" t="s">
+      <c r="J5" s="27">
+        <f>G5/H5</f>
+        <v>5.962847939999439E-2</v>
+      </c>
+      <c r="K5" s="9">
+        <f>2*3.1415/I5</f>
+        <v>3.8944214876033056</v>
+      </c>
+      <c r="L5" s="27">
+        <f>2*3.1415/(I5^2)*J5</f>
+        <v>0.14393704428622886</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="N5" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="30">
         <v>5.97</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="25"/>
+      <c r="D6" s="31">
         <v>30.19</v>
       </c>
-      <c r="D6" s="5">
-        <f t="shared" ref="D6:D11" si="0">C6-B6</f>
+      <c r="E6" s="25"/>
+      <c r="F6" s="31">
+        <f t="shared" ref="F6:F11" si="0">D6-B6</f>
         <v>24.220000000000002</v>
       </c>
-      <c r="E6" s="5">
-        <v>15</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" ref="F6:F8" si="1">D6/E6</f>
+      <c r="G6" s="25"/>
+      <c r="H6" s="4">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9">
+        <f t="shared" ref="I6:I8" si="1">F6/H6</f>
         <v>1.6146666666666669</v>
       </c>
-      <c r="G6" s="5">
-        <f t="shared" ref="G6:G11" si="2">1/F6</f>
-        <v>0.61932287365813365</v>
-      </c>
-      <c r="H6" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="28"/>
+      <c r="K6" s="9">
+        <f t="shared" ref="K6:K11" si="2">2*3.1415/I6</f>
+        <v>3.8912056151940542</v>
+      </c>
+      <c r="L6" s="28"/>
+      <c r="M6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="30">
         <v>1.44</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="25"/>
+      <c r="D7" s="31">
         <v>21.82</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E7" s="25"/>
+      <c r="F7" s="31">
         <f t="shared" si="0"/>
         <v>20.38</v>
       </c>
-      <c r="E7" s="5">
-        <v>15</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="G7" s="25"/>
+      <c r="H7" s="4">
+        <v>15</v>
+      </c>
+      <c r="I7" s="9">
         <f t="shared" si="1"/>
         <v>1.3586666666666667</v>
       </c>
-      <c r="G7" s="5">
+      <c r="J7" s="28"/>
+      <c r="K7" s="9">
         <f t="shared" si="2"/>
-        <v>0.73601570166830221</v>
-      </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="6" t="s">
+        <v>4.6243866535819436</v>
+      </c>
+      <c r="L7" s="28"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="30">
         <v>0.59</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="25"/>
+      <c r="D8" s="31">
         <v>24.75</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E8" s="25"/>
+      <c r="F8" s="31">
         <f t="shared" si="0"/>
         <v>24.16</v>
       </c>
-      <c r="E8" s="5">
-        <v>15</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="G8" s="25"/>
+      <c r="H8" s="4">
+        <v>15</v>
+      </c>
+      <c r="I8" s="9">
         <f t="shared" si="1"/>
         <v>1.6106666666666667</v>
       </c>
-      <c r="G8" s="5">
+      <c r="J8" s="28"/>
+      <c r="K8" s="9">
         <f t="shared" si="2"/>
-        <v>0.62086092715231789</v>
-      </c>
-      <c r="H8" s="31" t="s">
+        <v>3.9008692052980134</v>
+      </c>
+      <c r="L8" s="28"/>
+      <c r="M8" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="N8" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="4">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="30">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="25"/>
+      <c r="D9" s="31">
         <v>22.18</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E9" s="25"/>
+      <c r="F9" s="31">
         <f t="shared" si="0"/>
         <v>21.89</v>
       </c>
-      <c r="E9" s="5">
-        <v>15</v>
-      </c>
-      <c r="F9" s="5">
-        <f>D9/E9</f>
+      <c r="G9" s="25"/>
+      <c r="H9" s="4">
+        <v>15</v>
+      </c>
+      <c r="I9" s="9">
+        <f>F9/H9</f>
         <v>1.4593333333333334</v>
       </c>
-      <c r="G9" s="5">
+      <c r="J9" s="28"/>
+      <c r="K9" s="9">
         <f t="shared" si="2"/>
-        <v>0.68524440383736862</v>
-      </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="6" t="s">
+        <v>4.3053905893101874</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="30">
         <v>0.94</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="25"/>
+      <c r="D10" s="31">
         <v>25.11</v>
       </c>
-      <c r="D10" s="5">
+      <c r="E10" s="25"/>
+      <c r="F10" s="31">
         <f t="shared" si="0"/>
         <v>24.169999999999998</v>
       </c>
-      <c r="E10" s="5">
-        <v>15</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" ref="F10:F11" si="3">D10/E10</f>
+      <c r="G10" s="25"/>
+      <c r="H10" s="4">
+        <v>15</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" ref="I10:I11" si="3">F10/H10</f>
         <v>1.6113333333333333</v>
       </c>
-      <c r="G10" s="5">
+      <c r="J10" s="28"/>
+      <c r="K10" s="9">
         <f t="shared" si="2"/>
-        <v>0.62060405461315682</v>
-      </c>
-      <c r="H10" s="31" t="s">
+        <v>3.8992552751344647</v>
+      </c>
+      <c r="L10" s="28"/>
+      <c r="M10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="N10" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="7">
+    <row r="11" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="32">
         <v>0.94</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="26"/>
+      <c r="D11" s="33">
         <v>24.12</v>
       </c>
-      <c r="D11" s="8">
+      <c r="E11" s="26"/>
+      <c r="F11" s="33">
         <f t="shared" si="0"/>
         <v>23.18</v>
       </c>
-      <c r="E11" s="8">
-        <v>15</v>
-      </c>
-      <c r="F11" s="8">
+      <c r="G11" s="26"/>
+      <c r="H11" s="6">
+        <v>15</v>
+      </c>
+      <c r="I11" s="12">
         <f t="shared" si="3"/>
         <v>1.5453333333333332</v>
       </c>
-      <c r="G11" s="8">
+      <c r="J11" s="29"/>
+      <c r="K11" s="12">
         <f t="shared" si="2"/>
-        <v>0.64710957722174289</v>
-      </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="9" t="s">
+        <v>4.0657894736842106</v>
+      </c>
+      <c r="L11" s="29"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="22" t="s">
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="E15" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="G15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="I15" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="J15" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="L15" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="N15" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="10">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="30">
         <v>1.53</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="D16" s="31">
         <v>25.86</v>
       </c>
-      <c r="D16" s="11">
-        <f>C16-B16</f>
+      <c r="E16" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="F16" s="31">
+        <f>D16-B16</f>
         <v>24.33</v>
       </c>
-      <c r="E16" s="11">
-        <v>15</v>
-      </c>
-      <c r="F16" s="12">
-        <f>D16/E16</f>
+      <c r="G16" s="24">
+        <f>($E$5*2)^(1/2)</f>
+        <v>0.89442719099991586</v>
+      </c>
+      <c r="H16" s="8">
+        <v>15</v>
+      </c>
+      <c r="I16" s="9">
+        <f>F16/H16</f>
         <v>1.6219999999999999</v>
       </c>
-      <c r="G16" s="12">
-        <f>1/F16</f>
-        <v>0.61652281134401976</v>
-      </c>
-      <c r="H16" s="5" t="s">
+      <c r="J16" s="27">
+        <f>G16/H16</f>
+        <v>5.962847939999439E-2</v>
+      </c>
+      <c r="K16" s="9">
+        <f>2*3.1415/I16</f>
+        <v>3.8736128236744762</v>
+      </c>
+      <c r="L16" s="27">
+        <f>2*3.1415/(I16^2)*J16</f>
+        <v>0.14240298548707006</v>
+      </c>
+      <c r="M16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="N16" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="10">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="30">
         <v>5.98</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="25"/>
+      <c r="D17" s="31">
         <v>30.16</v>
       </c>
-      <c r="D17" s="11">
-        <f t="shared" ref="D17:D22" si="4">C17-B17</f>
+      <c r="E17" s="25"/>
+      <c r="F17" s="31">
+        <f t="shared" ref="F17:F22" si="4">D17-B17</f>
         <v>24.18</v>
       </c>
-      <c r="E17" s="11">
-        <v>15</v>
-      </c>
-      <c r="F17" s="12">
-        <f t="shared" ref="F17:F19" si="5">D17/E17</f>
+      <c r="G17" s="25"/>
+      <c r="H17" s="8">
+        <v>15</v>
+      </c>
+      <c r="I17" s="9">
+        <f t="shared" ref="I17:I19" si="5">F17/H17</f>
         <v>1.6119999999999999</v>
       </c>
-      <c r="G17" s="12">
-        <f t="shared" ref="G17:G22" si="6">1/F17</f>
-        <v>0.62034739454094301</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="13" t="s">
+      <c r="J17" s="28"/>
+      <c r="K17" s="9">
+        <f t="shared" ref="K17:K22" si="6">2*3.1415/I17</f>
+        <v>3.8976426799007449</v>
+      </c>
+      <c r="L17" s="28"/>
+      <c r="M17" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="10">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="30">
         <v>0.72</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="25"/>
+      <c r="D18" s="31">
         <v>21.14</v>
       </c>
-      <c r="D18" s="11">
+      <c r="E18" s="25"/>
+      <c r="F18" s="31">
         <f t="shared" si="4"/>
         <v>20.420000000000002</v>
       </c>
-      <c r="E18" s="11">
-        <v>15</v>
-      </c>
-      <c r="F18" s="12">
+      <c r="G18" s="25"/>
+      <c r="H18" s="8">
+        <v>15</v>
+      </c>
+      <c r="I18" s="9">
         <f t="shared" si="5"/>
         <v>1.3613333333333335</v>
       </c>
-      <c r="G18" s="12">
+      <c r="J18" s="28"/>
+      <c r="K18" s="9">
         <f t="shared" si="6"/>
-        <v>0.7345739471106757</v>
-      </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="13" t="s">
+        <v>4.6153281096963754</v>
+      </c>
+      <c r="L18" s="28"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="10">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="30">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="25"/>
+      <c r="D19" s="31">
         <v>24.73</v>
       </c>
-      <c r="D19" s="11">
+      <c r="E19" s="25"/>
+      <c r="F19" s="31">
         <f t="shared" si="4"/>
         <v>24.17</v>
       </c>
-      <c r="E19" s="11">
-        <v>15</v>
-      </c>
-      <c r="F19" s="12">
+      <c r="G19" s="25"/>
+      <c r="H19" s="8">
+        <v>15</v>
+      </c>
+      <c r="I19" s="9">
         <f t="shared" si="5"/>
         <v>1.6113333333333335</v>
       </c>
-      <c r="G19" s="12">
+      <c r="J19" s="28"/>
+      <c r="K19" s="9">
         <f t="shared" si="6"/>
-        <v>0.62060405461315671</v>
-      </c>
-      <c r="H19" s="29" t="s">
+        <v>3.8992552751344642</v>
+      </c>
+      <c r="L19" s="28"/>
+      <c r="M19" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="N19" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="10">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="30">
         <v>1.01</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="25"/>
+      <c r="D20" s="31">
         <v>22.87</v>
       </c>
-      <c r="D20" s="11">
+      <c r="E20" s="25"/>
+      <c r="F20" s="31">
         <f t="shared" si="4"/>
         <v>21.86</v>
       </c>
-      <c r="E20" s="11">
-        <v>15</v>
-      </c>
-      <c r="F20" s="12">
-        <f>D20/E20</f>
+      <c r="G20" s="25"/>
+      <c r="H20" s="8">
+        <v>15</v>
+      </c>
+      <c r="I20" s="9">
+        <f>F20/H20</f>
         <v>1.4573333333333334</v>
       </c>
-      <c r="G20" s="12">
+      <c r="J20" s="28"/>
+      <c r="K20" s="9">
         <f t="shared" si="6"/>
-        <v>0.68618481244281793</v>
-      </c>
-      <c r="H20" s="29"/>
-      <c r="I20" s="13" t="s">
+        <v>4.3112991765782249</v>
+      </c>
+      <c r="L20" s="28"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="10">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="30">
         <v>0.98</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="25"/>
+      <c r="D21" s="31">
         <v>25.17</v>
       </c>
-      <c r="D21" s="11">
+      <c r="E21" s="25"/>
+      <c r="F21" s="31">
         <f t="shared" si="4"/>
         <v>24.19</v>
       </c>
-      <c r="E21" s="11">
-        <v>15</v>
-      </c>
-      <c r="F21" s="12">
-        <f t="shared" ref="F21:F22" si="7">D21/E21</f>
+      <c r="G21" s="25"/>
+      <c r="H21" s="8">
+        <v>15</v>
+      </c>
+      <c r="I21" s="9">
+        <f t="shared" ref="I21:I22" si="7">F21/H21</f>
         <v>1.6126666666666667</v>
       </c>
-      <c r="G21" s="12">
+      <c r="J21" s="28"/>
+      <c r="K21" s="9">
         <f t="shared" si="6"/>
-        <v>0.62009094667217857</v>
-      </c>
-      <c r="H21" s="29" t="s">
+        <v>3.8960314179412983</v>
+      </c>
+      <c r="L21" s="28"/>
+      <c r="M21" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="N21" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="14">
+    <row r="22" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="32">
         <v>0.16</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="26"/>
+      <c r="D22" s="33">
         <v>23.35</v>
       </c>
-      <c r="D22" s="15">
+      <c r="E22" s="26"/>
+      <c r="F22" s="33">
         <f t="shared" si="4"/>
         <v>23.19</v>
       </c>
-      <c r="E22" s="15">
-        <v>15</v>
-      </c>
-      <c r="F22" s="16">
+      <c r="G22" s="26"/>
+      <c r="H22" s="11">
+        <v>15</v>
+      </c>
+      <c r="I22" s="12">
         <f t="shared" si="7"/>
         <v>1.546</v>
       </c>
-      <c r="G22" s="16">
+      <c r="J22" s="29"/>
+      <c r="K22" s="12">
         <f t="shared" si="6"/>
-        <v>0.64683053040103489</v>
-      </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="17" t="s">
+        <v>4.0640362225097029</v>
+      </c>
+      <c r="L22" s="29"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>0</v>
       </c>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="22" t="s">
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C28" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="E28" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="G28" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="I28" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="J28" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="26" t="s">
+      <c r="L28" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="27" t="s">
+      <c r="N28" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="10">
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="30">
         <v>3.23</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="D29" s="31">
         <v>27.52</v>
       </c>
-      <c r="D29" s="11">
-        <f t="shared" ref="D29:D34" si="8">C29-B29</f>
+      <c r="E29" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="F29" s="31">
+        <f t="shared" ref="F29:F34" si="8">D29-B29</f>
         <v>24.29</v>
       </c>
-      <c r="E29" s="11">
-        <v>15</v>
-      </c>
-      <c r="F29" s="12">
-        <f t="shared" ref="F29:F31" si="9">D29/E29</f>
+      <c r="G29" s="31">
+        <f>(E29^2*2)^(1/2)</f>
+        <v>0.42426406871192851</v>
+      </c>
+      <c r="H29" s="8">
+        <v>15</v>
+      </c>
+      <c r="I29" s="9">
+        <f t="shared" ref="I29:I31" si="9">F29/H29</f>
         <v>1.6193333333333333</v>
       </c>
-      <c r="G29" s="12">
-        <f t="shared" ref="G29:G34" si="10">1/F29</f>
-        <v>0.61753808151502676</v>
-      </c>
-      <c r="H29" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" s="13" t="s">
+      <c r="J29" s="9">
+        <f>G29/H29</f>
+        <v>2.8284271247461901E-2</v>
+      </c>
+      <c r="K29" s="9">
+        <f>2*3.1415/I29</f>
+        <v>3.8799917661589136</v>
+      </c>
+      <c r="L29" s="9">
+        <f>2*3.1415/(I29^2)*J29</f>
+        <v>6.7770320843119056E-2</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="10">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="30">
         <v>3.23</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="D30" s="31">
         <v>90.31</v>
       </c>
-      <c r="D30" s="11">
+      <c r="E30" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="F30" s="31">
         <f t="shared" si="8"/>
         <v>87.08</v>
       </c>
-      <c r="E30" s="11">
+      <c r="G30" s="31">
+        <f t="shared" ref="G30:G34" si="10">(E30^2*2)^(1/2)</f>
+        <v>0.84852813742385702</v>
+      </c>
+      <c r="H30" s="8">
         <v>10</v>
       </c>
-      <c r="F30" s="12">
+      <c r="I30" s="9">
         <f t="shared" si="9"/>
         <v>8.7080000000000002</v>
       </c>
-      <c r="G30" s="12">
-        <f t="shared" si="10"/>
-        <v>0.11483693155718878</v>
-      </c>
-      <c r="H30" s="29"/>
-      <c r="I30" s="13" t="s">
+      <c r="J30" s="9">
+        <f t="shared" ref="J30:J34" si="11">G30/H30</f>
+        <v>8.4852813742385708E-2</v>
+      </c>
+      <c r="K30" s="37">
+        <f t="shared" ref="K30:K34" si="12">2*3.1415/I30</f>
+        <v>0.72152044097381718</v>
+      </c>
+      <c r="L30" s="37">
+        <f t="shared" ref="L30:L34" si="13">2*3.1415/(I30^2)*J30</f>
+        <v>7.0306660070366678E-3</v>
+      </c>
+      <c r="M30" s="19"/>
+      <c r="N30" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="10">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="30">
         <v>5.86</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="D31" s="31">
         <v>28.05</v>
       </c>
-      <c r="D31" s="11">
+      <c r="E31" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="F31" s="31">
         <f t="shared" si="8"/>
         <v>22.19</v>
       </c>
-      <c r="E31" s="11">
-        <v>15</v>
-      </c>
-      <c r="F31" s="12">
+      <c r="G31" s="31">
+        <f t="shared" si="10"/>
+        <v>0.42426406871192851</v>
+      </c>
+      <c r="H31" s="8">
+        <v>15</v>
+      </c>
+      <c r="I31" s="9">
         <f t="shared" si="9"/>
         <v>1.4793333333333334</v>
       </c>
-      <c r="G31" s="12">
-        <f t="shared" si="10"/>
-        <v>0.67598017124831</v>
-      </c>
-      <c r="H31" s="29" t="s">
+      <c r="J31" s="9">
+        <f t="shared" si="11"/>
+        <v>2.8284271247461901E-2</v>
+      </c>
+      <c r="K31" s="9">
+        <f t="shared" si="12"/>
+        <v>4.2471834159531321</v>
+      </c>
+      <c r="L31" s="9">
+        <f t="shared" si="13"/>
+        <v>8.1204475737634202E-2</v>
+      </c>
+      <c r="M31" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I31" s="13" t="s">
+      <c r="N31" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="10">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="30">
         <v>5.85</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="D32" s="31">
         <v>146.13999999999999</v>
       </c>
-      <c r="D32" s="11">
+      <c r="E32" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="F32" s="31">
         <f t="shared" si="8"/>
         <v>140.29</v>
       </c>
-      <c r="E32" s="11">
+      <c r="G32" s="31">
+        <f t="shared" si="10"/>
+        <v>0.84852813742385702</v>
+      </c>
+      <c r="H32" s="8">
         <v>10</v>
       </c>
-      <c r="F32" s="12">
-        <f>D32/E32</f>
+      <c r="I32" s="9">
+        <f>F32/H32</f>
         <v>14.029</v>
       </c>
-      <c r="G32" s="12">
-        <f t="shared" si="10"/>
-        <v>7.1280918098225107E-2</v>
-      </c>
-      <c r="H32" s="29"/>
-      <c r="I32" s="13" t="s">
+      <c r="J32" s="9">
+        <f t="shared" si="11"/>
+        <v>8.4852813742385708E-2</v>
+      </c>
+      <c r="K32" s="35">
+        <f t="shared" si="12"/>
+        <v>0.44785800841114837</v>
+      </c>
+      <c r="L32" s="35">
+        <f t="shared" si="13"/>
+        <v>2.7088183171107691E-3</v>
+      </c>
+      <c r="M32" s="19"/>
+      <c r="N32" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="10">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="30">
         <v>30.84</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="D33" s="31">
         <v>53.85</v>
       </c>
-      <c r="D33" s="11">
+      <c r="E33" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="F33" s="31">
         <f t="shared" si="8"/>
         <v>23.01</v>
       </c>
-      <c r="E33" s="11">
-        <v>15</v>
-      </c>
-      <c r="F33" s="12">
-        <f t="shared" ref="F33:F34" si="11">D33/E33</f>
+      <c r="G33" s="31">
+        <f t="shared" si="10"/>
+        <v>0.42426406871192851</v>
+      </c>
+      <c r="H33" s="8">
+        <v>15</v>
+      </c>
+      <c r="I33" s="9">
+        <f t="shared" ref="I33:I34" si="14">F33/H33</f>
         <v>1.534</v>
       </c>
-      <c r="G33" s="12">
-        <f t="shared" si="10"/>
-        <v>0.65189048239895697</v>
-      </c>
-      <c r="H33" s="29" t="s">
+      <c r="J33" s="9">
+        <f t="shared" si="11"/>
+        <v>2.8284271247461901E-2</v>
+      </c>
+      <c r="K33" s="9">
+        <f t="shared" si="12"/>
+        <v>4.0958279009126466</v>
+      </c>
+      <c r="L33" s="9">
+        <f t="shared" si="13"/>
+        <v>7.5519887439593092E-2</v>
+      </c>
+      <c r="M33" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I33" s="13" t="s">
+      <c r="N33" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="14">
+    <row r="34" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="32">
         <v>30.84</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="33">
+        <v>0.6</v>
+      </c>
+      <c r="D34" s="33">
         <v>213.07</v>
       </c>
-      <c r="D34" s="15">
+      <c r="E34" s="33">
+        <v>0.6</v>
+      </c>
+      <c r="F34" s="33">
         <f t="shared" si="8"/>
         <v>182.23</v>
       </c>
-      <c r="E34" s="15">
+      <c r="G34" s="33">
+        <f t="shared" si="10"/>
+        <v>0.84852813742385702</v>
+      </c>
+      <c r="H34" s="11">
         <v>5</v>
       </c>
-      <c r="F34" s="16">
+      <c r="I34" s="12">
+        <f t="shared" si="14"/>
+        <v>36.445999999999998</v>
+      </c>
+      <c r="J34" s="12">
         <f t="shared" si="11"/>
-        <v>36.445999999999998</v>
-      </c>
-      <c r="G34" s="16">
-        <f t="shared" si="10"/>
-        <v>2.7437853262360753E-2</v>
-      </c>
-      <c r="H34" s="30"/>
-      <c r="I34" s="17" t="s">
+        <v>0.16970562748477142</v>
+      </c>
+      <c r="K34" s="36">
+        <f t="shared" si="12"/>
+        <v>0.17239203204741263</v>
+      </c>
+      <c r="L34" s="36">
+        <f t="shared" si="13"/>
+        <v>8.0271903561381184E-4</v>
+      </c>
+      <c r="M34" s="20"/>
+      <c r="N34" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="22" t="s">
+    <row r="37" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C38" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="E38" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="23" t="s">
+      <c r="G38" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="I38" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="26" t="s">
+      <c r="J38" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="26" t="s">
+      <c r="L38" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M38" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I38" s="27" t="s">
+      <c r="N38" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K38" s="28"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="10">
+      <c r="P38" s="18"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39" s="30">
         <v>6.56</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="D39" s="31">
         <v>30.87</v>
       </c>
-      <c r="D39" s="11">
-        <f t="shared" ref="D39:D44" si="12">C39-B39</f>
+      <c r="E39" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="F39" s="31">
+        <f t="shared" ref="F39:F44" si="15">D39-B39</f>
         <v>24.310000000000002</v>
       </c>
-      <c r="E39" s="11">
-        <v>15</v>
-      </c>
-      <c r="F39" s="12">
-        <f t="shared" ref="F39:F41" si="13">D39/E39</f>
+      <c r="G39" s="31">
+        <f>(E39^2*2)^(1/2)</f>
+        <v>0.42426406871192851</v>
+      </c>
+      <c r="H39" s="8">
+        <v>15</v>
+      </c>
+      <c r="I39" s="9">
+        <f t="shared" ref="I39:I41" si="16">F39/H39</f>
         <v>1.6206666666666669</v>
       </c>
-      <c r="G39" s="12">
-        <f t="shared" ref="G39:G44" si="14">1/F39</f>
-        <v>0.61703002879473456</v>
-      </c>
-      <c r="H39" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" s="13" t="s">
+      <c r="J39" s="9">
+        <f>G39/H39</f>
+        <v>2.8284271247461901E-2</v>
+      </c>
+      <c r="K39" s="9">
+        <f>2*3.1415/I39</f>
+        <v>3.8767996709173178</v>
+      </c>
+      <c r="L39" s="9">
+        <f>2*3.1415/(I39^2)*J39</f>
+        <v>6.7658856518488131E-2</v>
+      </c>
+      <c r="M39" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="N39" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="10">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="30">
         <v>6.56</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="D40" s="31">
         <v>95.23</v>
       </c>
-      <c r="D40" s="11">
-        <f t="shared" si="12"/>
+      <c r="E40" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="F40" s="31">
+        <f t="shared" si="15"/>
         <v>88.67</v>
       </c>
-      <c r="E40" s="11">
+      <c r="G40" s="31">
+        <f t="shared" ref="G40:G44" si="17">(E40^2*2)^(1/2)</f>
+        <v>0.84852813742385702</v>
+      </c>
+      <c r="H40" s="8">
         <v>10</v>
       </c>
-      <c r="F40" s="12">
-        <f t="shared" si="13"/>
+      <c r="I40" s="9">
+        <f t="shared" si="16"/>
         <v>8.8670000000000009</v>
       </c>
-      <c r="G40" s="12">
-        <f t="shared" si="14"/>
-        <v>0.11277771512349159</v>
-      </c>
-      <c r="H40" s="29"/>
-      <c r="I40" s="13" t="s">
+      <c r="J40" s="9">
+        <f t="shared" ref="J40:J44" si="18">G40/H40</f>
+        <v>8.4852813742385708E-2</v>
+      </c>
+      <c r="K40" s="37">
+        <f t="shared" ref="K40:K44" si="19">2*3.1415/I40</f>
+        <v>0.70858238412089769</v>
+      </c>
+      <c r="L40" s="37">
+        <f t="shared" ref="L40:L44" si="20">2*3.1415/(I40^2)*J40</f>
+        <v>6.7807836992157585E-3</v>
+      </c>
+      <c r="M40" s="19"/>
+      <c r="N40" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="10">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41" s="30">
         <v>12.51</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="D41" s="31">
         <v>34.659999999999997</v>
       </c>
-      <c r="D41" s="11">
-        <f t="shared" si="12"/>
+      <c r="E41" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="F41" s="31">
+        <f t="shared" si="15"/>
         <v>22.15</v>
       </c>
-      <c r="E41" s="11">
-        <v>15</v>
-      </c>
-      <c r="F41" s="12">
-        <f t="shared" si="13"/>
+      <c r="G41" s="31">
+        <f t="shared" si="17"/>
+        <v>0.42426406871192851</v>
+      </c>
+      <c r="H41" s="8">
+        <v>15</v>
+      </c>
+      <c r="I41" s="9">
+        <f t="shared" si="16"/>
         <v>1.4766666666666666</v>
       </c>
-      <c r="G41" s="12">
-        <f t="shared" si="14"/>
-        <v>0.67720090293453727</v>
-      </c>
-      <c r="H41" s="29" t="s">
+      <c r="J41" s="9">
+        <f t="shared" si="18"/>
+        <v>2.8284271247461901E-2</v>
+      </c>
+      <c r="K41" s="9">
+        <f t="shared" si="19"/>
+        <v>4.254853273137698</v>
+      </c>
+      <c r="L41" s="9">
+        <f t="shared" si="20"/>
+        <v>8.1498029861565083E-2</v>
+      </c>
+      <c r="M41" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I41" s="13" t="s">
+      <c r="N41" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="10">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42" s="30">
         <v>12.51</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="D42" s="31">
         <v>154.38999999999999</v>
       </c>
-      <c r="D42" s="11">
-        <f t="shared" si="12"/>
+      <c r="E42" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="F42" s="31">
+        <f t="shared" si="15"/>
         <v>141.88</v>
       </c>
-      <c r="E42" s="11">
+      <c r="G42" s="31">
+        <f t="shared" si="17"/>
+        <v>0.84852813742385702</v>
+      </c>
+      <c r="H42" s="8">
         <v>10</v>
       </c>
-      <c r="F42" s="12">
-        <f>D42/E42</f>
+      <c r="I42" s="9">
+        <f>F42/H42</f>
         <v>14.187999999999999</v>
       </c>
-      <c r="G42" s="12">
-        <f t="shared" si="14"/>
-        <v>7.048209754722301E-2</v>
-      </c>
-      <c r="H42" s="29"/>
-      <c r="I42" s="13" t="s">
+      <c r="J42" s="9">
+        <f t="shared" si="18"/>
+        <v>8.4852813742385708E-2</v>
+      </c>
+      <c r="K42" s="35">
+        <f t="shared" si="19"/>
+        <v>0.44283901888920219</v>
+      </c>
+      <c r="L42" s="35">
+        <f t="shared" si="20"/>
+        <v>2.6484449385160915E-3</v>
+      </c>
+      <c r="M42" s="19"/>
+      <c r="N42" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="10">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B43" s="30">
         <v>50.21</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="D43" s="31">
         <v>74.62</v>
       </c>
-      <c r="D43" s="11">
-        <f t="shared" si="12"/>
+      <c r="E43" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="F43" s="31">
+        <f t="shared" si="15"/>
         <v>24.410000000000004</v>
       </c>
-      <c r="E43" s="11">
-        <v>15</v>
-      </c>
-      <c r="F43" s="12">
-        <f t="shared" ref="F43:F44" si="15">D43/E43</f>
+      <c r="G43" s="31">
+        <f t="shared" si="17"/>
+        <v>0.42426406871192851</v>
+      </c>
+      <c r="H43" s="8">
+        <v>15</v>
+      </c>
+      <c r="I43" s="9">
+        <f t="shared" ref="I43:I44" si="21">F43/H43</f>
         <v>1.6273333333333335</v>
       </c>
-      <c r="G43" s="12">
-        <f t="shared" si="14"/>
-        <v>0.61450225317492824</v>
-      </c>
-      <c r="H43" s="29" t="s">
+      <c r="J43" s="9">
+        <f t="shared" si="18"/>
+        <v>2.8284271247461901E-2</v>
+      </c>
+      <c r="K43" s="9">
+        <f t="shared" si="19"/>
+        <v>3.8609176566980743</v>
+      </c>
+      <c r="L43" s="9">
+        <f t="shared" si="20"/>
+        <v>6.7105638426564918E-2</v>
+      </c>
+      <c r="M43" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I43" s="13" t="s">
+      <c r="N43" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="14">
+    <row r="44" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="32">
         <v>13.11</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C44" s="33">
+        <v>0.6</v>
+      </c>
+      <c r="D44" s="33">
         <v>195.3</v>
       </c>
-      <c r="D44" s="15">
-        <f t="shared" si="12"/>
+      <c r="E44" s="33">
+        <v>0.6</v>
+      </c>
+      <c r="F44" s="33">
+        <f t="shared" si="15"/>
         <v>182.19</v>
       </c>
-      <c r="E44" s="15">
+      <c r="G44" s="33">
+        <f t="shared" si="17"/>
+        <v>0.84852813742385702</v>
+      </c>
+      <c r="H44" s="11">
         <v>5</v>
       </c>
-      <c r="F44" s="16">
-        <f t="shared" si="15"/>
+      <c r="I44" s="12">
+        <f t="shared" si="21"/>
         <v>36.438000000000002</v>
       </c>
-      <c r="G44" s="16">
-        <f t="shared" si="14"/>
-        <v>2.7443877270980844E-2</v>
-      </c>
-      <c r="H44" s="30"/>
-      <c r="I44" s="17" t="s">
+      <c r="J44" s="12">
+        <f t="shared" si="18"/>
+        <v>0.16970562748477142</v>
+      </c>
+      <c r="K44" s="36">
+        <f t="shared" si="19"/>
+        <v>0.17242988089357264</v>
+      </c>
+      <c r="L44" s="36">
+        <f t="shared" si="20"/>
+        <v>8.0307154987013948E-4</v>
+      </c>
+      <c r="M44" s="20"/>
+      <c r="N44" s="13" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H33:H34"/>
+  <mergeCells count="22">
+    <mergeCell ref="J5:J11"/>
+    <mergeCell ref="L5:L11"/>
+    <mergeCell ref="J16:J22"/>
+    <mergeCell ref="L16:L22"/>
+    <mergeCell ref="C5:C11"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="E5:E11"/>
+    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="G5:G11"/>
+    <mergeCell ref="G16:G22"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Praktikum/211 - Gekoppelte Pendel/Gekopplete_Pendel.xlsx
+++ b/Praktikum/211 - Gekoppelte Pendel/Gekopplete_Pendel.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="23">
-  <si>
-    <t>Pendel links</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="34">
   <si>
     <t>Startzeit [s]</t>
   </si>
@@ -48,9 +46,6 @@
   </si>
   <si>
     <t>Kopplungspos. [cm]</t>
-  </si>
-  <si>
-    <t>Pendel rechts</t>
   </si>
   <si>
     <t>Schwingungstyp</t>
@@ -122,10 +117,49 @@
     <t>Δ Schwingzeit [s]</t>
   </si>
   <si>
-    <t>Δ Periodendauer [s</t>
-  </si>
-  <si>
     <t>Δ ω [Hz]</t>
+  </si>
+  <si>
+    <t>Δ Periodendauer [s]</t>
+  </si>
+  <si>
+    <t>ω_I</t>
+  </si>
+  <si>
+    <t>ω_II</t>
+  </si>
+  <si>
+    <t>Pendel links (1)</t>
+  </si>
+  <si>
+    <t>Pendel rechts (2)</t>
+  </si>
+  <si>
+    <t>Δ ω_I</t>
+  </si>
+  <si>
+    <t>Δ ω_II</t>
+  </si>
+  <si>
+    <t>Kopplung/Pendel</t>
+  </si>
+  <si>
+    <t>1/links</t>
+  </si>
+  <si>
+    <t>2/links</t>
+  </si>
+  <si>
+    <t>3/links</t>
+  </si>
+  <si>
+    <t>1/rechts</t>
+  </si>
+  <si>
+    <t>2/rechts</t>
+  </si>
+  <si>
+    <t>3/rechts</t>
   </si>
 </sst>
 </file>
@@ -330,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -352,6 +386,33 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -364,33 +425,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -671,10 +711,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P44"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,80 +726,80 @@
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="E4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="15" t="s">
+      <c r="H4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="16" t="s">
+      <c r="M4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="16" t="s">
+      <c r="N4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="17" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="30">
+      <c r="B5" s="20">
         <v>1.33</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="31">
         <v>0.4</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="21">
         <v>25.53</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="31">
         <v>0.4</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="21">
         <f>D5-B5</f>
         <v>24.200000000000003</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="31">
         <f>($E$5*2)^(1/2)</f>
         <v>0.89442719099991586</v>
       </c>
@@ -767,7 +810,7 @@
         <f>F5/H5</f>
         <v>1.6133333333333335</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="28">
         <f>G5/H5</f>
         <v>5.962847939999439E-2</v>
       </c>
@@ -775,31 +818,31 @@
         <f>2*3.1415/I5</f>
         <v>3.8944214876033056</v>
       </c>
-      <c r="L5" s="27">
+      <c r="L5" s="28">
         <f>2*3.1415/(I5^2)*J5</f>
         <v>0.14393704428622886</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="30">
+      <c r="B6" s="20">
         <v>5.97</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="31">
+      <c r="C6" s="32"/>
+      <c r="D6" s="21">
         <v>30.19</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="31">
+      <c r="E6" s="32"/>
+      <c r="F6" s="21">
         <f t="shared" ref="F6:F11" si="0">D6-B6</f>
         <v>24.220000000000002</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="32"/>
       <c r="H6" s="4">
         <v>15</v>
       </c>
@@ -807,33 +850,33 @@
         <f t="shared" ref="I6:I8" si="1">F6/H6</f>
         <v>1.6146666666666669</v>
       </c>
-      <c r="J6" s="28"/>
+      <c r="J6" s="29"/>
       <c r="K6" s="9">
         <f t="shared" ref="K6:K11" si="2">2*3.1415/I6</f>
         <v>3.8912056151940542</v>
       </c>
-      <c r="L6" s="28"/>
-      <c r="M6" s="21" t="s">
-        <v>15</v>
+      <c r="L6" s="29"/>
+      <c r="M6" s="36" t="s">
+        <v>13</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="30">
+      <c r="B7" s="20">
         <v>1.44</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="31">
+      <c r="C7" s="32"/>
+      <c r="D7" s="21">
         <v>21.82</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="31">
+      <c r="E7" s="32"/>
+      <c r="F7" s="21">
         <f t="shared" si="0"/>
         <v>20.38</v>
       </c>
-      <c r="G7" s="25"/>
+      <c r="G7" s="32"/>
       <c r="H7" s="4">
         <v>15</v>
       </c>
@@ -841,31 +884,31 @@
         <f t="shared" si="1"/>
         <v>1.3586666666666667</v>
       </c>
-      <c r="J7" s="28"/>
+      <c r="J7" s="29"/>
       <c r="K7" s="9">
         <f t="shared" si="2"/>
         <v>4.6243866535819436</v>
       </c>
-      <c r="L7" s="28"/>
-      <c r="M7" s="21"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="36"/>
       <c r="N7" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="30">
+      <c r="B8" s="20">
         <v>0.59</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="31">
+      <c r="C8" s="32"/>
+      <c r="D8" s="21">
         <v>24.75</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="31">
+      <c r="E8" s="32"/>
+      <c r="F8" s="21">
         <f t="shared" si="0"/>
         <v>24.16</v>
       </c>
-      <c r="G8" s="25"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="4">
         <v>15</v>
       </c>
@@ -873,33 +916,33 @@
         <f t="shared" si="1"/>
         <v>1.6106666666666667</v>
       </c>
-      <c r="J8" s="28"/>
+      <c r="J8" s="29"/>
       <c r="K8" s="9">
         <f t="shared" si="2"/>
         <v>3.9008692052980134</v>
       </c>
-      <c r="L8" s="28"/>
-      <c r="M8" s="21" t="s">
-        <v>16</v>
+      <c r="L8" s="29"/>
+      <c r="M8" s="36" t="s">
+        <v>14</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="30">
+      <c r="B9" s="20">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="31">
+      <c r="C9" s="32"/>
+      <c r="D9" s="21">
         <v>22.18</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="31">
+      <c r="E9" s="32"/>
+      <c r="F9" s="21">
         <f t="shared" si="0"/>
         <v>21.89</v>
       </c>
-      <c r="G9" s="25"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="4">
         <v>15</v>
       </c>
@@ -907,31 +950,31 @@
         <f>F9/H9</f>
         <v>1.4593333333333334</v>
       </c>
-      <c r="J9" s="28"/>
+      <c r="J9" s="29"/>
       <c r="K9" s="9">
         <f t="shared" si="2"/>
         <v>4.3053905893101874</v>
       </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="21"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="36"/>
       <c r="N9" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="30">
+      <c r="B10" s="20">
         <v>0.94</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="31">
+      <c r="C10" s="32"/>
+      <c r="D10" s="21">
         <v>25.11</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="31">
+      <c r="E10" s="32"/>
+      <c r="F10" s="21">
         <f t="shared" si="0"/>
         <v>24.169999999999998</v>
       </c>
-      <c r="G10" s="25"/>
+      <c r="G10" s="32"/>
       <c r="H10" s="4">
         <v>15</v>
       </c>
@@ -939,33 +982,33 @@
         <f t="shared" ref="I10:I11" si="3">F10/H10</f>
         <v>1.6113333333333333</v>
       </c>
-      <c r="J10" s="28"/>
+      <c r="J10" s="29"/>
       <c r="K10" s="9">
         <f t="shared" si="2"/>
         <v>3.8992552751344647</v>
       </c>
-      <c r="L10" s="28"/>
-      <c r="M10" s="21" t="s">
-        <v>17</v>
+      <c r="L10" s="29"/>
+      <c r="M10" s="36" t="s">
+        <v>15</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="32">
+      <c r="B11" s="22">
         <v>0.94</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="33">
+      <c r="C11" s="33"/>
+      <c r="D11" s="23">
         <v>24.12</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="33">
+      <c r="E11" s="33"/>
+      <c r="F11" s="23">
         <f t="shared" si="0"/>
         <v>23.18</v>
       </c>
-      <c r="G11" s="26"/>
+      <c r="G11" s="33"/>
       <c r="H11" s="6">
         <v>15</v>
       </c>
@@ -973,15 +1016,15 @@
         <f t="shared" si="3"/>
         <v>1.5453333333333332</v>
       </c>
-      <c r="J11" s="29"/>
+      <c r="J11" s="30"/>
       <c r="K11" s="12">
         <f t="shared" si="2"/>
         <v>4.0657894736842106</v>
       </c>
-      <c r="L11" s="29"/>
-      <c r="M11" s="22"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="37"/>
       <c r="N11" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
@@ -992,7 +1035,7 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1007,63 +1050,63 @@
     </row>
     <row r="15" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="E15" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="15" t="s">
+      <c r="H15" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="16" t="s">
+      <c r="M15" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="L15" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="16" t="s">
+      <c r="N15" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="N15" s="17" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="30">
+      <c r="B16" s="20">
         <v>1.53</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="31">
         <v>0.4</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="21">
         <v>25.86</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="31">
         <v>0.4</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="21">
         <f>D16-B16</f>
         <v>24.33</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="31">
         <f>($E$5*2)^(1/2)</f>
         <v>0.89442719099991586</v>
       </c>
@@ -1074,7 +1117,7 @@
         <f>F16/H16</f>
         <v>1.6219999999999999</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="28">
         <f>G16/H16</f>
         <v>5.962847939999439E-2</v>
       </c>
@@ -1082,31 +1125,31 @@
         <f>2*3.1415/I16</f>
         <v>3.8736128236744762</v>
       </c>
-      <c r="L16" s="27">
+      <c r="L16" s="28">
         <f>2*3.1415/(I16^2)*J16</f>
         <v>0.14240298548707006</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="30">
+      <c r="B17" s="20">
         <v>5.98</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="31">
+      <c r="C17" s="32"/>
+      <c r="D17" s="21">
         <v>30.16</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="31">
+      <c r="E17" s="32"/>
+      <c r="F17" s="21">
         <f t="shared" ref="F17:F22" si="4">D17-B17</f>
         <v>24.18</v>
       </c>
-      <c r="G17" s="25"/>
+      <c r="G17" s="32"/>
       <c r="H17" s="8">
         <v>15</v>
       </c>
@@ -1114,33 +1157,33 @@
         <f t="shared" ref="I17:I19" si="5">F17/H17</f>
         <v>1.6119999999999999</v>
       </c>
-      <c r="J17" s="28"/>
+      <c r="J17" s="29"/>
       <c r="K17" s="9">
         <f t="shared" ref="K17:K22" si="6">2*3.1415/I17</f>
         <v>3.8976426799007449</v>
       </c>
-      <c r="L17" s="28"/>
-      <c r="M17" s="19" t="s">
-        <v>15</v>
+      <c r="L17" s="29"/>
+      <c r="M17" s="34" t="s">
+        <v>13</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="30">
+      <c r="B18" s="20">
         <v>0.72</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="31">
+      <c r="C18" s="32"/>
+      <c r="D18" s="21">
         <v>21.14</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="31">
+      <c r="E18" s="32"/>
+      <c r="F18" s="21">
         <f t="shared" si="4"/>
         <v>20.420000000000002</v>
       </c>
-      <c r="G18" s="25"/>
+      <c r="G18" s="32"/>
       <c r="H18" s="8">
         <v>15</v>
       </c>
@@ -1148,31 +1191,31 @@
         <f t="shared" si="5"/>
         <v>1.3613333333333335</v>
       </c>
-      <c r="J18" s="28"/>
+      <c r="J18" s="29"/>
       <c r="K18" s="9">
         <f t="shared" si="6"/>
         <v>4.6153281096963754</v>
       </c>
-      <c r="L18" s="28"/>
-      <c r="M18" s="19"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="34"/>
       <c r="N18" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="30">
+      <c r="B19" s="20">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="31">
+      <c r="C19" s="32"/>
+      <c r="D19" s="21">
         <v>24.73</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="31">
+      <c r="E19" s="32"/>
+      <c r="F19" s="21">
         <f t="shared" si="4"/>
         <v>24.17</v>
       </c>
-      <c r="G19" s="25"/>
+      <c r="G19" s="32"/>
       <c r="H19" s="8">
         <v>15</v>
       </c>
@@ -1180,33 +1223,33 @@
         <f t="shared" si="5"/>
         <v>1.6113333333333335</v>
       </c>
-      <c r="J19" s="28"/>
+      <c r="J19" s="29"/>
       <c r="K19" s="9">
         <f t="shared" si="6"/>
         <v>3.8992552751344642</v>
       </c>
-      <c r="L19" s="28"/>
-      <c r="M19" s="19" t="s">
-        <v>16</v>
+      <c r="L19" s="29"/>
+      <c r="M19" s="34" t="s">
+        <v>14</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="30">
+      <c r="B20" s="20">
         <v>1.01</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="31">
+      <c r="C20" s="32"/>
+      <c r="D20" s="21">
         <v>22.87</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="31">
+      <c r="E20" s="32"/>
+      <c r="F20" s="21">
         <f t="shared" si="4"/>
         <v>21.86</v>
       </c>
-      <c r="G20" s="25"/>
+      <c r="G20" s="32"/>
       <c r="H20" s="8">
         <v>15</v>
       </c>
@@ -1214,31 +1257,31 @@
         <f>F20/H20</f>
         <v>1.4573333333333334</v>
       </c>
-      <c r="J20" s="28"/>
+      <c r="J20" s="29"/>
       <c r="K20" s="9">
         <f t="shared" si="6"/>
         <v>4.3112991765782249</v>
       </c>
-      <c r="L20" s="28"/>
-      <c r="M20" s="19"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="34"/>
       <c r="N20" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="30">
+      <c r="B21" s="20">
         <v>0.98</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="31">
+      <c r="C21" s="32"/>
+      <c r="D21" s="21">
         <v>25.17</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="31">
+      <c r="E21" s="32"/>
+      <c r="F21" s="21">
         <f t="shared" si="4"/>
         <v>24.19</v>
       </c>
-      <c r="G21" s="25"/>
+      <c r="G21" s="32"/>
       <c r="H21" s="8">
         <v>15</v>
       </c>
@@ -1246,33 +1289,33 @@
         <f t="shared" ref="I21:I22" si="7">F21/H21</f>
         <v>1.6126666666666667</v>
       </c>
-      <c r="J21" s="28"/>
+      <c r="J21" s="29"/>
       <c r="K21" s="9">
         <f t="shared" si="6"/>
         <v>3.8960314179412983</v>
       </c>
-      <c r="L21" s="28"/>
-      <c r="M21" s="19" t="s">
-        <v>17</v>
+      <c r="L21" s="29"/>
+      <c r="M21" s="34" t="s">
+        <v>15</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="32">
+      <c r="B22" s="22">
         <v>0.16</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="33">
+      <c r="C22" s="33"/>
+      <c r="D22" s="23">
         <v>23.35</v>
       </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="33">
+      <c r="E22" s="33"/>
+      <c r="F22" s="23">
         <f t="shared" si="4"/>
         <v>23.19</v>
       </c>
-      <c r="G22" s="26"/>
+      <c r="G22" s="33"/>
       <c r="H22" s="11">
         <v>15</v>
       </c>
@@ -1280,25 +1323,25 @@
         <f t="shared" si="7"/>
         <v>1.546</v>
       </c>
-      <c r="J22" s="29"/>
+      <c r="J22" s="30"/>
       <c r="K22" s="12">
         <f t="shared" si="6"/>
         <v>4.0640362225097029</v>
       </c>
-      <c r="L22" s="29"/>
-      <c r="M22" s="20"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="35"/>
       <c r="N22" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="O26" s="1"/>
     </row>
@@ -1307,64 +1350,64 @@
     </row>
     <row r="28" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="E28" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="15" t="s">
+      <c r="H28" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" s="16" t="s">
+      <c r="M28" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="L28" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="M28" s="16" t="s">
+      <c r="N28" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="N28" s="17" t="s">
-        <v>9</v>
-      </c>
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="30">
+      <c r="B29" s="20">
         <v>3.23</v>
       </c>
-      <c r="C29" s="34">
+      <c r="C29" s="24">
         <v>0.3</v>
       </c>
-      <c r="D29" s="31">
+      <c r="D29" s="21">
         <v>27.52</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E29" s="24">
         <v>0.3</v>
       </c>
-      <c r="F29" s="31">
-        <f t="shared" ref="F29:F34" si="8">D29-B29</f>
+      <c r="F29" s="21">
+        <f>D29-B29</f>
         <v>24.29</v>
       </c>
-      <c r="G29" s="31">
+      <c r="G29" s="21">
         <f>(E29^2*2)^(1/2)</f>
         <v>0.42426406871192851</v>
       </c>
@@ -1372,7 +1415,7 @@
         <v>15</v>
       </c>
       <c r="I29" s="9">
-        <f t="shared" ref="I29:I31" si="9">F29/H29</f>
+        <f>F29/H29</f>
         <v>1.6193333333333333</v>
       </c>
       <c r="J29" s="9">
@@ -1387,124 +1430,124 @@
         <f>2*3.1415/(I29^2)*J29</f>
         <v>6.7770320843119056E-2</v>
       </c>
-      <c r="M29" s="19" t="s">
-        <v>15</v>
+      <c r="M29" s="34" t="s">
+        <v>13</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="30">
+      <c r="B30" s="20">
         <v>3.23</v>
       </c>
-      <c r="C30" s="34">
+      <c r="C30" s="24">
         <v>0.6</v>
       </c>
-      <c r="D30" s="31">
+      <c r="D30" s="21">
         <v>90.31</v>
       </c>
-      <c r="E30" s="34">
+      <c r="E30" s="24">
         <v>0.6</v>
       </c>
-      <c r="F30" s="31">
-        <f t="shared" si="8"/>
+      <c r="F30" s="21">
+        <f t="shared" ref="F29:F34" si="8">D30-B30</f>
         <v>87.08</v>
       </c>
-      <c r="G30" s="31">
-        <f t="shared" ref="G30:G34" si="10">(E30^2*2)^(1/2)</f>
+      <c r="G30" s="21">
+        <f t="shared" ref="G30:G34" si="9">(E30^2*2)^(1/2)</f>
         <v>0.84852813742385702</v>
       </c>
       <c r="H30" s="8">
         <v>10</v>
       </c>
       <c r="I30" s="9">
-        <f t="shared" si="9"/>
+        <f>F30/H30</f>
         <v>8.7080000000000002</v>
       </c>
       <c r="J30" s="9">
-        <f t="shared" ref="J30:J34" si="11">G30/H30</f>
+        <f t="shared" ref="J30:J34" si="10">G30/H30</f>
         <v>8.4852813742385708E-2</v>
       </c>
-      <c r="K30" s="37">
-        <f t="shared" ref="K30:K34" si="12">2*3.1415/I30</f>
+      <c r="K30" s="27">
+        <f t="shared" ref="K30:K34" si="11">2*3.1415/I30</f>
         <v>0.72152044097381718</v>
       </c>
-      <c r="L30" s="37">
-        <f t="shared" ref="L30:L34" si="13">2*3.1415/(I30^2)*J30</f>
+      <c r="L30" s="27">
+        <f t="shared" ref="L30:L34" si="12">2*3.1415/(I30^2)*J30</f>
         <v>7.0306660070366678E-3</v>
       </c>
-      <c r="M30" s="19"/>
+      <c r="M30" s="34"/>
       <c r="N30" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="30">
+      <c r="B31" s="20">
         <v>5.86</v>
       </c>
-      <c r="C31" s="34">
+      <c r="C31" s="24">
         <v>0.3</v>
       </c>
-      <c r="D31" s="31">
+      <c r="D31" s="21">
         <v>28.05</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31" s="24">
         <v>0.3</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F31" s="21">
         <f t="shared" si="8"/>
         <v>22.19</v>
       </c>
-      <c r="G31" s="31">
+      <c r="G31" s="21">
+        <f t="shared" si="9"/>
+        <v>0.42426406871192851</v>
+      </c>
+      <c r="H31" s="8">
+        <v>15</v>
+      </c>
+      <c r="I31" s="9">
+        <f>F31/H31</f>
+        <v>1.4793333333333334</v>
+      </c>
+      <c r="J31" s="9">
         <f t="shared" si="10"/>
-        <v>0.42426406871192851</v>
-      </c>
-      <c r="H31" s="8">
-        <v>15</v>
-      </c>
-      <c r="I31" s="9">
-        <f t="shared" si="9"/>
-        <v>1.4793333333333334</v>
-      </c>
-      <c r="J31" s="9">
+        <v>2.8284271247461901E-2</v>
+      </c>
+      <c r="K31" s="9">
         <f t="shared" si="11"/>
-        <v>2.8284271247461901E-2</v>
-      </c>
-      <c r="K31" s="9">
+        <v>4.2471834159531321</v>
+      </c>
+      <c r="L31" s="9">
         <f t="shared" si="12"/>
-        <v>4.2471834159531321</v>
-      </c>
-      <c r="L31" s="9">
-        <f t="shared" si="13"/>
         <v>8.1204475737634202E-2</v>
       </c>
-      <c r="M31" s="19" t="s">
-        <v>16</v>
+      <c r="M31" s="34" t="s">
+        <v>14</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="30">
+      <c r="B32" s="20">
         <v>5.85</v>
       </c>
-      <c r="C32" s="34">
+      <c r="C32" s="24">
         <v>0.6</v>
       </c>
-      <c r="D32" s="31">
+      <c r="D32" s="21">
         <v>146.13999999999999</v>
       </c>
-      <c r="E32" s="34">
+      <c r="E32" s="24">
         <v>0.6</v>
       </c>
-      <c r="F32" s="31">
+      <c r="F32" s="21">
         <f t="shared" si="8"/>
         <v>140.29</v>
       </c>
-      <c r="G32" s="31">
-        <f t="shared" si="10"/>
+      <c r="G32" s="21">
+        <f t="shared" si="9"/>
         <v>0.84852813742385702</v>
       </c>
       <c r="H32" s="8">
@@ -1515,180 +1558,180 @@
         <v>14.029</v>
       </c>
       <c r="J32" s="9">
+        <f t="shared" si="10"/>
+        <v>8.4852813742385708E-2</v>
+      </c>
+      <c r="K32" s="25">
         <f t="shared" si="11"/>
-        <v>8.4852813742385708E-2</v>
-      </c>
-      <c r="K32" s="35">
+        <v>0.44785800841114837</v>
+      </c>
+      <c r="L32" s="25">
         <f t="shared" si="12"/>
-        <v>0.44785800841114837</v>
-      </c>
-      <c r="L32" s="35">
-        <f t="shared" si="13"/>
         <v>2.7088183171107691E-3</v>
       </c>
-      <c r="M32" s="19"/>
+      <c r="M32" s="34"/>
       <c r="N32" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="30">
+      <c r="B33" s="20">
         <v>30.84</v>
       </c>
-      <c r="C33" s="34">
+      <c r="C33" s="24">
         <v>0.3</v>
       </c>
-      <c r="D33" s="31">
+      <c r="D33" s="21">
         <v>53.85</v>
       </c>
-      <c r="E33" s="34">
+      <c r="E33" s="24">
         <v>0.3</v>
       </c>
-      <c r="F33" s="31">
+      <c r="F33" s="21">
         <f t="shared" si="8"/>
         <v>23.01</v>
       </c>
-      <c r="G33" s="31">
+      <c r="G33" s="21">
+        <f t="shared" si="9"/>
+        <v>0.42426406871192851</v>
+      </c>
+      <c r="H33" s="8">
+        <v>15</v>
+      </c>
+      <c r="I33" s="9">
+        <f>F33/H33</f>
+        <v>1.534</v>
+      </c>
+      <c r="J33" s="9">
         <f t="shared" si="10"/>
-        <v>0.42426406871192851</v>
-      </c>
-      <c r="H33" s="8">
-        <v>15</v>
-      </c>
-      <c r="I33" s="9">
-        <f t="shared" ref="I33:I34" si="14">F33/H33</f>
-        <v>1.534</v>
-      </c>
-      <c r="J33" s="9">
+        <v>2.8284271247461901E-2</v>
+      </c>
+      <c r="K33" s="9">
         <f t="shared" si="11"/>
-        <v>2.8284271247461901E-2</v>
-      </c>
-      <c r="K33" s="9">
+        <v>4.0958279009126466</v>
+      </c>
+      <c r="L33" s="9">
         <f t="shared" si="12"/>
-        <v>4.0958279009126466</v>
-      </c>
-      <c r="L33" s="9">
-        <f t="shared" si="13"/>
         <v>7.5519887439593092E-2</v>
       </c>
-      <c r="M33" s="19" t="s">
-        <v>17</v>
+      <c r="M33" s="34" t="s">
+        <v>15</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="32">
+      <c r="B34" s="22">
         <v>30.84</v>
       </c>
-      <c r="C34" s="33">
+      <c r="C34" s="23">
         <v>0.6</v>
       </c>
-      <c r="D34" s="33">
+      <c r="D34" s="23">
         <v>213.07</v>
       </c>
-      <c r="E34" s="33">
+      <c r="E34" s="23">
         <v>0.6</v>
       </c>
-      <c r="F34" s="33">
+      <c r="F34" s="23">
         <f t="shared" si="8"/>
         <v>182.23</v>
       </c>
-      <c r="G34" s="33">
-        <f t="shared" si="10"/>
+      <c r="G34" s="23">
+        <f t="shared" si="9"/>
         <v>0.84852813742385702</v>
       </c>
       <c r="H34" s="11">
         <v>5</v>
       </c>
       <c r="I34" s="12">
-        <f t="shared" si="14"/>
+        <f>F34/H34</f>
         <v>36.445999999999998</v>
       </c>
       <c r="J34" s="12">
+        <f t="shared" si="10"/>
+        <v>0.16970562748477142</v>
+      </c>
+      <c r="K34" s="26">
         <f t="shared" si="11"/>
-        <v>0.16970562748477142</v>
-      </c>
-      <c r="K34" s="36">
+        <v>0.17239203204741263</v>
+      </c>
+      <c r="L34" s="26">
         <f t="shared" si="12"/>
-        <v>0.17239203204741263</v>
-      </c>
-      <c r="L34" s="36">
-        <f t="shared" si="13"/>
         <v>8.0271903561381184E-4</v>
       </c>
-      <c r="M34" s="20"/>
+      <c r="M34" s="35"/>
       <c r="N34" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="E38" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="15" t="s">
+      <c r="H38" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L38" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="J38" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K38" s="16" t="s">
+      <c r="M38" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="L38" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="M38" s="16" t="s">
+      <c r="N38" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="N38" s="17" t="s">
-        <v>9</v>
-      </c>
       <c r="P38" s="18"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="30">
+      <c r="B39" s="20">
         <v>6.56</v>
       </c>
-      <c r="C39" s="34">
+      <c r="C39" s="24">
         <v>0.3</v>
       </c>
-      <c r="D39" s="31">
+      <c r="D39" s="21">
         <v>30.87</v>
       </c>
-      <c r="E39" s="34">
+      <c r="E39" s="24">
         <v>0.3</v>
       </c>
-      <c r="F39" s="31">
-        <f t="shared" ref="F39:F44" si="15">D39-B39</f>
+      <c r="F39" s="21">
+        <f t="shared" ref="F39:F44" si="13">D39-B39</f>
         <v>24.310000000000002</v>
       </c>
-      <c r="G39" s="31">
+      <c r="G39" s="21">
         <f>(E39^2*2)^(1/2)</f>
         <v>0.42426406871192851</v>
       </c>
@@ -1696,7 +1739,7 @@
         <v>15</v>
       </c>
       <c r="I39" s="9">
-        <f t="shared" ref="I39:I41" si="16">F39/H39</f>
+        <f t="shared" ref="I39:I41" si="14">F39/H39</f>
         <v>1.6206666666666669</v>
       </c>
       <c r="J39" s="9">
@@ -1711,124 +1754,124 @@
         <f>2*3.1415/(I39^2)*J39</f>
         <v>6.7658856518488131E-2</v>
       </c>
-      <c r="M39" s="19" t="s">
-        <v>15</v>
+      <c r="M39" s="34" t="s">
+        <v>13</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="30">
+      <c r="B40" s="20">
         <v>6.56</v>
       </c>
-      <c r="C40" s="34">
+      <c r="C40" s="24">
         <v>0.6</v>
       </c>
-      <c r="D40" s="31">
+      <c r="D40" s="21">
         <v>95.23</v>
       </c>
-      <c r="E40" s="34">
+      <c r="E40" s="24">
         <v>0.6</v>
       </c>
-      <c r="F40" s="31">
-        <f t="shared" si="15"/>
+      <c r="F40" s="21">
+        <f t="shared" si="13"/>
         <v>88.67</v>
       </c>
-      <c r="G40" s="31">
-        <f t="shared" ref="G40:G44" si="17">(E40^2*2)^(1/2)</f>
+      <c r="G40" s="21">
+        <f t="shared" ref="G40:G44" si="15">(E40^2*2)^(1/2)</f>
         <v>0.84852813742385702</v>
       </c>
       <c r="H40" s="8">
         <v>10</v>
       </c>
       <c r="I40" s="9">
+        <f t="shared" si="14"/>
+        <v>8.8670000000000009</v>
+      </c>
+      <c r="J40" s="9">
+        <f t="shared" ref="J40:J44" si="16">G40/H40</f>
+        <v>8.4852813742385708E-2</v>
+      </c>
+      <c r="K40" s="27">
+        <f t="shared" ref="K40:K44" si="17">2*3.1415/I40</f>
+        <v>0.70858238412089769</v>
+      </c>
+      <c r="L40" s="27">
+        <f t="shared" ref="L40:L44" si="18">2*3.1415/(I40^2)*J40</f>
+        <v>6.7807836992157585E-3</v>
+      </c>
+      <c r="M40" s="34"/>
+      <c r="N40" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41" s="20">
+        <v>12.51</v>
+      </c>
+      <c r="C41" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="D41" s="21">
+        <v>34.659999999999997</v>
+      </c>
+      <c r="E41" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="F41" s="21">
+        <f t="shared" si="13"/>
+        <v>22.15</v>
+      </c>
+      <c r="G41" s="21">
+        <f t="shared" si="15"/>
+        <v>0.42426406871192851</v>
+      </c>
+      <c r="H41" s="8">
+        <v>15</v>
+      </c>
+      <c r="I41" s="9">
+        <f t="shared" si="14"/>
+        <v>1.4766666666666666</v>
+      </c>
+      <c r="J41" s="9">
         <f t="shared" si="16"/>
-        <v>8.8670000000000009</v>
-      </c>
-      <c r="J40" s="9">
-        <f t="shared" ref="J40:J44" si="18">G40/H40</f>
-        <v>8.4852813742385708E-2</v>
-      </c>
-      <c r="K40" s="37">
-        <f t="shared" ref="K40:K44" si="19">2*3.1415/I40</f>
-        <v>0.70858238412089769</v>
-      </c>
-      <c r="L40" s="37">
-        <f t="shared" ref="L40:L44" si="20">2*3.1415/(I40^2)*J40</f>
-        <v>6.7807836992157585E-3</v>
-      </c>
-      <c r="M40" s="19"/>
-      <c r="N40" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B41" s="30">
+        <v>2.8284271247461901E-2</v>
+      </c>
+      <c r="K41" s="9">
+        <f t="shared" si="17"/>
+        <v>4.254853273137698</v>
+      </c>
+      <c r="L41" s="9">
+        <f t="shared" si="18"/>
+        <v>8.1498029861565083E-2</v>
+      </c>
+      <c r="M41" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="N41" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42" s="20">
         <v>12.51</v>
       </c>
-      <c r="C41" s="34">
-        <v>0.3</v>
-      </c>
-      <c r="D41" s="31">
-        <v>34.659999999999997</v>
-      </c>
-      <c r="E41" s="34">
-        <v>0.3</v>
-      </c>
-      <c r="F41" s="31">
+      <c r="C42" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="D42" s="21">
+        <v>154.38999999999999</v>
+      </c>
+      <c r="E42" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="F42" s="21">
+        <f t="shared" si="13"/>
+        <v>141.88</v>
+      </c>
+      <c r="G42" s="21">
         <f t="shared" si="15"/>
-        <v>22.15</v>
-      </c>
-      <c r="G41" s="31">
-        <f t="shared" si="17"/>
-        <v>0.42426406871192851</v>
-      </c>
-      <c r="H41" s="8">
-        <v>15</v>
-      </c>
-      <c r="I41" s="9">
-        <f t="shared" si="16"/>
-        <v>1.4766666666666666</v>
-      </c>
-      <c r="J41" s="9">
-        <f t="shared" si="18"/>
-        <v>2.8284271247461901E-2</v>
-      </c>
-      <c r="K41" s="9">
-        <f t="shared" si="19"/>
-        <v>4.254853273137698</v>
-      </c>
-      <c r="L41" s="9">
-        <f t="shared" si="20"/>
-        <v>8.1498029861565083E-2</v>
-      </c>
-      <c r="M41" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="N41" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B42" s="30">
-        <v>12.51</v>
-      </c>
-      <c r="C42" s="34">
-        <v>0.6</v>
-      </c>
-      <c r="D42" s="31">
-        <v>154.38999999999999</v>
-      </c>
-      <c r="E42" s="34">
-        <v>0.6</v>
-      </c>
-      <c r="F42" s="31">
-        <f t="shared" si="15"/>
-        <v>141.88</v>
-      </c>
-      <c r="G42" s="31">
-        <f t="shared" si="17"/>
         <v>0.84852813742385702</v>
       </c>
       <c r="H42" s="8">
@@ -1839,116 +1882,244 @@
         <v>14.187999999999999</v>
       </c>
       <c r="J42" s="9">
+        <f t="shared" si="16"/>
+        <v>8.4852813742385708E-2</v>
+      </c>
+      <c r="K42" s="25">
+        <f t="shared" si="17"/>
+        <v>0.44283901888920219</v>
+      </c>
+      <c r="L42" s="25">
         <f t="shared" si="18"/>
-        <v>8.4852813742385708E-2</v>
-      </c>
-      <c r="K42" s="35">
-        <f t="shared" si="19"/>
-        <v>0.44283901888920219</v>
-      </c>
-      <c r="L42" s="35">
-        <f t="shared" si="20"/>
         <v>2.6484449385160915E-3</v>
       </c>
-      <c r="M42" s="19"/>
+      <c r="M42" s="34"/>
       <c r="N42" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B43" s="30">
+      <c r="B43" s="20">
         <v>50.21</v>
       </c>
-      <c r="C43" s="34">
+      <c r="C43" s="24">
         <v>0.3</v>
       </c>
-      <c r="D43" s="31">
+      <c r="D43" s="21">
         <v>74.62</v>
       </c>
-      <c r="E43" s="34">
+      <c r="E43" s="24">
         <v>0.3</v>
       </c>
-      <c r="F43" s="31">
+      <c r="F43" s="21">
+        <f t="shared" si="13"/>
+        <v>24.410000000000004</v>
+      </c>
+      <c r="G43" s="21">
         <f t="shared" si="15"/>
-        <v>24.410000000000004</v>
-      </c>
-      <c r="G43" s="31">
+        <v>0.42426406871192851</v>
+      </c>
+      <c r="H43" s="8">
+        <v>15</v>
+      </c>
+      <c r="I43" s="9">
+        <f t="shared" ref="I43:I44" si="19">F43/H43</f>
+        <v>1.6273333333333335</v>
+      </c>
+      <c r="J43" s="9">
+        <f t="shared" si="16"/>
+        <v>2.8284271247461901E-2</v>
+      </c>
+      <c r="K43" s="9">
         <f t="shared" si="17"/>
-        <v>0.42426406871192851</v>
-      </c>
-      <c r="H43" s="8">
-        <v>15</v>
-      </c>
-      <c r="I43" s="9">
-        <f t="shared" ref="I43:I44" si="21">F43/H43</f>
-        <v>1.6273333333333335</v>
-      </c>
-      <c r="J43" s="9">
+        <v>3.8609176566980743</v>
+      </c>
+      <c r="L43" s="9">
         <f t="shared" si="18"/>
-        <v>2.8284271247461901E-2</v>
-      </c>
-      <c r="K43" s="9">
-        <f t="shared" si="19"/>
-        <v>3.8609176566980743</v>
-      </c>
-      <c r="L43" s="9">
-        <f t="shared" si="20"/>
         <v>6.7105638426564918E-2</v>
       </c>
-      <c r="M43" s="19" t="s">
-        <v>17</v>
+      <c r="M43" s="34" t="s">
+        <v>15</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="32">
+      <c r="B44" s="22">
         <v>13.11</v>
       </c>
-      <c r="C44" s="33">
+      <c r="C44" s="23">
         <v>0.6</v>
       </c>
-      <c r="D44" s="33">
+      <c r="D44" s="23">
         <v>195.3</v>
       </c>
-      <c r="E44" s="33">
+      <c r="E44" s="23">
         <v>0.6</v>
       </c>
-      <c r="F44" s="33">
+      <c r="F44" s="23">
+        <f t="shared" si="13"/>
+        <v>182.19</v>
+      </c>
+      <c r="G44" s="23">
         <f t="shared" si="15"/>
-        <v>182.19</v>
-      </c>
-      <c r="G44" s="33">
-        <f t="shared" si="17"/>
         <v>0.84852813742385702</v>
       </c>
       <c r="H44" s="11">
         <v>5</v>
       </c>
       <c r="I44" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>36.438000000000002</v>
       </c>
       <c r="J44" s="12">
+        <f t="shared" si="16"/>
+        <v>0.16970562748477142</v>
+      </c>
+      <c r="K44" s="26">
+        <f t="shared" si="17"/>
+        <v>0.17242988089357264</v>
+      </c>
+      <c r="L44" s="26">
         <f t="shared" si="18"/>
-        <v>0.16970562748477142</v>
-      </c>
-      <c r="K44" s="36">
-        <f t="shared" si="19"/>
-        <v>0.17242988089357264</v>
-      </c>
-      <c r="L44" s="36">
-        <f t="shared" si="20"/>
         <v>8.0307154987013948E-4</v>
       </c>
-      <c r="M44" s="20"/>
+      <c r="M44" s="35"/>
       <c r="N44" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" s="41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="42">
+        <f>0.5*(K6+K7)</f>
+        <v>4.2577961343879984</v>
+      </c>
+      <c r="C49" s="29">
+        <f>0.5*(0.14^2*2)^(1/2)</f>
+        <v>9.8994949366116664E-2</v>
+      </c>
+      <c r="D49" s="9">
+        <f>0.5*(K7-K6)</f>
+        <v>0.3665905191939447</v>
+      </c>
+      <c r="E49" s="29">
+        <f>0.5*(0.14^2*2)^(1/2)</f>
+        <v>9.8994949366116664E-2</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="42">
+        <f>0.5*(K8+K9)</f>
+        <v>4.1031298973041004</v>
+      </c>
+      <c r="C50" s="29"/>
+      <c r="D50" s="9">
+        <f>0.5*(K9-K8)</f>
+        <v>0.20226069200608698</v>
+      </c>
+      <c r="E50" s="29"/>
+      <c r="F50" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="42">
+        <f>0.5*(K10+K11)</f>
+        <v>3.9825223744093377</v>
+      </c>
+      <c r="C51" s="29"/>
+      <c r="D51" s="9">
+        <f>0.5*(K11-K10)</f>
+        <v>8.3267099274872969E-2</v>
+      </c>
+      <c r="E51" s="29"/>
+      <c r="F51" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="42">
+        <f>0.5*(K17+K18)</f>
+        <v>4.2564853947985597</v>
+      </c>
+      <c r="C52" s="29"/>
+      <c r="D52" s="9">
+        <f>0.5*(K18-K17)</f>
+        <v>0.35884271489781527</v>
+      </c>
+      <c r="E52" s="29"/>
+      <c r="F52" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="42">
+        <f>0.5*(K19+K20)</f>
+        <v>4.1052772258563444</v>
+      </c>
+      <c r="C53" s="29"/>
+      <c r="D53" s="9">
+        <f>0.5*(K20-K19)</f>
+        <v>0.20602195072188034</v>
+      </c>
+      <c r="E53" s="29"/>
+      <c r="F53" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="43">
+        <f>0.5*(K21+K22)</f>
+        <v>3.9800338202255006</v>
+      </c>
+      <c r="C54" s="30"/>
+      <c r="D54" s="12">
+        <f>0.5*(K22-K21)</f>
+        <v>8.4002402284202304E-2</v>
+      </c>
+      <c r="E54" s="30"/>
+      <c r="F54" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
+    <mergeCell ref="C49:C54"/>
+    <mergeCell ref="E49:E54"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="M33:M34"/>
     <mergeCell ref="J5:J11"/>
     <mergeCell ref="L5:L11"/>
     <mergeCell ref="J16:J22"/>
@@ -1959,20 +2130,22 @@
     <mergeCell ref="E16:E22"/>
     <mergeCell ref="G5:G11"/>
     <mergeCell ref="G16:G22"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
   </mergeCells>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="69" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Praktikum/211 - Gekoppelte Pendel/Gekopplete_Pendel.xlsx
+++ b/Praktikum/211 - Gekoppelte Pendel/Gekopplete_Pendel.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="36">
   <si>
     <t>Startzeit [s]</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>3/rechts</t>
+  </si>
+  <si>
+    <t>σ ω_I</t>
+  </si>
+  <si>
+    <t>σ ω_II</t>
   </si>
 </sst>
 </file>
@@ -364,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -395,22 +401,16 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -425,12 +425,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -716,8 +723,8 @@
   </sheetPr>
   <dimension ref="B2:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,7 +735,7 @@
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
@@ -786,20 +793,20 @@
       <c r="B5" s="20">
         <v>1.33</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="41">
         <v>0.4</v>
       </c>
       <c r="D5" s="21">
         <v>25.53</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="41">
         <v>0.4</v>
       </c>
       <c r="F5" s="21">
         <f>D5-B5</f>
         <v>24.200000000000003</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="41">
         <f>($E$5*2)^(1/2)</f>
         <v>0.89442719099991586</v>
       </c>
@@ -810,7 +817,7 @@
         <f>F5/H5</f>
         <v>1.6133333333333335</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="40">
         <f>G5/H5</f>
         <v>5.962847939999439E-2</v>
       </c>
@@ -818,7 +825,7 @@
         <f>2*3.1415/I5</f>
         <v>3.8944214876033056</v>
       </c>
-      <c r="L5" s="28">
+      <c r="L5" s="40">
         <f>2*3.1415/(I5^2)*J5</f>
         <v>0.14393704428622886</v>
       </c>
@@ -833,16 +840,16 @@
       <c r="B6" s="20">
         <v>5.97</v>
       </c>
-      <c r="C6" s="32"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="21">
         <v>30.19</v>
       </c>
-      <c r="E6" s="32"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="21">
         <f t="shared" ref="F6:F11" si="0">D6-B6</f>
         <v>24.220000000000002</v>
       </c>
-      <c r="G6" s="32"/>
+      <c r="G6" s="42"/>
       <c r="H6" s="4">
         <v>15</v>
       </c>
@@ -850,13 +857,13 @@
         <f t="shared" ref="I6:I8" si="1">F6/H6</f>
         <v>1.6146666666666669</v>
       </c>
-      <c r="J6" s="29"/>
+      <c r="J6" s="34"/>
       <c r="K6" s="9">
         <f t="shared" ref="K6:K11" si="2">2*3.1415/I6</f>
         <v>3.8912056151940542</v>
       </c>
-      <c r="L6" s="29"/>
-      <c r="M6" s="36" t="s">
+      <c r="L6" s="34"/>
+      <c r="M6" s="38" t="s">
         <v>13</v>
       </c>
       <c r="N6" s="5" t="s">
@@ -867,16 +874,16 @@
       <c r="B7" s="20">
         <v>1.44</v>
       </c>
-      <c r="C7" s="32"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="21">
         <v>21.82</v>
       </c>
-      <c r="E7" s="32"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="21">
         <f t="shared" si="0"/>
         <v>20.38</v>
       </c>
-      <c r="G7" s="32"/>
+      <c r="G7" s="42"/>
       <c r="H7" s="4">
         <v>15</v>
       </c>
@@ -884,13 +891,13 @@
         <f t="shared" si="1"/>
         <v>1.3586666666666667</v>
       </c>
-      <c r="J7" s="29"/>
+      <c r="J7" s="34"/>
       <c r="K7" s="9">
         <f t="shared" si="2"/>
         <v>4.6243866535819436</v>
       </c>
-      <c r="L7" s="29"/>
-      <c r="M7" s="36"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="38"/>
       <c r="N7" s="5" t="s">
         <v>10</v>
       </c>
@@ -899,16 +906,16 @@
       <c r="B8" s="20">
         <v>0.59</v>
       </c>
-      <c r="C8" s="32"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="21">
         <v>24.75</v>
       </c>
-      <c r="E8" s="32"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="21">
         <f t="shared" si="0"/>
         <v>24.16</v>
       </c>
-      <c r="G8" s="32"/>
+      <c r="G8" s="42"/>
       <c r="H8" s="4">
         <v>15</v>
       </c>
@@ -916,13 +923,13 @@
         <f t="shared" si="1"/>
         <v>1.6106666666666667</v>
       </c>
-      <c r="J8" s="29"/>
+      <c r="J8" s="34"/>
       <c r="K8" s="9">
         <f t="shared" si="2"/>
         <v>3.9008692052980134</v>
       </c>
-      <c r="L8" s="29"/>
-      <c r="M8" s="36" t="s">
+      <c r="L8" s="34"/>
+      <c r="M8" s="38" t="s">
         <v>14</v>
       </c>
       <c r="N8" s="5" t="s">
@@ -933,16 +940,16 @@
       <c r="B9" s="20">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C9" s="32"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="21">
         <v>22.18</v>
       </c>
-      <c r="E9" s="32"/>
+      <c r="E9" s="42"/>
       <c r="F9" s="21">
         <f t="shared" si="0"/>
         <v>21.89</v>
       </c>
-      <c r="G9" s="32"/>
+      <c r="G9" s="42"/>
       <c r="H9" s="4">
         <v>15</v>
       </c>
@@ -950,13 +957,13 @@
         <f>F9/H9</f>
         <v>1.4593333333333334</v>
       </c>
-      <c r="J9" s="29"/>
+      <c r="J9" s="34"/>
       <c r="K9" s="9">
         <f t="shared" si="2"/>
         <v>4.3053905893101874</v>
       </c>
-      <c r="L9" s="29"/>
-      <c r="M9" s="36"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="38"/>
       <c r="N9" s="5" t="s">
         <v>10</v>
       </c>
@@ -965,16 +972,16 @@
       <c r="B10" s="20">
         <v>0.94</v>
       </c>
-      <c r="C10" s="32"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="21">
         <v>25.11</v>
       </c>
-      <c r="E10" s="32"/>
+      <c r="E10" s="42"/>
       <c r="F10" s="21">
         <f t="shared" si="0"/>
         <v>24.169999999999998</v>
       </c>
-      <c r="G10" s="32"/>
+      <c r="G10" s="42"/>
       <c r="H10" s="4">
         <v>15</v>
       </c>
@@ -982,13 +989,13 @@
         <f t="shared" ref="I10:I11" si="3">F10/H10</f>
         <v>1.6113333333333333</v>
       </c>
-      <c r="J10" s="29"/>
+      <c r="J10" s="34"/>
       <c r="K10" s="9">
         <f t="shared" si="2"/>
         <v>3.8992552751344647</v>
       </c>
-      <c r="L10" s="29"/>
-      <c r="M10" s="36" t="s">
+      <c r="L10" s="34"/>
+      <c r="M10" s="38" t="s">
         <v>15</v>
       </c>
       <c r="N10" s="5" t="s">
@@ -999,16 +1006,16 @@
       <c r="B11" s="22">
         <v>0.94</v>
       </c>
-      <c r="C11" s="33"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="23">
         <v>24.12</v>
       </c>
-      <c r="E11" s="33"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="23">
         <f t="shared" si="0"/>
         <v>23.18</v>
       </c>
-      <c r="G11" s="33"/>
+      <c r="G11" s="43"/>
       <c r="H11" s="6">
         <v>15</v>
       </c>
@@ -1016,13 +1023,13 @@
         <f t="shared" si="3"/>
         <v>1.5453333333333332</v>
       </c>
-      <c r="J11" s="30"/>
+      <c r="J11" s="35"/>
       <c r="K11" s="12">
         <f t="shared" si="2"/>
         <v>4.0657894736842106</v>
       </c>
-      <c r="L11" s="30"/>
-      <c r="M11" s="37"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="39"/>
       <c r="N11" s="7" t="s">
         <v>10</v>
       </c>
@@ -1093,20 +1100,20 @@
       <c r="B16" s="20">
         <v>1.53</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="41">
         <v>0.4</v>
       </c>
       <c r="D16" s="21">
         <v>25.86</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="41">
         <v>0.4</v>
       </c>
       <c r="F16" s="21">
         <f>D16-B16</f>
         <v>24.33</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="41">
         <f>($E$5*2)^(1/2)</f>
         <v>0.89442719099991586</v>
       </c>
@@ -1117,7 +1124,7 @@
         <f>F16/H16</f>
         <v>1.6219999999999999</v>
       </c>
-      <c r="J16" s="28">
+      <c r="J16" s="40">
         <f>G16/H16</f>
         <v>5.962847939999439E-2</v>
       </c>
@@ -1125,7 +1132,7 @@
         <f>2*3.1415/I16</f>
         <v>3.8736128236744762</v>
       </c>
-      <c r="L16" s="28">
+      <c r="L16" s="40">
         <f>2*3.1415/(I16^2)*J16</f>
         <v>0.14240298548707006</v>
       </c>
@@ -1140,16 +1147,16 @@
       <c r="B17" s="20">
         <v>5.98</v>
       </c>
-      <c r="C17" s="32"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="21">
         <v>30.16</v>
       </c>
-      <c r="E17" s="32"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="21">
         <f t="shared" ref="F17:F22" si="4">D17-B17</f>
         <v>24.18</v>
       </c>
-      <c r="G17" s="32"/>
+      <c r="G17" s="42"/>
       <c r="H17" s="8">
         <v>15</v>
       </c>
@@ -1157,13 +1164,13 @@
         <f t="shared" ref="I17:I19" si="5">F17/H17</f>
         <v>1.6119999999999999</v>
       </c>
-      <c r="J17" s="29"/>
+      <c r="J17" s="34"/>
       <c r="K17" s="9">
         <f t="shared" ref="K17:K22" si="6">2*3.1415/I17</f>
         <v>3.8976426799007449</v>
       </c>
-      <c r="L17" s="29"/>
-      <c r="M17" s="34" t="s">
+      <c r="L17" s="34"/>
+      <c r="M17" s="36" t="s">
         <v>13</v>
       </c>
       <c r="N17" s="10" t="s">
@@ -1174,16 +1181,16 @@
       <c r="B18" s="20">
         <v>0.72</v>
       </c>
-      <c r="C18" s="32"/>
+      <c r="C18" s="42"/>
       <c r="D18" s="21">
         <v>21.14</v>
       </c>
-      <c r="E18" s="32"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="21">
         <f t="shared" si="4"/>
         <v>20.420000000000002</v>
       </c>
-      <c r="G18" s="32"/>
+      <c r="G18" s="42"/>
       <c r="H18" s="8">
         <v>15</v>
       </c>
@@ -1191,13 +1198,13 @@
         <f t="shared" si="5"/>
         <v>1.3613333333333335</v>
       </c>
-      <c r="J18" s="29"/>
+      <c r="J18" s="34"/>
       <c r="K18" s="9">
         <f t="shared" si="6"/>
         <v>4.6153281096963754</v>
       </c>
-      <c r="L18" s="29"/>
-      <c r="M18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="36"/>
       <c r="N18" s="10" t="s">
         <v>10</v>
       </c>
@@ -1206,16 +1213,16 @@
       <c r="B19" s="20">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C19" s="32"/>
+      <c r="C19" s="42"/>
       <c r="D19" s="21">
         <v>24.73</v>
       </c>
-      <c r="E19" s="32"/>
+      <c r="E19" s="42"/>
       <c r="F19" s="21">
         <f t="shared" si="4"/>
         <v>24.17</v>
       </c>
-      <c r="G19" s="32"/>
+      <c r="G19" s="42"/>
       <c r="H19" s="8">
         <v>15</v>
       </c>
@@ -1223,13 +1230,13 @@
         <f t="shared" si="5"/>
         <v>1.6113333333333335</v>
       </c>
-      <c r="J19" s="29"/>
+      <c r="J19" s="34"/>
       <c r="K19" s="9">
         <f t="shared" si="6"/>
         <v>3.8992552751344642</v>
       </c>
-      <c r="L19" s="29"/>
-      <c r="M19" s="34" t="s">
+      <c r="L19" s="34"/>
+      <c r="M19" s="36" t="s">
         <v>14</v>
       </c>
       <c r="N19" s="10" t="s">
@@ -1240,16 +1247,16 @@
       <c r="B20" s="20">
         <v>1.01</v>
       </c>
-      <c r="C20" s="32"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="21">
         <v>22.87</v>
       </c>
-      <c r="E20" s="32"/>
+      <c r="E20" s="42"/>
       <c r="F20" s="21">
         <f t="shared" si="4"/>
         <v>21.86</v>
       </c>
-      <c r="G20" s="32"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="8">
         <v>15</v>
       </c>
@@ -1257,13 +1264,13 @@
         <f>F20/H20</f>
         <v>1.4573333333333334</v>
       </c>
-      <c r="J20" s="29"/>
+      <c r="J20" s="34"/>
       <c r="K20" s="9">
         <f t="shared" si="6"/>
         <v>4.3112991765782249</v>
       </c>
-      <c r="L20" s="29"/>
-      <c r="M20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="36"/>
       <c r="N20" s="10" t="s">
         <v>10</v>
       </c>
@@ -1272,16 +1279,16 @@
       <c r="B21" s="20">
         <v>0.98</v>
       </c>
-      <c r="C21" s="32"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="21">
         <v>25.17</v>
       </c>
-      <c r="E21" s="32"/>
+      <c r="E21" s="42"/>
       <c r="F21" s="21">
         <f t="shared" si="4"/>
         <v>24.19</v>
       </c>
-      <c r="G21" s="32"/>
+      <c r="G21" s="42"/>
       <c r="H21" s="8">
         <v>15</v>
       </c>
@@ -1289,13 +1296,13 @@
         <f t="shared" ref="I21:I22" si="7">F21/H21</f>
         <v>1.6126666666666667</v>
       </c>
-      <c r="J21" s="29"/>
+      <c r="J21" s="34"/>
       <c r="K21" s="9">
         <f t="shared" si="6"/>
         <v>3.8960314179412983</v>
       </c>
-      <c r="L21" s="29"/>
-      <c r="M21" s="34" t="s">
+      <c r="L21" s="34"/>
+      <c r="M21" s="36" t="s">
         <v>15</v>
       </c>
       <c r="N21" s="10" t="s">
@@ -1306,16 +1313,16 @@
       <c r="B22" s="22">
         <v>0.16</v>
       </c>
-      <c r="C22" s="33"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="23">
         <v>23.35</v>
       </c>
-      <c r="E22" s="33"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="23">
         <f t="shared" si="4"/>
         <v>23.19</v>
       </c>
-      <c r="G22" s="33"/>
+      <c r="G22" s="43"/>
       <c r="H22" s="11">
         <v>15</v>
       </c>
@@ -1323,13 +1330,13 @@
         <f t="shared" si="7"/>
         <v>1.546</v>
       </c>
-      <c r="J22" s="30"/>
+      <c r="J22" s="35"/>
       <c r="K22" s="12">
         <f t="shared" si="6"/>
         <v>4.0640362225097029</v>
       </c>
-      <c r="L22" s="30"/>
-      <c r="M22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="37"/>
       <c r="N22" s="13" t="s">
         <v>10</v>
       </c>
@@ -1412,25 +1419,25 @@
         <v>0.42426406871192851</v>
       </c>
       <c r="H29" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9">
         <f>F29/H29</f>
-        <v>1.6193333333333333</v>
+        <v>1.5181249999999999</v>
       </c>
       <c r="J29" s="9">
         <f>G29/H29</f>
-        <v>2.8284271247461901E-2</v>
+        <v>2.6516504294495532E-2</v>
       </c>
       <c r="K29" s="9">
         <f>2*3.1415/I29</f>
-        <v>3.8799917661589136</v>
+        <v>4.138657883902841</v>
       </c>
       <c r="L29" s="9">
         <f>2*3.1415/(I29^2)*J29</f>
-        <v>6.7770320843119056E-2</v>
-      </c>
-      <c r="M29" s="34" t="s">
+        <v>7.2288342232660327E-2</v>
+      </c>
+      <c r="M29" s="36" t="s">
         <v>13</v>
       </c>
       <c r="N29" s="10" t="s">
@@ -1451,7 +1458,7 @@
         <v>0.6</v>
       </c>
       <c r="F30" s="21">
-        <f t="shared" ref="F29:F34" si="8">D30-B30</f>
+        <f t="shared" ref="F30:F34" si="8">D30-B30</f>
         <v>87.08</v>
       </c>
       <c r="G30" s="21">
@@ -1459,25 +1466,25 @@
         <v>0.84852813742385702</v>
       </c>
       <c r="H30" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I30" s="9">
         <f>F30/H30</f>
-        <v>8.7080000000000002</v>
+        <v>17.416</v>
       </c>
       <c r="J30" s="9">
         <f t="shared" ref="J30:J34" si="10">G30/H30</f>
-        <v>8.4852813742385708E-2</v>
+        <v>0.16970562748477142</v>
       </c>
       <c r="K30" s="27">
         <f t="shared" ref="K30:K34" si="11">2*3.1415/I30</f>
-        <v>0.72152044097381718</v>
+        <v>0.36076022048690859</v>
       </c>
       <c r="L30" s="27">
         <f t="shared" ref="L30:L34" si="12">2*3.1415/(I30^2)*J30</f>
-        <v>7.0306660070366678E-3</v>
-      </c>
-      <c r="M30" s="34"/>
+        <v>3.5153330035183339E-3</v>
+      </c>
+      <c r="M30" s="36"/>
       <c r="N30" s="10" t="s">
         <v>11</v>
       </c>
@@ -1507,7 +1514,7 @@
         <v>15</v>
       </c>
       <c r="I31" s="9">
-        <f>F31/H31</f>
+        <f t="shared" ref="I29:I34" si="13">F31/H31</f>
         <v>1.4793333333333334</v>
       </c>
       <c r="J31" s="9">
@@ -1522,7 +1529,7 @@
         <f t="shared" si="12"/>
         <v>8.1204475737634202E-2</v>
       </c>
-      <c r="M31" s="34" t="s">
+      <c r="M31" s="36" t="s">
         <v>14</v>
       </c>
       <c r="N31" s="10" t="s">
@@ -1551,25 +1558,25 @@
         <v>0.84852813742385702</v>
       </c>
       <c r="H32" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I32" s="9">
-        <f>F32/H32</f>
-        <v>14.029</v>
+        <f t="shared" si="13"/>
+        <v>28.058</v>
       </c>
       <c r="J32" s="9">
         <f t="shared" si="10"/>
-        <v>8.4852813742385708E-2</v>
+        <v>0.16970562748477142</v>
       </c>
       <c r="K32" s="25">
         <f t="shared" si="11"/>
-        <v>0.44785800841114837</v>
+        <v>0.22392900420557418</v>
       </c>
       <c r="L32" s="25">
         <f t="shared" si="12"/>
-        <v>2.7088183171107691E-3</v>
-      </c>
-      <c r="M32" s="34"/>
+        <v>1.3544091585553845E-3</v>
+      </c>
+      <c r="M32" s="36"/>
       <c r="N32" s="10" t="s">
         <v>11</v>
       </c>
@@ -1599,7 +1606,7 @@
         <v>15</v>
       </c>
       <c r="I33" s="9">
-        <f>F33/H33</f>
+        <f t="shared" si="13"/>
         <v>1.534</v>
       </c>
       <c r="J33" s="9">
@@ -1614,7 +1621,7 @@
         <f t="shared" si="12"/>
         <v>7.5519887439593092E-2</v>
       </c>
-      <c r="M33" s="34" t="s">
+      <c r="M33" s="36" t="s">
         <v>15</v>
       </c>
       <c r="N33" s="10" t="s">
@@ -1643,25 +1650,25 @@
         <v>0.84852813742385702</v>
       </c>
       <c r="H34" s="11">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="I34" s="12">
-        <f>F34/H34</f>
-        <v>36.445999999999998</v>
+        <f t="shared" si="13"/>
+        <v>72.891999999999996</v>
       </c>
       <c r="J34" s="12">
         <f t="shared" si="10"/>
-        <v>0.16970562748477142</v>
+        <v>0.33941125496954283</v>
       </c>
       <c r="K34" s="26">
         <f t="shared" si="11"/>
-        <v>0.17239203204741263</v>
+        <v>8.6196016023706315E-2</v>
       </c>
       <c r="L34" s="26">
         <f t="shared" si="12"/>
-        <v>8.0271903561381184E-4</v>
-      </c>
-      <c r="M34" s="35"/>
+        <v>4.0135951780690592E-4</v>
+      </c>
+      <c r="M34" s="37"/>
       <c r="N34" s="13" t="s">
         <v>11</v>
       </c>
@@ -1728,7 +1735,7 @@
         <v>0.3</v>
       </c>
       <c r="F39" s="21">
-        <f t="shared" ref="F39:F44" si="13">D39-B39</f>
+        <f t="shared" ref="F39:F44" si="14">D39-B39</f>
         <v>24.310000000000002</v>
       </c>
       <c r="G39" s="21">
@@ -1736,25 +1743,25 @@
         <v>0.42426406871192851</v>
       </c>
       <c r="H39" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9">
-        <f t="shared" ref="I39:I41" si="14">F39/H39</f>
-        <v>1.6206666666666669</v>
+        <f t="shared" ref="I39:I41" si="15">F39/H39</f>
+        <v>1.5193750000000001</v>
       </c>
       <c r="J39" s="9">
         <f>G39/H39</f>
-        <v>2.8284271247461901E-2</v>
+        <v>2.6516504294495532E-2</v>
       </c>
       <c r="K39" s="9">
         <f>2*3.1415/I39</f>
-        <v>3.8767996709173178</v>
+        <v>4.1352529823118056</v>
       </c>
       <c r="L39" s="9">
         <f>2*3.1415/(I39^2)*J39</f>
-        <v>6.7658856518488131E-2</v>
-      </c>
-      <c r="M39" s="34" t="s">
+        <v>7.2169446953054009E-2</v>
+      </c>
+      <c r="M39" s="36" t="s">
         <v>13</v>
       </c>
       <c r="N39" s="10" t="s">
@@ -1775,33 +1782,33 @@
         <v>0.6</v>
       </c>
       <c r="F40" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>88.67</v>
       </c>
       <c r="G40" s="21">
-        <f t="shared" ref="G40:G44" si="15">(E40^2*2)^(1/2)</f>
+        <f t="shared" ref="G40:G44" si="16">(E40^2*2)^(1/2)</f>
         <v>0.84852813742385702</v>
       </c>
       <c r="H40" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I40" s="9">
-        <f t="shared" si="14"/>
-        <v>8.8670000000000009</v>
+        <f t="shared" si="15"/>
+        <v>17.734000000000002</v>
       </c>
       <c r="J40" s="9">
-        <f t="shared" ref="J40:J44" si="16">G40/H40</f>
-        <v>8.4852813742385708E-2</v>
+        <f t="shared" ref="J40:J44" si="17">G40/H40</f>
+        <v>0.16970562748477142</v>
       </c>
       <c r="K40" s="27">
-        <f t="shared" ref="K40:K44" si="17">2*3.1415/I40</f>
-        <v>0.70858238412089769</v>
+        <f t="shared" ref="K40:K44" si="18">2*3.1415/I40</f>
+        <v>0.35429119206044885</v>
       </c>
       <c r="L40" s="27">
-        <f t="shared" ref="L40:L44" si="18">2*3.1415/(I40^2)*J40</f>
-        <v>6.7807836992157585E-3</v>
-      </c>
-      <c r="M40" s="34"/>
+        <f t="shared" ref="L40:L44" si="19">2*3.1415/(I40^2)*J40</f>
+        <v>3.3903918496078793E-3</v>
+      </c>
+      <c r="M40" s="36"/>
       <c r="N40" s="10" t="s">
         <v>11</v>
       </c>
@@ -1820,33 +1827,33 @@
         <v>0.3</v>
       </c>
       <c r="F41" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22.15</v>
       </c>
       <c r="G41" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.42426406871192851</v>
       </c>
       <c r="H41" s="8">
         <v>15</v>
       </c>
       <c r="I41" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.4766666666666666</v>
       </c>
       <c r="J41" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.8284271247461901E-2</v>
       </c>
       <c r="K41" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.254853273137698</v>
       </c>
       <c r="L41" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8.1498029861565083E-2</v>
       </c>
-      <c r="M41" s="34" t="s">
+      <c r="M41" s="36" t="s">
         <v>14</v>
       </c>
       <c r="N41" s="10" t="s">
@@ -1867,33 +1874,33 @@
         <v>0.6</v>
       </c>
       <c r="F42" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>141.88</v>
       </c>
       <c r="G42" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.84852813742385702</v>
       </c>
       <c r="H42" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I42" s="9">
         <f>F42/H42</f>
-        <v>14.187999999999999</v>
+        <v>28.375999999999998</v>
       </c>
       <c r="J42" s="9">
-        <f t="shared" si="16"/>
-        <v>8.4852813742385708E-2</v>
+        <f t="shared" si="17"/>
+        <v>0.16970562748477142</v>
       </c>
       <c r="K42" s="25">
-        <f t="shared" si="17"/>
-        <v>0.44283901888920219</v>
+        <f t="shared" si="18"/>
+        <v>0.22141950944460109</v>
       </c>
       <c r="L42" s="25">
-        <f t="shared" si="18"/>
-        <v>2.6484449385160915E-3</v>
-      </c>
-      <c r="M42" s="34"/>
+        <f t="shared" si="19"/>
+        <v>1.3242224692580457E-3</v>
+      </c>
+      <c r="M42" s="36"/>
       <c r="N42" s="10" t="s">
         <v>11</v>
       </c>
@@ -1912,33 +1919,33 @@
         <v>0.3</v>
       </c>
       <c r="F43" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24.410000000000004</v>
       </c>
       <c r="G43" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.42426406871192851</v>
       </c>
       <c r="H43" s="8">
         <v>15</v>
       </c>
       <c r="I43" s="9">
-        <f t="shared" ref="I43:I44" si="19">F43/H43</f>
+        <f t="shared" ref="I43:I44" si="20">F43/H43</f>
         <v>1.6273333333333335</v>
       </c>
       <c r="J43" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.8284271247461901E-2</v>
       </c>
       <c r="K43" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.8609176566980743</v>
       </c>
       <c r="L43" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.7105638426564918E-2</v>
       </c>
-      <c r="M43" s="34" t="s">
+      <c r="M43" s="36" t="s">
         <v>15</v>
       </c>
       <c r="N43" s="10" t="s">
@@ -1959,61 +1966,67 @@
         <v>0.6</v>
       </c>
       <c r="F44" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>182.19</v>
       </c>
       <c r="G44" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.84852813742385702</v>
       </c>
       <c r="H44" s="11">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="I44" s="12">
+        <f t="shared" si="20"/>
+        <v>72.876000000000005</v>
+      </c>
+      <c r="J44" s="12">
+        <f t="shared" si="17"/>
+        <v>0.33941125496954283</v>
+      </c>
+      <c r="K44" s="26">
+        <f t="shared" si="18"/>
+        <v>8.621494044678632E-2</v>
+      </c>
+      <c r="L44" s="26">
         <f t="shared" si="19"/>
-        <v>36.438000000000002</v>
-      </c>
-      <c r="J44" s="12">
-        <f t="shared" si="16"/>
-        <v>0.16970562748477142</v>
-      </c>
-      <c r="K44" s="26">
-        <f t="shared" si="17"/>
-        <v>0.17242988089357264</v>
-      </c>
-      <c r="L44" s="26">
-        <f t="shared" si="18"/>
-        <v>8.0307154987013948E-4</v>
-      </c>
-      <c r="M44" s="35"/>
+        <v>4.0153577493506974E-4</v>
+      </c>
+      <c r="M44" s="37"/>
       <c r="N44" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="47" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="39" t="s">
+      <c r="C48" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="40" t="s">
+      <c r="D48" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="40" t="s">
+      <c r="E48" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F48" s="41" t="s">
+      <c r="F48" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H48" s="31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="42">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="32">
         <f>0.5*(K6+K7)</f>
         <v>4.2577961343879984</v>
       </c>
-      <c r="C49" s="29">
+      <c r="C49" s="34">
         <f>0.5*(0.14^2*2)^(1/2)</f>
         <v>9.8994949366116664E-2</v>
       </c>
@@ -2021,91 +2034,147 @@
         <f>0.5*(K7-K6)</f>
         <v>0.3665905191939447</v>
       </c>
-      <c r="E49" s="29">
+      <c r="E49" s="34">
         <f>0.5*(0.14^2*2)^(1/2)</f>
         <v>9.8994949366116664E-2</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F49" s="8">
+        <f>((B49-K29)/(L29^2+$C$49^2)^(1/2))</f>
+        <v>0.97193057143698647</v>
+      </c>
+      <c r="G49" s="8">
+        <f>(D49-K30)/(E49^2+L30^2)^(1/2)</f>
+        <v>5.885781328622379E-2</v>
+      </c>
+      <c r="H49" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="42">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="32">
         <f>0.5*(K8+K9)</f>
         <v>4.1031298973041004</v>
       </c>
-      <c r="C50" s="29"/>
+      <c r="C50" s="34"/>
       <c r="D50" s="9">
         <f>0.5*(K9-K8)</f>
         <v>0.20226069200608698</v>
       </c>
-      <c r="E50" s="29"/>
-      <c r="F50" s="10" t="s">
+      <c r="E50" s="34"/>
+      <c r="F50" s="8">
+        <f>(K31-B50)/($C$49^2+L31^2)^(1/2)</f>
+        <v>1.1250690950260425</v>
+      </c>
+      <c r="G50" s="8">
+        <f>(K32-D50)/(E49^2+L32^2)^(1/2)</f>
+        <v>0.21886252398763628</v>
+      </c>
+      <c r="H50" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="42">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="32">
         <f>0.5*(K10+K11)</f>
         <v>3.9825223744093377</v>
       </c>
-      <c r="C51" s="29"/>
+      <c r="C51" s="34"/>
       <c r="D51" s="9">
         <f>0.5*(K11-K10)</f>
         <v>8.3267099274872969E-2</v>
       </c>
-      <c r="E51" s="29"/>
-      <c r="F51" s="10" t="s">
+      <c r="E51" s="34"/>
+      <c r="F51" s="9">
+        <f>(K33-B51)/($C$49^2+L33^2)^(1/2)</f>
+        <v>0.90999639197923299</v>
+      </c>
+      <c r="G51" s="8">
+        <f>(K34-D51)/(E49^2+L34^2)^(1/2)</f>
+        <v>2.9586283901921914E-2</v>
+      </c>
+      <c r="H51" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="42">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="32">
         <f>0.5*(K17+K18)</f>
         <v>4.2564853947985597</v>
       </c>
-      <c r="C52" s="29"/>
+      <c r="C52" s="34"/>
       <c r="D52" s="9">
         <f>0.5*(K18-K17)</f>
         <v>0.35884271489781527</v>
       </c>
-      <c r="E52" s="29"/>
-      <c r="F52" s="10" t="s">
+      <c r="E52" s="34"/>
+      <c r="F52" s="8">
+        <f>(B52-K39)/(C49^2+L39^2)^(1/2)</f>
+        <v>0.98958050042072654</v>
+      </c>
+      <c r="G52" s="8">
+        <f>(D52-K40)/(E49^2+L40^2)^(1/2)</f>
+        <v>4.5950383262993784E-2</v>
+      </c>
+      <c r="H52" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="42">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="32">
         <f>0.5*(K19+K20)</f>
         <v>4.1052772258563444</v>
       </c>
-      <c r="C53" s="29"/>
+      <c r="C53" s="34"/>
       <c r="D53" s="9">
         <f>0.5*(K20-K19)</f>
         <v>0.20602195072188034</v>
       </c>
-      <c r="E53" s="29"/>
-      <c r="F53" s="10" t="s">
+      <c r="E53" s="34"/>
+      <c r="F53" s="8">
+        <f>(K41-B53)/(C49^2+L41^2)^(1/2)</f>
+        <v>1.1665024889085782</v>
+      </c>
+      <c r="G53" s="8">
+        <f>(K42-D53)/(E49^2+L42^2)^(1/2)</f>
+        <v>0.15552491741628091</v>
+      </c>
+      <c r="H53" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="43">
+    <row r="54" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="33">
         <f>0.5*(K21+K22)</f>
         <v>3.9800338202255006</v>
       </c>
-      <c r="C54" s="30"/>
+      <c r="C54" s="35"/>
       <c r="D54" s="12">
         <f>0.5*(K22-K21)</f>
         <v>8.4002402284202304E-2</v>
       </c>
-      <c r="E54" s="30"/>
-      <c r="F54" s="13" t="s">
+      <c r="E54" s="35"/>
+      <c r="F54" s="11">
+        <f>(B54-K43)/(C49^2+L43^2)^(1/2)</f>
+        <v>0.99598912625181757</v>
+      </c>
+      <c r="G54" s="11">
+        <f>(K44-D54)/(E49^2+L44^2)^(1/2)</f>
+        <v>2.2349826698040965E-2</v>
+      </c>
+      <c r="H54" s="13" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="J16:J22"/>
+    <mergeCell ref="L16:L22"/>
+    <mergeCell ref="C5:C11"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="E5:E11"/>
+    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="G5:G11"/>
+    <mergeCell ref="G16:G22"/>
     <mergeCell ref="C49:C54"/>
     <mergeCell ref="E49:E54"/>
     <mergeCell ref="M21:M22"/>
@@ -2122,14 +2191,6 @@
     <mergeCell ref="M33:M34"/>
     <mergeCell ref="J5:J11"/>
     <mergeCell ref="L5:L11"/>
-    <mergeCell ref="J16:J22"/>
-    <mergeCell ref="L16:L22"/>
-    <mergeCell ref="C5:C11"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="E5:E11"/>
-    <mergeCell ref="E16:E22"/>
-    <mergeCell ref="G5:G11"/>
-    <mergeCell ref="G16:G22"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="69" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Praktikum/211 - Gekoppelte Pendel/Gekopplete_Pendel.xlsx
+++ b/Praktikum/211 - Gekoppelte Pendel/Gekopplete_Pendel.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="54">
   <si>
     <t>Startzeit [s]</t>
   </si>
@@ -129,12 +129,6 @@
     <t>ω_II</t>
   </si>
   <si>
-    <t>Pendel links (1)</t>
-  </si>
-  <si>
-    <t>Pendel rechts (2)</t>
-  </si>
-  <si>
     <t>Δ ω_I</t>
   </si>
   <si>
@@ -166,6 +160,66 @@
   </si>
   <si>
     <t>σ ω_II</t>
+  </si>
+  <si>
+    <t>σ ω_l/r</t>
+  </si>
+  <si>
+    <t>Schw.typ/Kopp.</t>
+  </si>
+  <si>
+    <t>sym/1</t>
+  </si>
+  <si>
+    <t>sym/2</t>
+  </si>
+  <si>
+    <t>sym/3</t>
+  </si>
+  <si>
+    <t>asym/1</t>
+  </si>
+  <si>
+    <t>asym/2</t>
+  </si>
+  <si>
+    <t>asym/3</t>
+  </si>
+  <si>
+    <t>Schwi/1</t>
+  </si>
+  <si>
+    <t>Schwe/1</t>
+  </si>
+  <si>
+    <t>Schwi/2</t>
+  </si>
+  <si>
+    <t>Schwe/2</t>
+  </si>
+  <si>
+    <t>Schwi/3</t>
+  </si>
+  <si>
+    <t>Schwe/3</t>
+  </si>
+  <si>
+    <t>Pendel links</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pendel links </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pendel rechts </t>
+  </si>
+  <si>
+    <t>Pendel rechts</t>
+  </si>
+  <si>
+    <t>ω_sym ≙ ω_1</t>
+  </si>
+  <si>
+    <t>ω_asym ≙ ω_2</t>
   </si>
 </sst>
 </file>
@@ -370,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -407,10 +461,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -425,19 +492,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -721,30 +781,32 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:P54"/>
+  <dimension ref="B2:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
     <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -793,20 +855,20 @@
       <c r="B5" s="20">
         <v>1.33</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="38">
         <v>0.4</v>
       </c>
       <c r="D5" s="21">
         <v>25.53</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="38">
         <v>0.4</v>
       </c>
       <c r="F5" s="21">
         <f>D5-B5</f>
         <v>24.200000000000003</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="38">
         <f>($E$5*2)^(1/2)</f>
         <v>0.89442719099991586</v>
       </c>
@@ -817,7 +879,7 @@
         <f>F5/H5</f>
         <v>1.6133333333333335</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="35">
         <f>G5/H5</f>
         <v>5.962847939999439E-2</v>
       </c>
@@ -825,7 +887,7 @@
         <f>2*3.1415/I5</f>
         <v>3.8944214876033056</v>
       </c>
-      <c r="L5" s="40">
+      <c r="L5" s="35">
         <f>2*3.1415/(I5^2)*J5</f>
         <v>0.14393704428622886</v>
       </c>
@@ -840,16 +902,16 @@
       <c r="B6" s="20">
         <v>5.97</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="21">
         <v>30.19</v>
       </c>
-      <c r="E6" s="42"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="21">
         <f t="shared" ref="F6:F11" si="0">D6-B6</f>
         <v>24.220000000000002</v>
       </c>
-      <c r="G6" s="42"/>
+      <c r="G6" s="39"/>
       <c r="H6" s="4">
         <v>15</v>
       </c>
@@ -857,13 +919,13 @@
         <f t="shared" ref="I6:I8" si="1">F6/H6</f>
         <v>1.6146666666666669</v>
       </c>
-      <c r="J6" s="34"/>
+      <c r="J6" s="36"/>
       <c r="K6" s="9">
         <f t="shared" ref="K6:K11" si="2">2*3.1415/I6</f>
         <v>3.8912056151940542</v>
       </c>
-      <c r="L6" s="34"/>
-      <c r="M6" s="38" t="s">
+      <c r="L6" s="36"/>
+      <c r="M6" s="43" t="s">
         <v>13</v>
       </c>
       <c r="N6" s="5" t="s">
@@ -874,16 +936,16 @@
       <c r="B7" s="20">
         <v>1.44</v>
       </c>
-      <c r="C7" s="42"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="21">
         <v>21.82</v>
       </c>
-      <c r="E7" s="42"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="21">
         <f t="shared" si="0"/>
         <v>20.38</v>
       </c>
-      <c r="G7" s="42"/>
+      <c r="G7" s="39"/>
       <c r="H7" s="4">
         <v>15</v>
       </c>
@@ -891,13 +953,13 @@
         <f t="shared" si="1"/>
         <v>1.3586666666666667</v>
       </c>
-      <c r="J7" s="34"/>
+      <c r="J7" s="36"/>
       <c r="K7" s="9">
         <f t="shared" si="2"/>
         <v>4.6243866535819436</v>
       </c>
-      <c r="L7" s="34"/>
-      <c r="M7" s="38"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="43"/>
       <c r="N7" s="5" t="s">
         <v>10</v>
       </c>
@@ -906,16 +968,16 @@
       <c r="B8" s="20">
         <v>0.59</v>
       </c>
-      <c r="C8" s="42"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="21">
         <v>24.75</v>
       </c>
-      <c r="E8" s="42"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="21">
         <f t="shared" si="0"/>
         <v>24.16</v>
       </c>
-      <c r="G8" s="42"/>
+      <c r="G8" s="39"/>
       <c r="H8" s="4">
         <v>15</v>
       </c>
@@ -923,13 +985,13 @@
         <f t="shared" si="1"/>
         <v>1.6106666666666667</v>
       </c>
-      <c r="J8" s="34"/>
+      <c r="J8" s="36"/>
       <c r="K8" s="9">
         <f t="shared" si="2"/>
         <v>3.9008692052980134</v>
       </c>
-      <c r="L8" s="34"/>
-      <c r="M8" s="38" t="s">
+      <c r="L8" s="36"/>
+      <c r="M8" s="43" t="s">
         <v>14</v>
       </c>
       <c r="N8" s="5" t="s">
@@ -940,16 +1002,16 @@
       <c r="B9" s="20">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C9" s="42"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="21">
         <v>22.18</v>
       </c>
-      <c r="E9" s="42"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="21">
         <f t="shared" si="0"/>
         <v>21.89</v>
       </c>
-      <c r="G9" s="42"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="4">
         <v>15</v>
       </c>
@@ -957,13 +1019,13 @@
         <f>F9/H9</f>
         <v>1.4593333333333334</v>
       </c>
-      <c r="J9" s="34"/>
+      <c r="J9" s="36"/>
       <c r="K9" s="9">
         <f t="shared" si="2"/>
         <v>4.3053905893101874</v>
       </c>
-      <c r="L9" s="34"/>
-      <c r="M9" s="38"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="43"/>
       <c r="N9" s="5" t="s">
         <v>10</v>
       </c>
@@ -972,16 +1034,16 @@
       <c r="B10" s="20">
         <v>0.94</v>
       </c>
-      <c r="C10" s="42"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="21">
         <v>25.11</v>
       </c>
-      <c r="E10" s="42"/>
+      <c r="E10" s="39"/>
       <c r="F10" s="21">
         <f t="shared" si="0"/>
         <v>24.169999999999998</v>
       </c>
-      <c r="G10" s="42"/>
+      <c r="G10" s="39"/>
       <c r="H10" s="4">
         <v>15</v>
       </c>
@@ -989,13 +1051,13 @@
         <f t="shared" ref="I10:I11" si="3">F10/H10</f>
         <v>1.6113333333333333</v>
       </c>
-      <c r="J10" s="34"/>
+      <c r="J10" s="36"/>
       <c r="K10" s="9">
         <f t="shared" si="2"/>
         <v>3.8992552751344647</v>
       </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="38" t="s">
+      <c r="L10" s="36"/>
+      <c r="M10" s="43" t="s">
         <v>15</v>
       </c>
       <c r="N10" s="5" t="s">
@@ -1006,16 +1068,16 @@
       <c r="B11" s="22">
         <v>0.94</v>
       </c>
-      <c r="C11" s="43"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="23">
         <v>24.12</v>
       </c>
-      <c r="E11" s="43"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="23">
         <f t="shared" si="0"/>
         <v>23.18</v>
       </c>
-      <c r="G11" s="43"/>
+      <c r="G11" s="40"/>
       <c r="H11" s="6">
         <v>15</v>
       </c>
@@ -1023,13 +1085,13 @@
         <f t="shared" si="3"/>
         <v>1.5453333333333332</v>
       </c>
-      <c r="J11" s="35"/>
+      <c r="J11" s="37"/>
       <c r="K11" s="12">
         <f t="shared" si="2"/>
         <v>4.0657894736842106</v>
       </c>
-      <c r="L11" s="35"/>
-      <c r="M11" s="39"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="44"/>
       <c r="N11" s="7" t="s">
         <v>10</v>
       </c>
@@ -1042,7 +1104,7 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1100,20 +1162,20 @@
       <c r="B16" s="20">
         <v>1.53</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="38">
         <v>0.4</v>
       </c>
       <c r="D16" s="21">
         <v>25.86</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="38">
         <v>0.4</v>
       </c>
       <c r="F16" s="21">
         <f>D16-B16</f>
         <v>24.33</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="38">
         <f>($E$5*2)^(1/2)</f>
         <v>0.89442719099991586</v>
       </c>
@@ -1124,7 +1186,7 @@
         <f>F16/H16</f>
         <v>1.6219999999999999</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="35">
         <f>G16/H16</f>
         <v>5.962847939999439E-2</v>
       </c>
@@ -1132,7 +1194,7 @@
         <f>2*3.1415/I16</f>
         <v>3.8736128236744762</v>
       </c>
-      <c r="L16" s="40">
+      <c r="L16" s="35">
         <f>2*3.1415/(I16^2)*J16</f>
         <v>0.14240298548707006</v>
       </c>
@@ -1147,16 +1209,16 @@
       <c r="B17" s="20">
         <v>5.98</v>
       </c>
-      <c r="C17" s="42"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="21">
         <v>30.16</v>
       </c>
-      <c r="E17" s="42"/>
+      <c r="E17" s="39"/>
       <c r="F17" s="21">
         <f t="shared" ref="F17:F22" si="4">D17-B17</f>
         <v>24.18</v>
       </c>
-      <c r="G17" s="42"/>
+      <c r="G17" s="39"/>
       <c r="H17" s="8">
         <v>15</v>
       </c>
@@ -1164,13 +1226,13 @@
         <f t="shared" ref="I17:I19" si="5">F17/H17</f>
         <v>1.6119999999999999</v>
       </c>
-      <c r="J17" s="34"/>
+      <c r="J17" s="36"/>
       <c r="K17" s="9">
         <f t="shared" ref="K17:K22" si="6">2*3.1415/I17</f>
         <v>3.8976426799007449</v>
       </c>
-      <c r="L17" s="34"/>
-      <c r="M17" s="36" t="s">
+      <c r="L17" s="36"/>
+      <c r="M17" s="41" t="s">
         <v>13</v>
       </c>
       <c r="N17" s="10" t="s">
@@ -1181,16 +1243,16 @@
       <c r="B18" s="20">
         <v>0.72</v>
       </c>
-      <c r="C18" s="42"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="21">
         <v>21.14</v>
       </c>
-      <c r="E18" s="42"/>
+      <c r="E18" s="39"/>
       <c r="F18" s="21">
         <f t="shared" si="4"/>
         <v>20.420000000000002</v>
       </c>
-      <c r="G18" s="42"/>
+      <c r="G18" s="39"/>
       <c r="H18" s="8">
         <v>15</v>
       </c>
@@ -1198,13 +1260,13 @@
         <f t="shared" si="5"/>
         <v>1.3613333333333335</v>
       </c>
-      <c r="J18" s="34"/>
+      <c r="J18" s="36"/>
       <c r="K18" s="9">
         <f t="shared" si="6"/>
         <v>4.6153281096963754</v>
       </c>
-      <c r="L18" s="34"/>
-      <c r="M18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="41"/>
       <c r="N18" s="10" t="s">
         <v>10</v>
       </c>
@@ -1213,16 +1275,16 @@
       <c r="B19" s="20">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C19" s="42"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="21">
         <v>24.73</v>
       </c>
-      <c r="E19" s="42"/>
+      <c r="E19" s="39"/>
       <c r="F19" s="21">
         <f t="shared" si="4"/>
         <v>24.17</v>
       </c>
-      <c r="G19" s="42"/>
+      <c r="G19" s="39"/>
       <c r="H19" s="8">
         <v>15</v>
       </c>
@@ -1230,13 +1292,13 @@
         <f t="shared" si="5"/>
         <v>1.6113333333333335</v>
       </c>
-      <c r="J19" s="34"/>
+      <c r="J19" s="36"/>
       <c r="K19" s="9">
         <f t="shared" si="6"/>
         <v>3.8992552751344642</v>
       </c>
-      <c r="L19" s="34"/>
-      <c r="M19" s="36" t="s">
+      <c r="L19" s="36"/>
+      <c r="M19" s="41" t="s">
         <v>14</v>
       </c>
       <c r="N19" s="10" t="s">
@@ -1247,16 +1309,16 @@
       <c r="B20" s="20">
         <v>1.01</v>
       </c>
-      <c r="C20" s="42"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="21">
         <v>22.87</v>
       </c>
-      <c r="E20" s="42"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="21">
         <f t="shared" si="4"/>
         <v>21.86</v>
       </c>
-      <c r="G20" s="42"/>
+      <c r="G20" s="39"/>
       <c r="H20" s="8">
         <v>15</v>
       </c>
@@ -1264,13 +1326,13 @@
         <f>F20/H20</f>
         <v>1.4573333333333334</v>
       </c>
-      <c r="J20" s="34"/>
+      <c r="J20" s="36"/>
       <c r="K20" s="9">
         <f t="shared" si="6"/>
         <v>4.3112991765782249</v>
       </c>
-      <c r="L20" s="34"/>
-      <c r="M20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="41"/>
       <c r="N20" s="10" t="s">
         <v>10</v>
       </c>
@@ -1279,16 +1341,16 @@
       <c r="B21" s="20">
         <v>0.98</v>
       </c>
-      <c r="C21" s="42"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="21">
         <v>25.17</v>
       </c>
-      <c r="E21" s="42"/>
+      <c r="E21" s="39"/>
       <c r="F21" s="21">
         <f t="shared" si="4"/>
         <v>24.19</v>
       </c>
-      <c r="G21" s="42"/>
+      <c r="G21" s="39"/>
       <c r="H21" s="8">
         <v>15</v>
       </c>
@@ -1296,13 +1358,13 @@
         <f t="shared" ref="I21:I22" si="7">F21/H21</f>
         <v>1.6126666666666667</v>
       </c>
-      <c r="J21" s="34"/>
+      <c r="J21" s="36"/>
       <c r="K21" s="9">
         <f t="shared" si="6"/>
         <v>3.8960314179412983</v>
       </c>
-      <c r="L21" s="34"/>
-      <c r="M21" s="36" t="s">
+      <c r="L21" s="36"/>
+      <c r="M21" s="41" t="s">
         <v>15</v>
       </c>
       <c r="N21" s="10" t="s">
@@ -1313,16 +1375,16 @@
       <c r="B22" s="22">
         <v>0.16</v>
       </c>
-      <c r="C22" s="43"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="23">
         <v>23.35</v>
       </c>
-      <c r="E22" s="43"/>
+      <c r="E22" s="40"/>
       <c r="F22" s="23">
         <f t="shared" si="4"/>
         <v>23.19</v>
       </c>
-      <c r="G22" s="43"/>
+      <c r="G22" s="40"/>
       <c r="H22" s="11">
         <v>15</v>
       </c>
@@ -1330,13 +1392,13 @@
         <f t="shared" si="7"/>
         <v>1.546</v>
       </c>
-      <c r="J22" s="35"/>
+      <c r="J22" s="37"/>
       <c r="K22" s="12">
         <f t="shared" si="6"/>
         <v>4.0640362225097029</v>
       </c>
-      <c r="L22" s="35"/>
-      <c r="M22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="42"/>
       <c r="N22" s="13" t="s">
         <v>10</v>
       </c>
@@ -1348,7 +1410,7 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="O26" s="1"/>
     </row>
@@ -1437,7 +1499,7 @@
         <f>2*3.1415/(I29^2)*J29</f>
         <v>7.2288342232660327E-2</v>
       </c>
-      <c r="M29" s="36" t="s">
+      <c r="M29" s="41" t="s">
         <v>13</v>
       </c>
       <c r="N29" s="10" t="s">
@@ -1484,7 +1546,7 @@
         <f t="shared" ref="L30:L34" si="12">2*3.1415/(I30^2)*J30</f>
         <v>3.5153330035183339E-3</v>
       </c>
-      <c r="M30" s="36"/>
+      <c r="M30" s="41"/>
       <c r="N30" s="10" t="s">
         <v>11</v>
       </c>
@@ -1514,7 +1576,7 @@
         <v>15</v>
       </c>
       <c r="I31" s="9">
-        <f t="shared" ref="I29:I34" si="13">F31/H31</f>
+        <f t="shared" ref="I31:I34" si="13">F31/H31</f>
         <v>1.4793333333333334</v>
       </c>
       <c r="J31" s="9">
@@ -1529,7 +1591,7 @@
         <f t="shared" si="12"/>
         <v>8.1204475737634202E-2</v>
       </c>
-      <c r="M31" s="36" t="s">
+      <c r="M31" s="41" t="s">
         <v>14</v>
       </c>
       <c r="N31" s="10" t="s">
@@ -1576,7 +1638,7 @@
         <f t="shared" si="12"/>
         <v>1.3544091585553845E-3</v>
       </c>
-      <c r="M32" s="36"/>
+      <c r="M32" s="41"/>
       <c r="N32" s="10" t="s">
         <v>11</v>
       </c>
@@ -1621,7 +1683,7 @@
         <f t="shared" si="12"/>
         <v>7.5519887439593092E-2</v>
       </c>
-      <c r="M33" s="36" t="s">
+      <c r="M33" s="41" t="s">
         <v>15</v>
       </c>
       <c r="N33" s="10" t="s">
@@ -1668,14 +1730,14 @@
         <f t="shared" si="12"/>
         <v>4.0135951780690592E-4</v>
       </c>
-      <c r="M34" s="37"/>
+      <c r="M34" s="42"/>
       <c r="N34" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1761,7 +1823,7 @@
         <f>2*3.1415/(I39^2)*J39</f>
         <v>7.2169446953054009E-2</v>
       </c>
-      <c r="M39" s="36" t="s">
+      <c r="M39" s="41" t="s">
         <v>13</v>
       </c>
       <c r="N39" s="10" t="s">
@@ -1808,7 +1870,7 @@
         <f t="shared" ref="L40:L44" si="19">2*3.1415/(I40^2)*J40</f>
         <v>3.3903918496078793E-3</v>
       </c>
-      <c r="M40" s="36"/>
+      <c r="M40" s="41"/>
       <c r="N40" s="10" t="s">
         <v>11</v>
       </c>
@@ -1853,7 +1915,7 @@
         <f t="shared" si="19"/>
         <v>8.1498029861565083E-2</v>
       </c>
-      <c r="M41" s="36" t="s">
+      <c r="M41" s="41" t="s">
         <v>14</v>
       </c>
       <c r="N41" s="10" t="s">
@@ -1900,7 +1962,7 @@
         <f t="shared" si="19"/>
         <v>1.3242224692580457E-3</v>
       </c>
-      <c r="M42" s="36"/>
+      <c r="M42" s="41"/>
       <c r="N42" s="10" t="s">
         <v>11</v>
       </c>
@@ -1945,7 +2007,7 @@
         <f t="shared" si="19"/>
         <v>6.7105638426564918E-2</v>
       </c>
-      <c r="M43" s="36" t="s">
+      <c r="M43" s="41" t="s">
         <v>15</v>
       </c>
       <c r="N43" s="10" t="s">
@@ -1992,7 +2054,7 @@
         <f t="shared" si="19"/>
         <v>4.0153577493506974E-4</v>
       </c>
-      <c r="M44" s="37"/>
+      <c r="M44" s="42"/>
       <c r="N44" s="13" t="s">
         <v>11</v>
       </c>
@@ -2003,30 +2065,43 @@
         <v>21</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D48" s="30" t="s">
         <v>22</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F48" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="H48" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="J48" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="G48" s="30" t="s">
+      <c r="K48" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="H48" s="31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L48" s="45"/>
+      <c r="M48" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="N48" s="49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="32">
         <f>0.5*(K6+K7)</f>
         <v>4.2577961343879984</v>
       </c>
-      <c r="C49" s="34">
+      <c r="C49" s="36">
         <f>0.5*(0.14^2*2)^(1/2)</f>
         <v>9.8994949366116664E-2</v>
       </c>
@@ -2034,7 +2109,7 @@
         <f>0.5*(K7-K6)</f>
         <v>0.3665905191939447</v>
       </c>
-      <c r="E49" s="34">
+      <c r="E49" s="36">
         <f>0.5*(0.14^2*2)^(1/2)</f>
         <v>9.8994949366116664E-2</v>
       </c>
@@ -2047,20 +2122,34 @@
         <v>5.885781328622379E-2</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="J49" s="46">
+        <f>(K17-K6)/($L$5^2*2)^(1/2)</f>
+        <v>3.1622798200484303E-2</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M49" s="20">
+        <f>(K29-K39)/(L29^2+L39^2)^(1/2)</f>
+        <v>3.3333310753236582E-2</v>
+      </c>
+      <c r="N49" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="32">
         <f>0.5*(K8+K9)</f>
         <v>4.1031298973041004</v>
       </c>
-      <c r="C50" s="34"/>
+      <c r="C50" s="36"/>
       <c r="D50" s="9">
         <f>0.5*(K9-K8)</f>
         <v>0.20226069200608698</v>
       </c>
-      <c r="E50" s="34"/>
+      <c r="E50" s="36"/>
       <c r="F50" s="8">
         <f>(K31-B50)/($C$49^2+L31^2)^(1/2)</f>
         <v>1.1250690950260425</v>
@@ -2070,20 +2159,34 @@
         <v>0.21886252398763628</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="J50" s="46">
+        <f>-((K18-K7)/($L$5^2*2)^(1/2))</f>
+        <v>4.4501107000805673E-2</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M50" s="20">
+        <f>(K30-K40)/(L30^2+L40^2)^(1/2)</f>
+        <v>1.3245663520478983</v>
+      </c>
+      <c r="N50" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="32">
         <f>0.5*(K10+K11)</f>
         <v>3.9825223744093377</v>
       </c>
-      <c r="C51" s="34"/>
+      <c r="C51" s="36"/>
       <c r="D51" s="9">
         <f>0.5*(K11-K10)</f>
         <v>8.3267099274872969E-2</v>
       </c>
-      <c r="E51" s="34"/>
+      <c r="E51" s="36"/>
       <c r="F51" s="9">
         <f>(K33-B51)/($C$49^2+L33^2)^(1/2)</f>
         <v>0.90999639197923299</v>
@@ -2093,20 +2196,34 @@
         <v>2.9586283901921914E-2</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J51" s="46">
+        <f t="shared" ref="J51:J54" si="21">-((K19-K8)/($L$5^2*2)^(1/2))</f>
+        <v>7.9286119057560122E-3</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M51" s="20">
+        <f>-(K31-K41)/(L31^2+L41^2)^(1/2)</f>
+        <v>6.6666449648587145E-2</v>
+      </c>
+      <c r="N51" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="32">
         <f>0.5*(K17+K18)</f>
         <v>4.2564853947985597</v>
       </c>
-      <c r="C52" s="34"/>
+      <c r="C52" s="36"/>
       <c r="D52" s="9">
         <f>0.5*(K18-K17)</f>
         <v>0.35884271489781527</v>
       </c>
-      <c r="E52" s="34"/>
+      <c r="E52" s="36"/>
       <c r="F52" s="8">
         <f>(B52-K39)/(C49^2+L39^2)^(1/2)</f>
         <v>0.98958050042072654</v>
@@ -2116,20 +2233,34 @@
         <v>4.5950383262993784E-2</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="J52" s="46">
+        <f>((K20-K9)/($L$5^2*2)^(1/2))</f>
+        <v>2.9026593849972387E-2</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M52" s="20">
+        <f>(K32-K42)/(L32^2+L42^2)^(1/2)</f>
+        <v>1.3248317351945658</v>
+      </c>
+      <c r="N52" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="32">
         <f>0.5*(K19+K20)</f>
         <v>4.1052772258563444</v>
       </c>
-      <c r="C53" s="34"/>
+      <c r="C53" s="36"/>
       <c r="D53" s="9">
         <f>0.5*(K20-K19)</f>
         <v>0.20602195072188034</v>
       </c>
-      <c r="E53" s="34"/>
+      <c r="E53" s="36"/>
       <c r="F53" s="8">
         <f>(K41-B53)/(C49^2+L41^2)^(1/2)</f>
         <v>1.1665024889085782</v>
@@ -2139,20 +2270,34 @@
         <v>0.15552491741628091</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="J53" s="46">
+        <f t="shared" si="21"/>
+        <v>1.5837557969662359E-2</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M53" s="20">
+        <f>(K33-K43)/(L33^2+L43^2)^(1/2)</f>
+        <v>2.3252263517370415</v>
+      </c>
+      <c r="N53" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="33">
         <f>0.5*(K21+K22)</f>
         <v>3.9800338202255006</v>
       </c>
-      <c r="C54" s="35"/>
+      <c r="C54" s="37"/>
       <c r="D54" s="12">
         <f>0.5*(K22-K21)</f>
         <v>8.4002402284202304E-2</v>
       </c>
-      <c r="E54" s="35"/>
+      <c r="E54" s="37"/>
       <c r="F54" s="11">
         <f>(B54-K43)/(C49^2+L43^2)^(1/2)</f>
         <v>0.99598912625181757</v>
@@ -2162,19 +2307,35 @@
         <v>2.2349826698040965E-2</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="J54" s="47">
+        <f t="shared" si="21"/>
+        <v>8.6130419084638823E-3</v>
+      </c>
+      <c r="K54" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M54" s="22">
+        <f>-(K34-K44)/(L34^2+L44^2)^(1/2)</f>
+        <v>3.3333331726910567E-2</v>
+      </c>
+      <c r="N54" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="J16:J22"/>
-    <mergeCell ref="L16:L22"/>
-    <mergeCell ref="C5:C11"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="E5:E11"/>
-    <mergeCell ref="E16:E22"/>
-    <mergeCell ref="G5:G11"/>
-    <mergeCell ref="G16:G22"/>
     <mergeCell ref="C49:C54"/>
     <mergeCell ref="E49:E54"/>
     <mergeCell ref="M21:M22"/>
@@ -2191,9 +2352,17 @@
     <mergeCell ref="M33:M34"/>
     <mergeCell ref="J5:J11"/>
     <mergeCell ref="L5:L11"/>
+    <mergeCell ref="J16:J22"/>
+    <mergeCell ref="L16:L22"/>
+    <mergeCell ref="C5:C11"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="E5:E11"/>
+    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="G5:G11"/>
+    <mergeCell ref="G16:G22"/>
   </mergeCells>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="69" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0" right="0.39370078740157483" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Praktikum/211 - Gekoppelte Pendel/Gekopplete_Pendel.xlsx
+++ b/Praktikum/211 - Gekoppelte Pendel/Gekopplete_Pendel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="58">
   <si>
     <t>Startzeit [s]</t>
   </si>
@@ -220,6 +220,18 @@
   </si>
   <si>
     <t>ω_asym ≙ ω_2</t>
+  </si>
+  <si>
+    <t>κ l</t>
+  </si>
+  <si>
+    <t>κ r</t>
+  </si>
+  <si>
+    <t>Δ κ l</t>
+  </si>
+  <si>
+    <t>Δ κ r</t>
   </si>
 </sst>
 </file>
@@ -424,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -462,22 +474,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -492,12 +498,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -783,8 +798,8 @@
   </sheetPr>
   <dimension ref="B2:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,20 +870,20 @@
       <c r="B5" s="20">
         <v>1.33</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="48">
         <v>0.4</v>
       </c>
       <c r="D5" s="21">
         <v>25.53</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="48">
         <v>0.4</v>
       </c>
       <c r="F5" s="21">
         <f>D5-B5</f>
         <v>24.200000000000003</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="48">
         <f>($E$5*2)^(1/2)</f>
         <v>0.89442719099991586</v>
       </c>
@@ -879,7 +894,7 @@
         <f>F5/H5</f>
         <v>1.6133333333333335</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5" s="47">
         <f>G5/H5</f>
         <v>5.962847939999439E-2</v>
       </c>
@@ -887,7 +902,7 @@
         <f>2*3.1415/I5</f>
         <v>3.8944214876033056</v>
       </c>
-      <c r="L5" s="35">
+      <c r="L5" s="47">
         <f>2*3.1415/(I5^2)*J5</f>
         <v>0.14393704428622886</v>
       </c>
@@ -902,16 +917,16 @@
       <c r="B6" s="20">
         <v>5.97</v>
       </c>
-      <c r="C6" s="39"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="21">
         <v>30.19</v>
       </c>
-      <c r="E6" s="39"/>
+      <c r="E6" s="49"/>
       <c r="F6" s="21">
         <f t="shared" ref="F6:F11" si="0">D6-B6</f>
         <v>24.220000000000002</v>
       </c>
-      <c r="G6" s="39"/>
+      <c r="G6" s="49"/>
       <c r="H6" s="4">
         <v>15</v>
       </c>
@@ -919,13 +934,13 @@
         <f t="shared" ref="I6:I8" si="1">F6/H6</f>
         <v>1.6146666666666669</v>
       </c>
-      <c r="J6" s="36"/>
+      <c r="J6" s="41"/>
       <c r="K6" s="9">
         <f t="shared" ref="K6:K11" si="2">2*3.1415/I6</f>
         <v>3.8912056151940542</v>
       </c>
-      <c r="L6" s="36"/>
-      <c r="M6" s="43" t="s">
+      <c r="L6" s="41"/>
+      <c r="M6" s="45" t="s">
         <v>13</v>
       </c>
       <c r="N6" s="5" t="s">
@@ -936,16 +951,16 @@
       <c r="B7" s="20">
         <v>1.44</v>
       </c>
-      <c r="C7" s="39"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="21">
         <v>21.82</v>
       </c>
-      <c r="E7" s="39"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="21">
         <f t="shared" si="0"/>
         <v>20.38</v>
       </c>
-      <c r="G7" s="39"/>
+      <c r="G7" s="49"/>
       <c r="H7" s="4">
         <v>15</v>
       </c>
@@ -953,13 +968,13 @@
         <f t="shared" si="1"/>
         <v>1.3586666666666667</v>
       </c>
-      <c r="J7" s="36"/>
+      <c r="J7" s="41"/>
       <c r="K7" s="9">
         <f t="shared" si="2"/>
         <v>4.6243866535819436</v>
       </c>
-      <c r="L7" s="36"/>
-      <c r="M7" s="43"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="45"/>
       <c r="N7" s="5" t="s">
         <v>10</v>
       </c>
@@ -968,16 +983,16 @@
       <c r="B8" s="20">
         <v>0.59</v>
       </c>
-      <c r="C8" s="39"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="21">
         <v>24.75</v>
       </c>
-      <c r="E8" s="39"/>
+      <c r="E8" s="49"/>
       <c r="F8" s="21">
         <f t="shared" si="0"/>
         <v>24.16</v>
       </c>
-      <c r="G8" s="39"/>
+      <c r="G8" s="49"/>
       <c r="H8" s="4">
         <v>15</v>
       </c>
@@ -985,13 +1000,13 @@
         <f t="shared" si="1"/>
         <v>1.6106666666666667</v>
       </c>
-      <c r="J8" s="36"/>
+      <c r="J8" s="41"/>
       <c r="K8" s="9">
         <f t="shared" si="2"/>
         <v>3.9008692052980134</v>
       </c>
-      <c r="L8" s="36"/>
-      <c r="M8" s="43" t="s">
+      <c r="L8" s="41"/>
+      <c r="M8" s="45" t="s">
         <v>14</v>
       </c>
       <c r="N8" s="5" t="s">
@@ -1002,16 +1017,16 @@
       <c r="B9" s="20">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C9" s="39"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="21">
         <v>22.18</v>
       </c>
-      <c r="E9" s="39"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="21">
         <f t="shared" si="0"/>
         <v>21.89</v>
       </c>
-      <c r="G9" s="39"/>
+      <c r="G9" s="49"/>
       <c r="H9" s="4">
         <v>15</v>
       </c>
@@ -1019,13 +1034,13 @@
         <f>F9/H9</f>
         <v>1.4593333333333334</v>
       </c>
-      <c r="J9" s="36"/>
+      <c r="J9" s="41"/>
       <c r="K9" s="9">
         <f t="shared" si="2"/>
         <v>4.3053905893101874</v>
       </c>
-      <c r="L9" s="36"/>
-      <c r="M9" s="43"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="45"/>
       <c r="N9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1034,16 +1049,16 @@
       <c r="B10" s="20">
         <v>0.94</v>
       </c>
-      <c r="C10" s="39"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="21">
         <v>25.11</v>
       </c>
-      <c r="E10" s="39"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="21">
         <f t="shared" si="0"/>
         <v>24.169999999999998</v>
       </c>
-      <c r="G10" s="39"/>
+      <c r="G10" s="49"/>
       <c r="H10" s="4">
         <v>15</v>
       </c>
@@ -1051,13 +1066,13 @@
         <f t="shared" ref="I10:I11" si="3">F10/H10</f>
         <v>1.6113333333333333</v>
       </c>
-      <c r="J10" s="36"/>
+      <c r="J10" s="41"/>
       <c r="K10" s="9">
         <f t="shared" si="2"/>
         <v>3.8992552751344647</v>
       </c>
-      <c r="L10" s="36"/>
-      <c r="M10" s="43" t="s">
+      <c r="L10" s="41"/>
+      <c r="M10" s="45" t="s">
         <v>15</v>
       </c>
       <c r="N10" s="5" t="s">
@@ -1068,16 +1083,16 @@
       <c r="B11" s="22">
         <v>0.94</v>
       </c>
-      <c r="C11" s="40"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="23">
         <v>24.12</v>
       </c>
-      <c r="E11" s="40"/>
+      <c r="E11" s="50"/>
       <c r="F11" s="23">
         <f t="shared" si="0"/>
         <v>23.18</v>
       </c>
-      <c r="G11" s="40"/>
+      <c r="G11" s="50"/>
       <c r="H11" s="6">
         <v>15</v>
       </c>
@@ -1085,13 +1100,13 @@
         <f t="shared" si="3"/>
         <v>1.5453333333333332</v>
       </c>
-      <c r="J11" s="37"/>
+      <c r="J11" s="42"/>
       <c r="K11" s="12">
         <f t="shared" si="2"/>
         <v>4.0657894736842106</v>
       </c>
-      <c r="L11" s="37"/>
-      <c r="M11" s="44"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="46"/>
       <c r="N11" s="7" t="s">
         <v>10</v>
       </c>
@@ -1162,20 +1177,20 @@
       <c r="B16" s="20">
         <v>1.53</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="48">
         <v>0.4</v>
       </c>
       <c r="D16" s="21">
         <v>25.86</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="48">
         <v>0.4</v>
       </c>
       <c r="F16" s="21">
         <f>D16-B16</f>
         <v>24.33</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="48">
         <f>($E$5*2)^(1/2)</f>
         <v>0.89442719099991586</v>
       </c>
@@ -1186,7 +1201,7 @@
         <f>F16/H16</f>
         <v>1.6219999999999999</v>
       </c>
-      <c r="J16" s="35">
+      <c r="J16" s="47">
         <f>G16/H16</f>
         <v>5.962847939999439E-2</v>
       </c>
@@ -1194,7 +1209,7 @@
         <f>2*3.1415/I16</f>
         <v>3.8736128236744762</v>
       </c>
-      <c r="L16" s="35">
+      <c r="L16" s="47">
         <f>2*3.1415/(I16^2)*J16</f>
         <v>0.14240298548707006</v>
       </c>
@@ -1209,16 +1224,16 @@
       <c r="B17" s="20">
         <v>5.98</v>
       </c>
-      <c r="C17" s="39"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="21">
         <v>30.16</v>
       </c>
-      <c r="E17" s="39"/>
+      <c r="E17" s="49"/>
       <c r="F17" s="21">
         <f t="shared" ref="F17:F22" si="4">D17-B17</f>
         <v>24.18</v>
       </c>
-      <c r="G17" s="39"/>
+      <c r="G17" s="49"/>
       <c r="H17" s="8">
         <v>15</v>
       </c>
@@ -1226,13 +1241,13 @@
         <f t="shared" ref="I17:I19" si="5">F17/H17</f>
         <v>1.6119999999999999</v>
       </c>
-      <c r="J17" s="36"/>
+      <c r="J17" s="41"/>
       <c r="K17" s="9">
         <f t="shared" ref="K17:K22" si="6">2*3.1415/I17</f>
         <v>3.8976426799007449</v>
       </c>
-      <c r="L17" s="36"/>
-      <c r="M17" s="41" t="s">
+      <c r="L17" s="41"/>
+      <c r="M17" s="43" t="s">
         <v>13</v>
       </c>
       <c r="N17" s="10" t="s">
@@ -1243,16 +1258,16 @@
       <c r="B18" s="20">
         <v>0.72</v>
       </c>
-      <c r="C18" s="39"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="21">
         <v>21.14</v>
       </c>
-      <c r="E18" s="39"/>
+      <c r="E18" s="49"/>
       <c r="F18" s="21">
         <f t="shared" si="4"/>
         <v>20.420000000000002</v>
       </c>
-      <c r="G18" s="39"/>
+      <c r="G18" s="49"/>
       <c r="H18" s="8">
         <v>15</v>
       </c>
@@ -1260,13 +1275,13 @@
         <f t="shared" si="5"/>
         <v>1.3613333333333335</v>
       </c>
-      <c r="J18" s="36"/>
+      <c r="J18" s="41"/>
       <c r="K18" s="9">
         <f t="shared" si="6"/>
         <v>4.6153281096963754</v>
       </c>
-      <c r="L18" s="36"/>
-      <c r="M18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="43"/>
       <c r="N18" s="10" t="s">
         <v>10</v>
       </c>
@@ -1275,16 +1290,16 @@
       <c r="B19" s="20">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C19" s="39"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="21">
         <v>24.73</v>
       </c>
-      <c r="E19" s="39"/>
+      <c r="E19" s="49"/>
       <c r="F19" s="21">
         <f t="shared" si="4"/>
         <v>24.17</v>
       </c>
-      <c r="G19" s="39"/>
+      <c r="G19" s="49"/>
       <c r="H19" s="8">
         <v>15</v>
       </c>
@@ -1292,13 +1307,13 @@
         <f t="shared" si="5"/>
         <v>1.6113333333333335</v>
       </c>
-      <c r="J19" s="36"/>
+      <c r="J19" s="41"/>
       <c r="K19" s="9">
         <f t="shared" si="6"/>
         <v>3.8992552751344642</v>
       </c>
-      <c r="L19" s="36"/>
-      <c r="M19" s="41" t="s">
+      <c r="L19" s="41"/>
+      <c r="M19" s="43" t="s">
         <v>14</v>
       </c>
       <c r="N19" s="10" t="s">
@@ -1309,16 +1324,16 @@
       <c r="B20" s="20">
         <v>1.01</v>
       </c>
-      <c r="C20" s="39"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="21">
         <v>22.87</v>
       </c>
-      <c r="E20" s="39"/>
+      <c r="E20" s="49"/>
       <c r="F20" s="21">
         <f t="shared" si="4"/>
         <v>21.86</v>
       </c>
-      <c r="G20" s="39"/>
+      <c r="G20" s="49"/>
       <c r="H20" s="8">
         <v>15</v>
       </c>
@@ -1326,13 +1341,13 @@
         <f>F20/H20</f>
         <v>1.4573333333333334</v>
       </c>
-      <c r="J20" s="36"/>
+      <c r="J20" s="41"/>
       <c r="K20" s="9">
         <f t="shared" si="6"/>
         <v>4.3112991765782249</v>
       </c>
-      <c r="L20" s="36"/>
-      <c r="M20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="43"/>
       <c r="N20" s="10" t="s">
         <v>10</v>
       </c>
@@ -1341,16 +1356,16 @@
       <c r="B21" s="20">
         <v>0.98</v>
       </c>
-      <c r="C21" s="39"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="21">
         <v>25.17</v>
       </c>
-      <c r="E21" s="39"/>
+      <c r="E21" s="49"/>
       <c r="F21" s="21">
         <f t="shared" si="4"/>
         <v>24.19</v>
       </c>
-      <c r="G21" s="39"/>
+      <c r="G21" s="49"/>
       <c r="H21" s="8">
         <v>15</v>
       </c>
@@ -1358,13 +1373,13 @@
         <f t="shared" ref="I21:I22" si="7">F21/H21</f>
         <v>1.6126666666666667</v>
       </c>
-      <c r="J21" s="36"/>
+      <c r="J21" s="41"/>
       <c r="K21" s="9">
         <f t="shared" si="6"/>
         <v>3.8960314179412983</v>
       </c>
-      <c r="L21" s="36"/>
-      <c r="M21" s="41" t="s">
+      <c r="L21" s="41"/>
+      <c r="M21" s="43" t="s">
         <v>15</v>
       </c>
       <c r="N21" s="10" t="s">
@@ -1375,16 +1390,16 @@
       <c r="B22" s="22">
         <v>0.16</v>
       </c>
-      <c r="C22" s="40"/>
+      <c r="C22" s="50"/>
       <c r="D22" s="23">
         <v>23.35</v>
       </c>
-      <c r="E22" s="40"/>
+      <c r="E22" s="50"/>
       <c r="F22" s="23">
         <f t="shared" si="4"/>
         <v>23.19</v>
       </c>
-      <c r="G22" s="40"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="11">
         <v>15</v>
       </c>
@@ -1392,13 +1407,13 @@
         <f t="shared" si="7"/>
         <v>1.546</v>
       </c>
-      <c r="J22" s="37"/>
+      <c r="J22" s="42"/>
       <c r="K22" s="12">
         <f t="shared" si="6"/>
         <v>4.0640362225097029</v>
       </c>
-      <c r="L22" s="37"/>
-      <c r="M22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="44"/>
       <c r="N22" s="13" t="s">
         <v>10</v>
       </c>
@@ -1499,7 +1514,7 @@
         <f>2*3.1415/(I29^2)*J29</f>
         <v>7.2288342232660327E-2</v>
       </c>
-      <c r="M29" s="41" t="s">
+      <c r="M29" s="43" t="s">
         <v>13</v>
       </c>
       <c r="N29" s="10" t="s">
@@ -1546,7 +1561,7 @@
         <f t="shared" ref="L30:L34" si="12">2*3.1415/(I30^2)*J30</f>
         <v>3.5153330035183339E-3</v>
       </c>
-      <c r="M30" s="41"/>
+      <c r="M30" s="43"/>
       <c r="N30" s="10" t="s">
         <v>11</v>
       </c>
@@ -1591,7 +1606,7 @@
         <f t="shared" si="12"/>
         <v>8.1204475737634202E-2</v>
       </c>
-      <c r="M31" s="41" t="s">
+      <c r="M31" s="43" t="s">
         <v>14</v>
       </c>
       <c r="N31" s="10" t="s">
@@ -1638,7 +1653,7 @@
         <f t="shared" si="12"/>
         <v>1.3544091585553845E-3</v>
       </c>
-      <c r="M32" s="41"/>
+      <c r="M32" s="43"/>
       <c r="N32" s="10" t="s">
         <v>11</v>
       </c>
@@ -1683,7 +1698,7 @@
         <f t="shared" si="12"/>
         <v>7.5519887439593092E-2</v>
       </c>
-      <c r="M33" s="41" t="s">
+      <c r="M33" s="43" t="s">
         <v>15</v>
       </c>
       <c r="N33" s="10" t="s">
@@ -1730,7 +1745,7 @@
         <f t="shared" si="12"/>
         <v>4.0135951780690592E-4</v>
       </c>
-      <c r="M34" s="42"/>
+      <c r="M34" s="44"/>
       <c r="N34" s="13" t="s">
         <v>11</v>
       </c>
@@ -1823,7 +1838,7 @@
         <f>2*3.1415/(I39^2)*J39</f>
         <v>7.2169446953054009E-2</v>
       </c>
-      <c r="M39" s="41" t="s">
+      <c r="M39" s="43" t="s">
         <v>13</v>
       </c>
       <c r="N39" s="10" t="s">
@@ -1870,7 +1885,7 @@
         <f t="shared" ref="L40:L44" si="19">2*3.1415/(I40^2)*J40</f>
         <v>3.3903918496078793E-3</v>
       </c>
-      <c r="M40" s="41"/>
+      <c r="M40" s="43"/>
       <c r="N40" s="10" t="s">
         <v>11</v>
       </c>
@@ -1915,7 +1930,7 @@
         <f t="shared" si="19"/>
         <v>8.1498029861565083E-2</v>
       </c>
-      <c r="M41" s="41" t="s">
+      <c r="M41" s="43" t="s">
         <v>14</v>
       </c>
       <c r="N41" s="10" t="s">
@@ -1962,7 +1977,7 @@
         <f t="shared" si="19"/>
         <v>1.3242224692580457E-3</v>
       </c>
-      <c r="M42" s="41"/>
+      <c r="M42" s="43"/>
       <c r="N42" s="10" t="s">
         <v>11</v>
       </c>
@@ -2007,7 +2022,7 @@
         <f t="shared" si="19"/>
         <v>6.7105638426564918E-2</v>
       </c>
-      <c r="M43" s="41" t="s">
+      <c r="M43" s="43" t="s">
         <v>15</v>
       </c>
       <c r="N43" s="10" t="s">
@@ -2054,7 +2069,7 @@
         <f t="shared" si="19"/>
         <v>4.0153577493506974E-4</v>
       </c>
-      <c r="M44" s="42"/>
+      <c r="M44" s="44"/>
       <c r="N44" s="13" t="s">
         <v>11</v>
       </c>
@@ -2082,17 +2097,17 @@
       <c r="H48" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="J48" s="48" t="s">
+      <c r="J48" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="K48" s="49" t="s">
+      <c r="K48" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="L48" s="45"/>
-      <c r="M48" s="50" t="s">
+      <c r="L48" s="35"/>
+      <c r="M48" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="N48" s="49" t="s">
+      <c r="N48" s="39" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2101,7 +2116,7 @@
         <f>0.5*(K6+K7)</f>
         <v>4.2577961343879984</v>
       </c>
-      <c r="C49" s="36">
+      <c r="C49" s="41">
         <f>0.5*(0.14^2*2)^(1/2)</f>
         <v>9.8994949366116664E-2</v>
       </c>
@@ -2109,7 +2124,7 @@
         <f>0.5*(K7-K6)</f>
         <v>0.3665905191939447</v>
       </c>
-      <c r="E49" s="36">
+      <c r="E49" s="41">
         <f>0.5*(0.14^2*2)^(1/2)</f>
         <v>9.8994949366116664E-2</v>
       </c>
@@ -2124,7 +2139,7 @@
       <c r="H49" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J49" s="46">
+      <c r="J49" s="36">
         <f>(K17-K6)/($L$5^2*2)^(1/2)</f>
         <v>3.1622798200484303E-2</v>
       </c>
@@ -2144,12 +2159,12 @@
         <f>0.5*(K8+K9)</f>
         <v>4.1031298973041004</v>
       </c>
-      <c r="C50" s="36"/>
+      <c r="C50" s="41"/>
       <c r="D50" s="9">
         <f>0.5*(K9-K8)</f>
         <v>0.20226069200608698</v>
       </c>
-      <c r="E50" s="36"/>
+      <c r="E50" s="41"/>
       <c r="F50" s="8">
         <f>(K31-B50)/($C$49^2+L31^2)^(1/2)</f>
         <v>1.1250690950260425</v>
@@ -2161,7 +2176,7 @@
       <c r="H50" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J50" s="46">
+      <c r="J50" s="36">
         <f>-((K18-K7)/($L$5^2*2)^(1/2))</f>
         <v>4.4501107000805673E-2</v>
       </c>
@@ -2181,12 +2196,12 @@
         <f>0.5*(K10+K11)</f>
         <v>3.9825223744093377</v>
       </c>
-      <c r="C51" s="36"/>
+      <c r="C51" s="41"/>
       <c r="D51" s="9">
         <f>0.5*(K11-K10)</f>
         <v>8.3267099274872969E-2</v>
       </c>
-      <c r="E51" s="36"/>
+      <c r="E51" s="41"/>
       <c r="F51" s="9">
         <f>(K33-B51)/($C$49^2+L33^2)^(1/2)</f>
         <v>0.90999639197923299</v>
@@ -2198,7 +2213,7 @@
       <c r="H51" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J51" s="46">
+      <c r="J51" s="36">
         <f t="shared" ref="J51:J54" si="21">-((K19-K8)/($L$5^2*2)^(1/2))</f>
         <v>7.9286119057560122E-3</v>
       </c>
@@ -2218,12 +2233,12 @@
         <f>0.5*(K17+K18)</f>
         <v>4.2564853947985597</v>
       </c>
-      <c r="C52" s="36"/>
+      <c r="C52" s="41"/>
       <c r="D52" s="9">
         <f>0.5*(K18-K17)</f>
         <v>0.35884271489781527</v>
       </c>
-      <c r="E52" s="36"/>
+      <c r="E52" s="41"/>
       <c r="F52" s="8">
         <f>(B52-K39)/(C49^2+L39^2)^(1/2)</f>
         <v>0.98958050042072654</v>
@@ -2235,7 +2250,7 @@
       <c r="H52" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J52" s="46">
+      <c r="J52" s="36">
         <f>((K20-K9)/($L$5^2*2)^(1/2))</f>
         <v>2.9026593849972387E-2</v>
       </c>
@@ -2255,12 +2270,12 @@
         <f>0.5*(K19+K20)</f>
         <v>4.1052772258563444</v>
       </c>
-      <c r="C53" s="36"/>
+      <c r="C53" s="41"/>
       <c r="D53" s="9">
         <f>0.5*(K20-K19)</f>
         <v>0.20602195072188034</v>
       </c>
-      <c r="E53" s="36"/>
+      <c r="E53" s="41"/>
       <c r="F53" s="8">
         <f>(K41-B53)/(C49^2+L41^2)^(1/2)</f>
         <v>1.1665024889085782</v>
@@ -2272,7 +2287,7 @@
       <c r="H53" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J53" s="46">
+      <c r="J53" s="36">
         <f t="shared" si="21"/>
         <v>1.5837557969662359E-2</v>
       </c>
@@ -2292,12 +2307,12 @@
         <f>0.5*(K21+K22)</f>
         <v>3.9800338202255006</v>
       </c>
-      <c r="C54" s="37"/>
+      <c r="C54" s="42"/>
       <c r="D54" s="12">
         <f>0.5*(K22-K21)</f>
         <v>8.4002402284202304E-2</v>
       </c>
-      <c r="E54" s="37"/>
+      <c r="E54" s="42"/>
       <c r="F54" s="11">
         <f>(B54-K43)/(C49^2+L43^2)^(1/2)</f>
         <v>0.99598912625181757</v>
@@ -2309,7 +2324,7 @@
       <c r="H54" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J54" s="47">
+      <c r="J54" s="37">
         <f t="shared" si="21"/>
         <v>8.6130419084638823E-3</v>
       </c>
@@ -2336,6 +2351,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="J16:J22"/>
+    <mergeCell ref="L16:L22"/>
+    <mergeCell ref="C5:C11"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="E5:E11"/>
+    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="G5:G11"/>
+    <mergeCell ref="G16:G22"/>
     <mergeCell ref="C49:C54"/>
     <mergeCell ref="E49:E54"/>
     <mergeCell ref="M21:M22"/>
@@ -2352,14 +2375,6 @@
     <mergeCell ref="M33:M34"/>
     <mergeCell ref="J5:J11"/>
     <mergeCell ref="L5:L11"/>
-    <mergeCell ref="J16:J22"/>
-    <mergeCell ref="L16:L22"/>
-    <mergeCell ref="C5:C11"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="E5:E11"/>
-    <mergeCell ref="E16:E22"/>
-    <mergeCell ref="G5:G11"/>
-    <mergeCell ref="G16:G22"/>
   </mergeCells>
   <pageMargins left="0" right="0.39370078740157483" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
@@ -2368,14 +2383,85 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="32">
+        <f>(Tabelle1!I6^2-Tabelle1!I7^2)/(Tabelle1!I7^2+Tabelle1!I6^2)</f>
+        <v>0.17093020749081209</v>
+      </c>
+      <c r="C3" s="9">
+        <f>(((4*Tabelle1!I6*Tabelle1!I7^2)/(Tabelle1!I6^2+Tabelle1!I7^2)^2*Tabelle1!J5)^2+((4*Tabelle1!I6^2*Tabelle1!I7)/(Tabelle1!I6^2+Tabelle1!I7^2)^2*Tabelle1!J5)^2)^(1/2)</f>
+        <v>5.568169003714471E-2</v>
+      </c>
+      <c r="D3" s="8">
+        <f>-(Tabelle1!K17^2-Tabelle1!K18^2)/(Tabelle1!K17^2+Tabelle1!K18^2)</f>
+        <v>0.1674199579732934</v>
+      </c>
+      <c r="E3" s="51">
+        <f>(((4*Tabelle1!I17*Tabelle1!I18^2)/(Tabelle1!I17^2+Tabelle1!I18^2)^2*Tabelle1!$J$16)^2+((4*Tabelle1!I17^2*Tabelle1!I18)/(Tabelle1!I17^2+Tabelle1!I18^2)^2*Tabelle1!$J$16)^2)^(1/2)</f>
+        <v>5.572419540872918E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="32">
+        <f>(Tabelle1!I8^2-Tabelle1!I9^2)/(Tabelle1!I8^2+Tabelle1!I9^2)</f>
+        <v>9.8349509073339253E-2</v>
+      </c>
+      <c r="C4" s="9">
+        <f>(((4*Tabelle1!I9*Tabelle1!I8^2)/(Tabelle1!I9^2+Tabelle1!I8^2)^2*Tabelle1!J5)^2+((4*Tabelle1!I9^2*Tabelle1!I8)/(Tabelle1!I8^2+Tabelle1!I9^2)^2*Tabelle1!J5)^2)^(1/2)</f>
+        <v>5.4603783164213278E-2</v>
+      </c>
+      <c r="D4" s="8">
+        <f>-(Tabelle1!K19^2-Tabelle1!K20^2)/(Tabelle1!K19^2+Tabelle1!K20^2)</f>
+        <v>0.10011717920603433</v>
+      </c>
+      <c r="E4" s="51">
+        <f>(((4*Tabelle1!I20*Tabelle1!I19^2)/(Tabelle1!I20^2+Tabelle1!I19^2)^2*Tabelle1!$J$16)^2+((4*Tabelle1!I20^2*Tabelle1!I19)/(Tabelle1!I20^2+Tabelle1!I19^2)^2*Tabelle1!$J$16)^2)^(1/2)</f>
+        <v>5.4615418770292766E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="33">
+        <f>(Tabelle1!I10^2-Tabelle1!I11^2)/(Tabelle1!I10^2+Tabelle1!I11^2)</f>
+        <v>4.1797989890872217E-2</v>
+      </c>
+      <c r="C5" s="12">
+        <f>(((4*Tabelle1!I10*Tabelle1!I11^2)/(Tabelle1!I10^2+Tabelle1!I11^2)^2*Tabelle1!J5)^2+((4*Tabelle1!I10^2*Tabelle1!I11)/(Tabelle1!I11^2+Tabelle1!I10^2)^2*Tabelle1!J5)^2)^(1/2)</f>
+        <v>5.3369777823496702E-2</v>
+      </c>
+      <c r="D5" s="11">
+        <f>-(Tabelle1!K21^2-Tabelle1!K22^2)/(Tabelle1!K21^2+Tabelle1!K22^2)</f>
+        <v>4.2193108363977799E-2</v>
+      </c>
+      <c r="E5" s="52">
+        <f>(((4*Tabelle1!I21*Tabelle1!I22^2)/(Tabelle1!I21^2+Tabelle1!I22^2)^2*Tabelle1!$J$16)^2+((4*Tabelle1!I21^2*Tabelle1!I22)/(Tabelle1!I21^2+Tabelle1!I22^2)^2*Tabelle1!$J$16)^2)^(1/2)</f>
+        <v>5.3334877109922248E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Praktikum/211 - Gekoppelte Pendel/Gekopplete_Pendel.xlsx
+++ b/Praktikum/211 - Gekoppelte Pendel/Gekopplete_Pendel.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="60">
   <si>
     <t>Startzeit [s]</t>
   </si>
@@ -232,6 +232,12 @@
   </si>
   <si>
     <t>Δ κ r</t>
+  </si>
+  <si>
+    <t>genau</t>
+  </si>
+  <si>
+    <t>Näherung</t>
   </si>
 </sst>
 </file>
@@ -272,7 +278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -432,11 +438,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -480,10 +506,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -498,21 +539,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -799,7 +829,7 @@
   <dimension ref="B2:P57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,20 +900,20 @@
       <c r="B5" s="20">
         <v>1.33</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="47">
         <v>0.4</v>
       </c>
       <c r="D5" s="21">
         <v>25.53</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="47">
         <v>0.4</v>
       </c>
       <c r="F5" s="21">
         <f>D5-B5</f>
         <v>24.200000000000003</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="47">
         <f>($E$5*2)^(1/2)</f>
         <v>0.89442719099991586</v>
       </c>
@@ -894,7 +924,7 @@
         <f>F5/H5</f>
         <v>1.6133333333333335</v>
       </c>
-      <c r="J5" s="47">
+      <c r="J5" s="44">
         <f>G5/H5</f>
         <v>5.962847939999439E-2</v>
       </c>
@@ -902,7 +932,7 @@
         <f>2*3.1415/I5</f>
         <v>3.8944214876033056</v>
       </c>
-      <c r="L5" s="47">
+      <c r="L5" s="44">
         <f>2*3.1415/(I5^2)*J5</f>
         <v>0.14393704428622886</v>
       </c>
@@ -917,16 +947,16 @@
       <c r="B6" s="20">
         <v>5.97</v>
       </c>
-      <c r="C6" s="49"/>
+      <c r="C6" s="48"/>
       <c r="D6" s="21">
         <v>30.19</v>
       </c>
-      <c r="E6" s="49"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="21">
         <f t="shared" ref="F6:F11" si="0">D6-B6</f>
         <v>24.220000000000002</v>
       </c>
-      <c r="G6" s="49"/>
+      <c r="G6" s="48"/>
       <c r="H6" s="4">
         <v>15</v>
       </c>
@@ -934,13 +964,13 @@
         <f t="shared" ref="I6:I8" si="1">F6/H6</f>
         <v>1.6146666666666669</v>
       </c>
-      <c r="J6" s="41"/>
+      <c r="J6" s="45"/>
       <c r="K6" s="9">
         <f t="shared" ref="K6:K11" si="2">2*3.1415/I6</f>
         <v>3.8912056151940542</v>
       </c>
-      <c r="L6" s="41"/>
-      <c r="M6" s="45" t="s">
+      <c r="L6" s="45"/>
+      <c r="M6" s="52" t="s">
         <v>13</v>
       </c>
       <c r="N6" s="5" t="s">
@@ -951,16 +981,16 @@
       <c r="B7" s="20">
         <v>1.44</v>
       </c>
-      <c r="C7" s="49"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="21">
         <v>21.82</v>
       </c>
-      <c r="E7" s="49"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="21">
         <f t="shared" si="0"/>
         <v>20.38</v>
       </c>
-      <c r="G7" s="49"/>
+      <c r="G7" s="48"/>
       <c r="H7" s="4">
         <v>15</v>
       </c>
@@ -968,13 +998,13 @@
         <f t="shared" si="1"/>
         <v>1.3586666666666667</v>
       </c>
-      <c r="J7" s="41"/>
+      <c r="J7" s="45"/>
       <c r="K7" s="9">
         <f t="shared" si="2"/>
         <v>4.6243866535819436</v>
       </c>
-      <c r="L7" s="41"/>
-      <c r="M7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="52"/>
       <c r="N7" s="5" t="s">
         <v>10</v>
       </c>
@@ -983,16 +1013,16 @@
       <c r="B8" s="20">
         <v>0.59</v>
       </c>
-      <c r="C8" s="49"/>
+      <c r="C8" s="48"/>
       <c r="D8" s="21">
         <v>24.75</v>
       </c>
-      <c r="E8" s="49"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="21">
         <f t="shared" si="0"/>
         <v>24.16</v>
       </c>
-      <c r="G8" s="49"/>
+      <c r="G8" s="48"/>
       <c r="H8" s="4">
         <v>15</v>
       </c>
@@ -1000,13 +1030,13 @@
         <f t="shared" si="1"/>
         <v>1.6106666666666667</v>
       </c>
-      <c r="J8" s="41"/>
+      <c r="J8" s="45"/>
       <c r="K8" s="9">
         <f t="shared" si="2"/>
         <v>3.9008692052980134</v>
       </c>
-      <c r="L8" s="41"/>
-      <c r="M8" s="45" t="s">
+      <c r="L8" s="45"/>
+      <c r="M8" s="52" t="s">
         <v>14</v>
       </c>
       <c r="N8" s="5" t="s">
@@ -1017,16 +1047,16 @@
       <c r="B9" s="20">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C9" s="49"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="21">
         <v>22.18</v>
       </c>
-      <c r="E9" s="49"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="21">
         <f t="shared" si="0"/>
         <v>21.89</v>
       </c>
-      <c r="G9" s="49"/>
+      <c r="G9" s="48"/>
       <c r="H9" s="4">
         <v>15</v>
       </c>
@@ -1034,13 +1064,13 @@
         <f>F9/H9</f>
         <v>1.4593333333333334</v>
       </c>
-      <c r="J9" s="41"/>
+      <c r="J9" s="45"/>
       <c r="K9" s="9">
         <f t="shared" si="2"/>
         <v>4.3053905893101874</v>
       </c>
-      <c r="L9" s="41"/>
-      <c r="M9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="52"/>
       <c r="N9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1049,16 +1079,16 @@
       <c r="B10" s="20">
         <v>0.94</v>
       </c>
-      <c r="C10" s="49"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="21">
         <v>25.11</v>
       </c>
-      <c r="E10" s="49"/>
+      <c r="E10" s="48"/>
       <c r="F10" s="21">
         <f t="shared" si="0"/>
         <v>24.169999999999998</v>
       </c>
-      <c r="G10" s="49"/>
+      <c r="G10" s="48"/>
       <c r="H10" s="4">
         <v>15</v>
       </c>
@@ -1066,13 +1096,13 @@
         <f t="shared" ref="I10:I11" si="3">F10/H10</f>
         <v>1.6113333333333333</v>
       </c>
-      <c r="J10" s="41"/>
+      <c r="J10" s="45"/>
       <c r="K10" s="9">
         <f t="shared" si="2"/>
         <v>3.8992552751344647</v>
       </c>
-      <c r="L10" s="41"/>
-      <c r="M10" s="45" t="s">
+      <c r="L10" s="45"/>
+      <c r="M10" s="52" t="s">
         <v>15</v>
       </c>
       <c r="N10" s="5" t="s">
@@ -1083,16 +1113,16 @@
       <c r="B11" s="22">
         <v>0.94</v>
       </c>
-      <c r="C11" s="50"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="23">
         <v>24.12</v>
       </c>
-      <c r="E11" s="50"/>
+      <c r="E11" s="49"/>
       <c r="F11" s="23">
         <f t="shared" si="0"/>
         <v>23.18</v>
       </c>
-      <c r="G11" s="50"/>
+      <c r="G11" s="49"/>
       <c r="H11" s="6">
         <v>15</v>
       </c>
@@ -1100,13 +1130,13 @@
         <f t="shared" si="3"/>
         <v>1.5453333333333332</v>
       </c>
-      <c r="J11" s="42"/>
+      <c r="J11" s="46"/>
       <c r="K11" s="12">
         <f t="shared" si="2"/>
         <v>4.0657894736842106</v>
       </c>
-      <c r="L11" s="42"/>
-      <c r="M11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="53"/>
       <c r="N11" s="7" t="s">
         <v>10</v>
       </c>
@@ -1177,20 +1207,20 @@
       <c r="B16" s="20">
         <v>1.53</v>
       </c>
-      <c r="C16" s="48">
+      <c r="C16" s="47">
         <v>0.4</v>
       </c>
       <c r="D16" s="21">
         <v>25.86</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="47">
         <v>0.4</v>
       </c>
       <c r="F16" s="21">
         <f>D16-B16</f>
         <v>24.33</v>
       </c>
-      <c r="G16" s="48">
+      <c r="G16" s="47">
         <f>($E$5*2)^(1/2)</f>
         <v>0.89442719099991586</v>
       </c>
@@ -1201,7 +1231,7 @@
         <f>F16/H16</f>
         <v>1.6219999999999999</v>
       </c>
-      <c r="J16" s="47">
+      <c r="J16" s="44">
         <f>G16/H16</f>
         <v>5.962847939999439E-2</v>
       </c>
@@ -1209,7 +1239,7 @@
         <f>2*3.1415/I16</f>
         <v>3.8736128236744762</v>
       </c>
-      <c r="L16" s="47">
+      <c r="L16" s="44">
         <f>2*3.1415/(I16^2)*J16</f>
         <v>0.14240298548707006</v>
       </c>
@@ -1224,16 +1254,16 @@
       <c r="B17" s="20">
         <v>5.98</v>
       </c>
-      <c r="C17" s="49"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="21">
         <v>30.16</v>
       </c>
-      <c r="E17" s="49"/>
+      <c r="E17" s="48"/>
       <c r="F17" s="21">
         <f t="shared" ref="F17:F22" si="4">D17-B17</f>
         <v>24.18</v>
       </c>
-      <c r="G17" s="49"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="8">
         <v>15</v>
       </c>
@@ -1241,13 +1271,13 @@
         <f t="shared" ref="I17:I19" si="5">F17/H17</f>
         <v>1.6119999999999999</v>
       </c>
-      <c r="J17" s="41"/>
+      <c r="J17" s="45"/>
       <c r="K17" s="9">
         <f t="shared" ref="K17:K22" si="6">2*3.1415/I17</f>
         <v>3.8976426799007449</v>
       </c>
-      <c r="L17" s="41"/>
-      <c r="M17" s="43" t="s">
+      <c r="L17" s="45"/>
+      <c r="M17" s="50" t="s">
         <v>13</v>
       </c>
       <c r="N17" s="10" t="s">
@@ -1258,16 +1288,16 @@
       <c r="B18" s="20">
         <v>0.72</v>
       </c>
-      <c r="C18" s="49"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="21">
         <v>21.14</v>
       </c>
-      <c r="E18" s="49"/>
+      <c r="E18" s="48"/>
       <c r="F18" s="21">
         <f t="shared" si="4"/>
         <v>20.420000000000002</v>
       </c>
-      <c r="G18" s="49"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="8">
         <v>15</v>
       </c>
@@ -1275,13 +1305,13 @@
         <f t="shared" si="5"/>
         <v>1.3613333333333335</v>
       </c>
-      <c r="J18" s="41"/>
+      <c r="J18" s="45"/>
       <c r="K18" s="9">
         <f t="shared" si="6"/>
         <v>4.6153281096963754</v>
       </c>
-      <c r="L18" s="41"/>
-      <c r="M18" s="43"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="50"/>
       <c r="N18" s="10" t="s">
         <v>10</v>
       </c>
@@ -1290,16 +1320,16 @@
       <c r="B19" s="20">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C19" s="49"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="21">
         <v>24.73</v>
       </c>
-      <c r="E19" s="49"/>
+      <c r="E19" s="48"/>
       <c r="F19" s="21">
         <f t="shared" si="4"/>
         <v>24.17</v>
       </c>
-      <c r="G19" s="49"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="8">
         <v>15</v>
       </c>
@@ -1307,13 +1337,13 @@
         <f t="shared" si="5"/>
         <v>1.6113333333333335</v>
       </c>
-      <c r="J19" s="41"/>
+      <c r="J19" s="45"/>
       <c r="K19" s="9">
         <f t="shared" si="6"/>
         <v>3.8992552751344642</v>
       </c>
-      <c r="L19" s="41"/>
-      <c r="M19" s="43" t="s">
+      <c r="L19" s="45"/>
+      <c r="M19" s="50" t="s">
         <v>14</v>
       </c>
       <c r="N19" s="10" t="s">
@@ -1324,16 +1354,16 @@
       <c r="B20" s="20">
         <v>1.01</v>
       </c>
-      <c r="C20" s="49"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="21">
         <v>22.87</v>
       </c>
-      <c r="E20" s="49"/>
+      <c r="E20" s="48"/>
       <c r="F20" s="21">
         <f t="shared" si="4"/>
         <v>21.86</v>
       </c>
-      <c r="G20" s="49"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="8">
         <v>15</v>
       </c>
@@ -1341,13 +1371,13 @@
         <f>F20/H20</f>
         <v>1.4573333333333334</v>
       </c>
-      <c r="J20" s="41"/>
+      <c r="J20" s="45"/>
       <c r="K20" s="9">
         <f t="shared" si="6"/>
         <v>4.3112991765782249</v>
       </c>
-      <c r="L20" s="41"/>
-      <c r="M20" s="43"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="50"/>
       <c r="N20" s="10" t="s">
         <v>10</v>
       </c>
@@ -1356,16 +1386,16 @@
       <c r="B21" s="20">
         <v>0.98</v>
       </c>
-      <c r="C21" s="49"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="21">
         <v>25.17</v>
       </c>
-      <c r="E21" s="49"/>
+      <c r="E21" s="48"/>
       <c r="F21" s="21">
         <f t="shared" si="4"/>
         <v>24.19</v>
       </c>
-      <c r="G21" s="49"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="8">
         <v>15</v>
       </c>
@@ -1373,13 +1403,13 @@
         <f t="shared" ref="I21:I22" si="7">F21/H21</f>
         <v>1.6126666666666667</v>
       </c>
-      <c r="J21" s="41"/>
+      <c r="J21" s="45"/>
       <c r="K21" s="9">
         <f t="shared" si="6"/>
         <v>3.8960314179412983</v>
       </c>
-      <c r="L21" s="41"/>
-      <c r="M21" s="43" t="s">
+      <c r="L21" s="45"/>
+      <c r="M21" s="50" t="s">
         <v>15</v>
       </c>
       <c r="N21" s="10" t="s">
@@ -1390,16 +1420,16 @@
       <c r="B22" s="22">
         <v>0.16</v>
       </c>
-      <c r="C22" s="50"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="23">
         <v>23.35</v>
       </c>
-      <c r="E22" s="50"/>
+      <c r="E22" s="49"/>
       <c r="F22" s="23">
         <f t="shared" si="4"/>
         <v>23.19</v>
       </c>
-      <c r="G22" s="50"/>
+      <c r="G22" s="49"/>
       <c r="H22" s="11">
         <v>15</v>
       </c>
@@ -1407,13 +1437,13 @@
         <f t="shared" si="7"/>
         <v>1.546</v>
       </c>
-      <c r="J22" s="42"/>
+      <c r="J22" s="46"/>
       <c r="K22" s="12">
         <f t="shared" si="6"/>
         <v>4.0640362225097029</v>
       </c>
-      <c r="L22" s="42"/>
-      <c r="M22" s="44"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="51"/>
       <c r="N22" s="13" t="s">
         <v>10</v>
       </c>
@@ -1514,7 +1544,7 @@
         <f>2*3.1415/(I29^2)*J29</f>
         <v>7.2288342232660327E-2</v>
       </c>
-      <c r="M29" s="43" t="s">
+      <c r="M29" s="50" t="s">
         <v>13</v>
       </c>
       <c r="N29" s="10" t="s">
@@ -1561,7 +1591,7 @@
         <f t="shared" ref="L30:L34" si="12">2*3.1415/(I30^2)*J30</f>
         <v>3.5153330035183339E-3</v>
       </c>
-      <c r="M30" s="43"/>
+      <c r="M30" s="50"/>
       <c r="N30" s="10" t="s">
         <v>11</v>
       </c>
@@ -1606,7 +1636,7 @@
         <f t="shared" si="12"/>
         <v>8.1204475737634202E-2</v>
       </c>
-      <c r="M31" s="43" t="s">
+      <c r="M31" s="50" t="s">
         <v>14</v>
       </c>
       <c r="N31" s="10" t="s">
@@ -1653,7 +1683,7 @@
         <f t="shared" si="12"/>
         <v>1.3544091585553845E-3</v>
       </c>
-      <c r="M32" s="43"/>
+      <c r="M32" s="50"/>
       <c r="N32" s="10" t="s">
         <v>11</v>
       </c>
@@ -1698,7 +1728,7 @@
         <f t="shared" si="12"/>
         <v>7.5519887439593092E-2</v>
       </c>
-      <c r="M33" s="43" t="s">
+      <c r="M33" s="50" t="s">
         <v>15</v>
       </c>
       <c r="N33" s="10" t="s">
@@ -1745,7 +1775,7 @@
         <f t="shared" si="12"/>
         <v>4.0135951780690592E-4</v>
       </c>
-      <c r="M34" s="44"/>
+      <c r="M34" s="51"/>
       <c r="N34" s="13" t="s">
         <v>11</v>
       </c>
@@ -1838,7 +1868,7 @@
         <f>2*3.1415/(I39^2)*J39</f>
         <v>7.2169446953054009E-2</v>
       </c>
-      <c r="M39" s="43" t="s">
+      <c r="M39" s="50" t="s">
         <v>13</v>
       </c>
       <c r="N39" s="10" t="s">
@@ -1885,7 +1915,7 @@
         <f t="shared" ref="L40:L44" si="19">2*3.1415/(I40^2)*J40</f>
         <v>3.3903918496078793E-3</v>
       </c>
-      <c r="M40" s="43"/>
+      <c r="M40" s="50"/>
       <c r="N40" s="10" t="s">
         <v>11</v>
       </c>
@@ -1930,7 +1960,7 @@
         <f t="shared" si="19"/>
         <v>8.1498029861565083E-2</v>
       </c>
-      <c r="M41" s="43" t="s">
+      <c r="M41" s="50" t="s">
         <v>14</v>
       </c>
       <c r="N41" s="10" t="s">
@@ -1977,7 +2007,7 @@
         <f t="shared" si="19"/>
         <v>1.3242224692580457E-3</v>
       </c>
-      <c r="M42" s="43"/>
+      <c r="M42" s="50"/>
       <c r="N42" s="10" t="s">
         <v>11</v>
       </c>
@@ -2022,7 +2052,7 @@
         <f t="shared" si="19"/>
         <v>6.7105638426564918E-2</v>
       </c>
-      <c r="M43" s="43" t="s">
+      <c r="M43" s="50" t="s">
         <v>15</v>
       </c>
       <c r="N43" s="10" t="s">
@@ -2069,7 +2099,7 @@
         <f t="shared" si="19"/>
         <v>4.0153577493506974E-4</v>
       </c>
-      <c r="M44" s="44"/>
+      <c r="M44" s="51"/>
       <c r="N44" s="13" t="s">
         <v>11</v>
       </c>
@@ -2116,7 +2146,7 @@
         <f>0.5*(K6+K7)</f>
         <v>4.2577961343879984</v>
       </c>
-      <c r="C49" s="41">
+      <c r="C49" s="45">
         <f>0.5*(0.14^2*2)^(1/2)</f>
         <v>9.8994949366116664E-2</v>
       </c>
@@ -2124,7 +2154,7 @@
         <f>0.5*(K7-K6)</f>
         <v>0.3665905191939447</v>
       </c>
-      <c r="E49" s="41">
+      <c r="E49" s="45">
         <f>0.5*(0.14^2*2)^(1/2)</f>
         <v>9.8994949366116664E-2</v>
       </c>
@@ -2159,12 +2189,12 @@
         <f>0.5*(K8+K9)</f>
         <v>4.1031298973041004</v>
       </c>
-      <c r="C50" s="41"/>
+      <c r="C50" s="45"/>
       <c r="D50" s="9">
         <f>0.5*(K9-K8)</f>
         <v>0.20226069200608698</v>
       </c>
-      <c r="E50" s="41"/>
+      <c r="E50" s="45"/>
       <c r="F50" s="8">
         <f>(K31-B50)/($C$49^2+L31^2)^(1/2)</f>
         <v>1.1250690950260425</v>
@@ -2196,12 +2226,12 @@
         <f>0.5*(K10+K11)</f>
         <v>3.9825223744093377</v>
       </c>
-      <c r="C51" s="41"/>
+      <c r="C51" s="45"/>
       <c r="D51" s="9">
         <f>0.5*(K11-K10)</f>
         <v>8.3267099274872969E-2</v>
       </c>
-      <c r="E51" s="41"/>
+      <c r="E51" s="45"/>
       <c r="F51" s="9">
         <f>(K33-B51)/($C$49^2+L33^2)^(1/2)</f>
         <v>0.90999639197923299</v>
@@ -2233,12 +2263,12 @@
         <f>0.5*(K17+K18)</f>
         <v>4.2564853947985597</v>
       </c>
-      <c r="C52" s="41"/>
+      <c r="C52" s="45"/>
       <c r="D52" s="9">
         <f>0.5*(K18-K17)</f>
         <v>0.35884271489781527</v>
       </c>
-      <c r="E52" s="41"/>
+      <c r="E52" s="45"/>
       <c r="F52" s="8">
         <f>(B52-K39)/(C49^2+L39^2)^(1/2)</f>
         <v>0.98958050042072654</v>
@@ -2270,12 +2300,12 @@
         <f>0.5*(K19+K20)</f>
         <v>4.1052772258563444</v>
       </c>
-      <c r="C53" s="41"/>
+      <c r="C53" s="45"/>
       <c r="D53" s="9">
         <f>0.5*(K20-K19)</f>
         <v>0.20602195072188034</v>
       </c>
-      <c r="E53" s="41"/>
+      <c r="E53" s="45"/>
       <c r="F53" s="8">
         <f>(K41-B53)/(C49^2+L41^2)^(1/2)</f>
         <v>1.1665024889085782</v>
@@ -2307,12 +2337,12 @@
         <f>0.5*(K21+K22)</f>
         <v>3.9800338202255006</v>
       </c>
-      <c r="C54" s="42"/>
+      <c r="C54" s="46"/>
       <c r="D54" s="12">
         <f>0.5*(K22-K21)</f>
         <v>8.4002402284202304E-2</v>
       </c>
-      <c r="E54" s="42"/>
+      <c r="E54" s="46"/>
       <c r="F54" s="11">
         <f>(B54-K43)/(C49^2+L43^2)^(1/2)</f>
         <v>0.99598912625181757</v>
@@ -2351,14 +2381,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="J16:J22"/>
-    <mergeCell ref="L16:L22"/>
-    <mergeCell ref="C5:C11"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="E5:E11"/>
-    <mergeCell ref="E16:E22"/>
-    <mergeCell ref="G5:G11"/>
-    <mergeCell ref="G16:G22"/>
     <mergeCell ref="C49:C54"/>
     <mergeCell ref="E49:E54"/>
     <mergeCell ref="M21:M22"/>
@@ -2375,6 +2397,14 @@
     <mergeCell ref="M33:M34"/>
     <mergeCell ref="J5:J11"/>
     <mergeCell ref="L5:L11"/>
+    <mergeCell ref="J16:J22"/>
+    <mergeCell ref="L16:L22"/>
+    <mergeCell ref="C5:C11"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="E5:E11"/>
+    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="G5:G11"/>
+    <mergeCell ref="G16:G22"/>
   </mergeCells>
   <pageMargins left="0" right="0.39370078740157483" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
@@ -2383,16 +2413,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E5"/>
+  <dimension ref="B1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="28" t="s">
         <v>54</v>
       </c>
@@ -2402,11 +2432,14 @@
       <c r="D2" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="43" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="32">
         <f>(Tabelle1!I6^2-Tabelle1!I7^2)/(Tabelle1!I7^2+Tabelle1!I6^2)</f>
         <v>0.17093020749081209</v>
@@ -2415,16 +2448,16 @@
         <f>(((4*Tabelle1!I6*Tabelle1!I7^2)/(Tabelle1!I6^2+Tabelle1!I7^2)^2*Tabelle1!J5)^2+((4*Tabelle1!I6^2*Tabelle1!I7)/(Tabelle1!I6^2+Tabelle1!I7^2)^2*Tabelle1!J5)^2)^(1/2)</f>
         <v>5.568169003714471E-2</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="9">
         <f>-(Tabelle1!K17^2-Tabelle1!K18^2)/(Tabelle1!K17^2+Tabelle1!K18^2)</f>
         <v>0.1674199579732934</v>
       </c>
-      <c r="E3" s="51">
+      <c r="E3" s="41">
         <f>(((4*Tabelle1!I17*Tabelle1!I18^2)/(Tabelle1!I17^2+Tabelle1!I18^2)^2*Tabelle1!$J$16)^2+((4*Tabelle1!I17^2*Tabelle1!I18)/(Tabelle1!I17^2+Tabelle1!I18^2)^2*Tabelle1!$J$16)^2)^(1/2)</f>
         <v>5.572419540872918E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="32">
         <f>(Tabelle1!I8^2-Tabelle1!I9^2)/(Tabelle1!I8^2+Tabelle1!I9^2)</f>
         <v>9.8349509073339253E-2</v>
@@ -2433,16 +2466,16 @@
         <f>(((4*Tabelle1!I9*Tabelle1!I8^2)/(Tabelle1!I9^2+Tabelle1!I8^2)^2*Tabelle1!J5)^2+((4*Tabelle1!I9^2*Tabelle1!I8)/(Tabelle1!I8^2+Tabelle1!I9^2)^2*Tabelle1!J5)^2)^(1/2)</f>
         <v>5.4603783164213278E-2</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="9">
         <f>-(Tabelle1!K19^2-Tabelle1!K20^2)/(Tabelle1!K19^2+Tabelle1!K20^2)</f>
         <v>0.10011717920603433</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="41">
         <f>(((4*Tabelle1!I20*Tabelle1!I19^2)/(Tabelle1!I20^2+Tabelle1!I19^2)^2*Tabelle1!$J$16)^2+((4*Tabelle1!I20^2*Tabelle1!I19)/(Tabelle1!I20^2+Tabelle1!I19^2)^2*Tabelle1!$J$16)^2)^(1/2)</f>
         <v>5.4615418770292766E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="33">
         <f>(Tabelle1!I10^2-Tabelle1!I11^2)/(Tabelle1!I10^2+Tabelle1!I11^2)</f>
         <v>4.1797989890872217E-2</v>
@@ -2451,13 +2484,82 @@
         <f>(((4*Tabelle1!I10*Tabelle1!I11^2)/(Tabelle1!I10^2+Tabelle1!I11^2)^2*Tabelle1!J5)^2+((4*Tabelle1!I10^2*Tabelle1!I11)/(Tabelle1!I11^2+Tabelle1!I10^2)^2*Tabelle1!J5)^2)^(1/2)</f>
         <v>5.3369777823496702E-2</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="12">
         <f>-(Tabelle1!K21^2-Tabelle1!K22^2)/(Tabelle1!K21^2+Tabelle1!K22^2)</f>
         <v>4.2193108363977799E-2</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="42">
         <f>(((4*Tabelle1!I21*Tabelle1!I22^2)/(Tabelle1!I21^2+Tabelle1!I22^2)^2*Tabelle1!$J$16)^2+((4*Tabelle1!I21^2*Tabelle1!I22)/(Tabelle1!I21^2+Tabelle1!I22^2)^2*Tabelle1!$J$16)^2)^(1/2)</f>
         <v>5.3334877109922248E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="32">
+        <f>(Tabelle1!K7^2-Tabelle1!K6^2)/(2*Tabelle1!K6^2)</f>
+        <v>0.20617107152522135</v>
+      </c>
+      <c r="C8" s="55">
+        <f>((Tabelle1!K7/Tabelle1!K6^2*Tabelle1!L5)^2+(Tabelle1!L5/Tabelle1!K6)^2)^(1/2)</f>
+        <v>5.7452357245344074E-2</v>
+      </c>
+      <c r="D8" s="57">
+        <f>(Tabelle1!K18^2-Tabelle1!K17^2)/(2*Tabelle1!K17^2)</f>
+        <v>0.20108572091849766</v>
+      </c>
+      <c r="E8" s="41">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="32">
+        <f>(Tabelle1!K9^2-Tabelle1!K8^2)/(2*Tabelle1!K8^2)</f>
+        <v>0.10907719794203374</v>
+      </c>
+      <c r="C9" s="55">
+        <f>((Tabelle1!K9/Tabelle1!K8^2*Tabelle1!L5)^2+(Tabelle1!L5/Tabelle1!K8)^2)^(1/2)</f>
+        <v>5.4954982964065036E-2</v>
+      </c>
+      <c r="D9" s="9">
+        <f>(Tabelle1!K20^2-Tabelle1!K19^2)/(2*Tabelle1!K19^2)</f>
+        <v>0.11125579563537068</v>
+      </c>
+      <c r="E9" s="41">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="33">
+        <f>(Tabelle1!K11^2-Tabelle1!K10^2)/(2*Tabelle1!K10^2)</f>
+        <v>4.3621271349777072E-2</v>
+      </c>
+      <c r="C10" s="56">
+        <f>((Tabelle1!K11/Tabelle1!K10^2*Tabelle1!L5)^2+(Tabelle1!L5/Tabelle1!K10)^2)^(1/2)</f>
+        <v>5.333071066707535E-2</v>
+      </c>
+      <c r="D10" s="12">
+        <f>(Tabelle1!K22^2-Tabelle1!K21^2)/(2*Tabelle1!K21^2)</f>
+        <v>4.4051790326866506E-2</v>
+      </c>
+      <c r="E10" s="42">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>

--- a/Praktikum/211 - Gekoppelte Pendel/Gekopplete_Pendel.xlsx
+++ b/Praktikum/211 - Gekoppelte Pendel/Gekopplete_Pendel.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="83">
   <si>
     <t>Startzeit [s]</t>
   </si>
@@ -66,8 +66,167 @@
     <t>Schwing</t>
   </si>
   <si>
+    <t>Δ Startzeit [s]</t>
+  </si>
+  <si>
+    <t>Δ Endzeit [s]</t>
+  </si>
+  <si>
+    <t>Δ Schwingzeit [s]</t>
+  </si>
+  <si>
+    <t>Δ ω [Hz]</t>
+  </si>
+  <si>
+    <t>Δ Periodendauer [s]</t>
+  </si>
+  <si>
+    <t>ω_I</t>
+  </si>
+  <si>
+    <t>ω_II</t>
+  </si>
+  <si>
+    <t>Δ ω_I</t>
+  </si>
+  <si>
+    <t>Δ ω_II</t>
+  </si>
+  <si>
+    <t>Kopplung/Pendel</t>
+  </si>
+  <si>
+    <t>1/links</t>
+  </si>
+  <si>
+    <t>2/links</t>
+  </si>
+  <si>
+    <t>3/links</t>
+  </si>
+  <si>
+    <t>1/rechts</t>
+  </si>
+  <si>
+    <t>2/rechts</t>
+  </si>
+  <si>
+    <t>3/rechts</t>
+  </si>
+  <si>
+    <t>σ ω_I</t>
+  </si>
+  <si>
+    <t>σ ω_II</t>
+  </si>
+  <si>
+    <t>σ ω_l/r</t>
+  </si>
+  <si>
+    <t>Schw.typ/Kopp.</t>
+  </si>
+  <si>
+    <t>sym/1</t>
+  </si>
+  <si>
+    <t>sym/2</t>
+  </si>
+  <si>
+    <t>sym/3</t>
+  </si>
+  <si>
+    <t>asym/1</t>
+  </si>
+  <si>
+    <t>asym/2</t>
+  </si>
+  <si>
+    <t>asym/3</t>
+  </si>
+  <si>
+    <t>Schwi/1</t>
+  </si>
+  <si>
+    <t>Schwe/1</t>
+  </si>
+  <si>
+    <t>Schwi/2</t>
+  </si>
+  <si>
+    <t>Schwe/2</t>
+  </si>
+  <si>
+    <t>Schwi/3</t>
+  </si>
+  <si>
+    <t>Schwe/3</t>
+  </si>
+  <si>
+    <t>Pendel links</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pendel links </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pendel rechts </t>
+  </si>
+  <si>
+    <t>Pendel rechts</t>
+  </si>
+  <si>
+    <t>ω_sym ≙ ω_1</t>
+  </si>
+  <si>
+    <t>ω_asym ≙ ω_2</t>
+  </si>
+  <si>
+    <t>κ l</t>
+  </si>
+  <si>
+    <t>κ r</t>
+  </si>
+  <si>
+    <t>Δ κ l</t>
+  </si>
+  <si>
+    <t>Δ κ r</t>
+  </si>
+  <si>
+    <t>genau</t>
+  </si>
+  <si>
+    <t>Näherung</t>
+  </si>
+  <si>
+    <t>Rechts</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>κ1/κ2</t>
+  </si>
+  <si>
+    <t>κ1/κ3</t>
+  </si>
+  <si>
+    <t>κ2/κ3</t>
+  </si>
+  <si>
+    <t>Δ κ1/κ2</t>
+  </si>
+  <si>
+    <t>Δ κ1/κ3</t>
+  </si>
+  <si>
+    <t>Δ κ2/κ3</t>
+  </si>
+  <si>
+    <t>Kopplung</t>
+  </si>
+  <si>
     <r>
-      <t>29,0</t>
+      <t>39,0</t>
     </r>
     <r>
       <rPr>
@@ -81,7 +240,7 @@
   </si>
   <si>
     <r>
-      <t>19,1</t>
+      <t>29,1</t>
     </r>
     <r>
       <rPr>
@@ -95,7 +254,7 @@
   </si>
   <si>
     <r>
-      <t>9,2</t>
+      <t>19,2</t>
     </r>
     <r>
       <rPr>
@@ -108,136 +267,57 @@
     </r>
   </si>
   <si>
-    <t>Δ Startzeit [s]</t>
-  </si>
-  <si>
-    <t>Δ Endzeit [s]</t>
-  </si>
-  <si>
-    <t>Δ Schwingzeit [s]</t>
-  </si>
-  <si>
-    <t>Δ ω [Hz]</t>
-  </si>
-  <si>
-    <t>Δ Periodendauer [s]</t>
-  </si>
-  <si>
-    <t>ω_I</t>
-  </si>
-  <si>
-    <t>ω_II</t>
-  </si>
-  <si>
-    <t>Δ ω_I</t>
-  </si>
-  <si>
-    <t>Δ ω_II</t>
-  </si>
-  <si>
-    <t>Kopplung/Pendel</t>
-  </si>
-  <si>
-    <t>1/links</t>
-  </si>
-  <si>
-    <t>2/links</t>
-  </si>
-  <si>
-    <t>3/links</t>
-  </si>
-  <si>
-    <t>1/rechts</t>
-  </si>
-  <si>
-    <t>2/rechts</t>
-  </si>
-  <si>
-    <t>3/rechts</t>
-  </si>
-  <si>
-    <t>σ ω_I</t>
-  </si>
-  <si>
-    <t>σ ω_II</t>
-  </si>
-  <si>
-    <t>σ ω_l/r</t>
-  </si>
-  <si>
-    <t>Schw.typ/Kopp.</t>
-  </si>
-  <si>
-    <t>sym/1</t>
-  </si>
-  <si>
-    <t>sym/2</t>
-  </si>
-  <si>
-    <t>sym/3</t>
-  </si>
-  <si>
-    <t>asym/1</t>
-  </si>
-  <si>
-    <t>asym/2</t>
-  </si>
-  <si>
-    <t>asym/3</t>
-  </si>
-  <si>
-    <t>Schwi/1</t>
-  </si>
-  <si>
-    <t>Schwe/1</t>
-  </si>
-  <si>
-    <t>Schwi/2</t>
-  </si>
-  <si>
-    <t>Schwe/2</t>
-  </si>
-  <si>
-    <t>Schwi/3</t>
-  </si>
-  <si>
-    <t>Schwe/3</t>
-  </si>
-  <si>
-    <t>Pendel links</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pendel links </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pendel rechts </t>
-  </si>
-  <si>
-    <t>Pendel rechts</t>
-  </si>
-  <si>
-    <t>ω_sym ≙ ω_1</t>
-  </si>
-  <si>
-    <t>ω_asym ≙ ω_2</t>
-  </si>
-  <si>
-    <t>κ l</t>
-  </si>
-  <si>
-    <t>κ r</t>
-  </si>
-  <si>
-    <t>Δ κ l</t>
-  </si>
-  <si>
-    <t>Δ κ r</t>
-  </si>
-  <si>
-    <t>genau</t>
-  </si>
-  <si>
-    <t>Näherung</t>
+    <r>
+      <t>19,2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±0,1 Kopplung 3</t>
+    </r>
+  </si>
+  <si>
+    <t>Kopplungslänge [cm]</t>
+  </si>
+  <si>
+    <t>Δ Kopplungslänge [cm]</t>
+  </si>
+  <si>
+    <t>Δ 1/2</t>
+  </si>
+  <si>
+    <t>Δ 1/3</t>
+  </si>
+  <si>
+    <t>Δ 2/3</t>
+  </si>
+  <si>
+    <t>1/3</t>
+  </si>
+  <si>
+    <t>1/2</t>
+  </si>
+  <si>
+    <t>2/3</t>
+  </si>
+  <si>
+    <t>Kopplungen</t>
+  </si>
+  <si>
+    <t>Verhältnisquadrat</t>
+  </si>
+  <si>
+    <t>σ 1/2</t>
+  </si>
+  <si>
+    <t>σ 1/3</t>
+  </si>
+  <si>
+    <t>σ 2/3</t>
   </si>
 </sst>
 </file>
@@ -264,7 +344,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,8 +357,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -458,11 +544,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -509,13 +691,26 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -527,22 +722,57 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -828,8 +1058,8 @@
   </sheetPr>
   <dimension ref="B2:P57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,13 +1075,13 @@
     <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.140625" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -860,19 +1090,19 @@
         <v>0</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>3</v>
@@ -881,13 +1111,13 @@
         <v>4</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K4" s="16" t="s">
         <v>5</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M4" s="16" t="s">
         <v>6</v>
@@ -900,22 +1130,22 @@
       <c r="B5" s="20">
         <v>1.33</v>
       </c>
-      <c r="C5" s="47">
-        <v>0.4</v>
+      <c r="C5" s="54">
+        <v>0.1</v>
       </c>
       <c r="D5" s="21">
         <v>25.53</v>
       </c>
-      <c r="E5" s="47">
-        <v>0.4</v>
+      <c r="E5" s="54">
+        <v>0.1</v>
       </c>
       <c r="F5" s="21">
         <f>D5-B5</f>
         <v>24.200000000000003</v>
       </c>
-      <c r="G5" s="47">
+      <c r="G5" s="54">
         <f>($E$5*2)^(1/2)</f>
-        <v>0.89442719099991586</v>
+        <v>0.44721359549995793</v>
       </c>
       <c r="H5" s="4">
         <v>15</v>
@@ -924,17 +1154,17 @@
         <f>F5/H5</f>
         <v>1.6133333333333335</v>
       </c>
-      <c r="J5" s="44">
+      <c r="J5" s="53">
         <f>G5/H5</f>
-        <v>5.962847939999439E-2</v>
+        <v>2.9814239699997195E-2</v>
       </c>
       <c r="K5" s="9">
         <f>2*3.1415/I5</f>
         <v>3.8944214876033056</v>
       </c>
-      <c r="L5" s="44">
+      <c r="L5" s="53">
         <f>2*3.1415/(I5^2)*J5</f>
-        <v>0.14393704428622886</v>
+        <v>7.196852214311443E-2</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>8</v>
@@ -947,16 +1177,16 @@
       <c r="B6" s="20">
         <v>5.97</v>
       </c>
-      <c r="C6" s="48"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="21">
         <v>30.19</v>
       </c>
-      <c r="E6" s="48"/>
+      <c r="E6" s="55"/>
       <c r="F6" s="21">
         <f t="shared" ref="F6:F11" si="0">D6-B6</f>
         <v>24.220000000000002</v>
       </c>
-      <c r="G6" s="48"/>
+      <c r="G6" s="55"/>
       <c r="H6" s="4">
         <v>15</v>
       </c>
@@ -964,14 +1194,14 @@
         <f t="shared" ref="I6:I8" si="1">F6/H6</f>
         <v>1.6146666666666669</v>
       </c>
-      <c r="J6" s="45"/>
+      <c r="J6" s="49"/>
       <c r="K6" s="9">
         <f t="shared" ref="K6:K11" si="2">2*3.1415/I6</f>
         <v>3.8912056151940542</v>
       </c>
-      <c r="L6" s="45"/>
-      <c r="M6" s="52" t="s">
-        <v>13</v>
+      <c r="L6" s="49"/>
+      <c r="M6" s="51" t="s">
+        <v>66</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>9</v>
@@ -981,16 +1211,16 @@
       <c r="B7" s="20">
         <v>1.44</v>
       </c>
-      <c r="C7" s="48"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="21">
         <v>21.82</v>
       </c>
-      <c r="E7" s="48"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="21">
         <f t="shared" si="0"/>
         <v>20.38</v>
       </c>
-      <c r="G7" s="48"/>
+      <c r="G7" s="55"/>
       <c r="H7" s="4">
         <v>15</v>
       </c>
@@ -998,13 +1228,13 @@
         <f t="shared" si="1"/>
         <v>1.3586666666666667</v>
       </c>
-      <c r="J7" s="45"/>
+      <c r="J7" s="49"/>
       <c r="K7" s="9">
         <f t="shared" si="2"/>
         <v>4.6243866535819436</v>
       </c>
-      <c r="L7" s="45"/>
-      <c r="M7" s="52"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="51"/>
       <c r="N7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1013,16 +1243,16 @@
       <c r="B8" s="20">
         <v>0.59</v>
       </c>
-      <c r="C8" s="48"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="21">
         <v>24.75</v>
       </c>
-      <c r="E8" s="48"/>
+      <c r="E8" s="55"/>
       <c r="F8" s="21">
         <f t="shared" si="0"/>
         <v>24.16</v>
       </c>
-      <c r="G8" s="48"/>
+      <c r="G8" s="55"/>
       <c r="H8" s="4">
         <v>15</v>
       </c>
@@ -1030,14 +1260,14 @@
         <f t="shared" si="1"/>
         <v>1.6106666666666667</v>
       </c>
-      <c r="J8" s="45"/>
+      <c r="J8" s="49"/>
       <c r="K8" s="9">
         <f t="shared" si="2"/>
         <v>3.9008692052980134</v>
       </c>
-      <c r="L8" s="45"/>
-      <c r="M8" s="52" t="s">
-        <v>14</v>
+      <c r="L8" s="49"/>
+      <c r="M8" s="51" t="s">
+        <v>67</v>
       </c>
       <c r="N8" s="5" t="s">
         <v>9</v>
@@ -1047,16 +1277,16 @@
       <c r="B9" s="20">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C9" s="48"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="21">
         <v>22.18</v>
       </c>
-      <c r="E9" s="48"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="21">
         <f t="shared" si="0"/>
         <v>21.89</v>
       </c>
-      <c r="G9" s="48"/>
+      <c r="G9" s="55"/>
       <c r="H9" s="4">
         <v>15</v>
       </c>
@@ -1064,13 +1294,13 @@
         <f>F9/H9</f>
         <v>1.4593333333333334</v>
       </c>
-      <c r="J9" s="45"/>
+      <c r="J9" s="49"/>
       <c r="K9" s="9">
         <f t="shared" si="2"/>
         <v>4.3053905893101874</v>
       </c>
-      <c r="L9" s="45"/>
-      <c r="M9" s="52"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="51"/>
       <c r="N9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1079,16 +1309,16 @@
       <c r="B10" s="20">
         <v>0.94</v>
       </c>
-      <c r="C10" s="48"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="21">
         <v>25.11</v>
       </c>
-      <c r="E10" s="48"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="21">
         <f t="shared" si="0"/>
         <v>24.169999999999998</v>
       </c>
-      <c r="G10" s="48"/>
+      <c r="G10" s="55"/>
       <c r="H10" s="4">
         <v>15</v>
       </c>
@@ -1096,14 +1326,14 @@
         <f t="shared" ref="I10:I11" si="3">F10/H10</f>
         <v>1.6113333333333333</v>
       </c>
-      <c r="J10" s="45"/>
+      <c r="J10" s="49"/>
       <c r="K10" s="9">
         <f t="shared" si="2"/>
         <v>3.8992552751344647</v>
       </c>
-      <c r="L10" s="45"/>
-      <c r="M10" s="52" t="s">
-        <v>15</v>
+      <c r="L10" s="49"/>
+      <c r="M10" s="51" t="s">
+        <v>68</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>9</v>
@@ -1113,16 +1343,16 @@
       <c r="B11" s="22">
         <v>0.94</v>
       </c>
-      <c r="C11" s="49"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="23">
         <v>24.12</v>
       </c>
-      <c r="E11" s="49"/>
+      <c r="E11" s="56"/>
       <c r="F11" s="23">
         <f t="shared" si="0"/>
         <v>23.18</v>
       </c>
-      <c r="G11" s="49"/>
+      <c r="G11" s="56"/>
       <c r="H11" s="6">
         <v>15</v>
       </c>
@@ -1130,13 +1360,13 @@
         <f t="shared" si="3"/>
         <v>1.5453333333333332</v>
       </c>
-      <c r="J11" s="46"/>
+      <c r="J11" s="50"/>
       <c r="K11" s="12">
         <f t="shared" si="2"/>
         <v>4.0657894736842106</v>
       </c>
-      <c r="L11" s="46"/>
-      <c r="M11" s="53"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="52"/>
       <c r="N11" s="7" t="s">
         <v>10</v>
       </c>
@@ -1149,7 +1379,7 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1167,19 +1397,19 @@
         <v>0</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>3</v>
@@ -1188,13 +1418,13 @@
         <v>4</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K15" s="16" t="s">
         <v>5</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M15" s="16" t="s">
         <v>6</v>
@@ -1207,22 +1437,22 @@
       <c r="B16" s="20">
         <v>1.53</v>
       </c>
-      <c r="C16" s="47">
-        <v>0.4</v>
+      <c r="C16" s="54">
+        <v>0.1</v>
       </c>
       <c r="D16" s="21">
         <v>25.86</v>
       </c>
-      <c r="E16" s="47">
-        <v>0.4</v>
+      <c r="E16" s="54">
+        <v>0.1</v>
       </c>
       <c r="F16" s="21">
         <f>D16-B16</f>
         <v>24.33</v>
       </c>
-      <c r="G16" s="47">
+      <c r="G16" s="54">
         <f>($E$5*2)^(1/2)</f>
-        <v>0.89442719099991586</v>
+        <v>0.44721359549995793</v>
       </c>
       <c r="H16" s="8">
         <v>15</v>
@@ -1231,17 +1461,17 @@
         <f>F16/H16</f>
         <v>1.6219999999999999</v>
       </c>
-      <c r="J16" s="44">
+      <c r="J16" s="53">
         <f>G16/H16</f>
-        <v>5.962847939999439E-2</v>
+        <v>2.9814239699997195E-2</v>
       </c>
       <c r="K16" s="9">
         <f>2*3.1415/I16</f>
         <v>3.8736128236744762</v>
       </c>
-      <c r="L16" s="44">
+      <c r="L16" s="53">
         <f>2*3.1415/(I16^2)*J16</f>
-        <v>0.14240298548707006</v>
+        <v>7.120149274353503E-2</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>8</v>
@@ -1254,16 +1484,16 @@
       <c r="B17" s="20">
         <v>5.98</v>
       </c>
-      <c r="C17" s="48"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="21">
         <v>30.16</v>
       </c>
-      <c r="E17" s="48"/>
+      <c r="E17" s="55"/>
       <c r="F17" s="21">
         <f t="shared" ref="F17:F22" si="4">D17-B17</f>
         <v>24.18</v>
       </c>
-      <c r="G17" s="48"/>
+      <c r="G17" s="55"/>
       <c r="H17" s="8">
         <v>15</v>
       </c>
@@ -1271,14 +1501,14 @@
         <f t="shared" ref="I17:I19" si="5">F17/H17</f>
         <v>1.6119999999999999</v>
       </c>
-      <c r="J17" s="45"/>
+      <c r="J17" s="49"/>
       <c r="K17" s="9">
         <f t="shared" ref="K17:K22" si="6">2*3.1415/I17</f>
         <v>3.8976426799007449</v>
       </c>
-      <c r="L17" s="45"/>
-      <c r="M17" s="50" t="s">
-        <v>13</v>
+      <c r="L17" s="49"/>
+      <c r="M17" s="51" t="s">
+        <v>66</v>
       </c>
       <c r="N17" s="10" t="s">
         <v>9</v>
@@ -1288,16 +1518,16 @@
       <c r="B18" s="20">
         <v>0.72</v>
       </c>
-      <c r="C18" s="48"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="21">
         <v>21.14</v>
       </c>
-      <c r="E18" s="48"/>
+      <c r="E18" s="55"/>
       <c r="F18" s="21">
         <f t="shared" si="4"/>
         <v>20.420000000000002</v>
       </c>
-      <c r="G18" s="48"/>
+      <c r="G18" s="55"/>
       <c r="H18" s="8">
         <v>15</v>
       </c>
@@ -1305,13 +1535,13 @@
         <f t="shared" si="5"/>
         <v>1.3613333333333335</v>
       </c>
-      <c r="J18" s="45"/>
+      <c r="J18" s="49"/>
       <c r="K18" s="9">
         <f t="shared" si="6"/>
         <v>4.6153281096963754</v>
       </c>
-      <c r="L18" s="45"/>
-      <c r="M18" s="50"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="51"/>
       <c r="N18" s="10" t="s">
         <v>10</v>
       </c>
@@ -1320,16 +1550,16 @@
       <c r="B19" s="20">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C19" s="48"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="21">
         <v>24.73</v>
       </c>
-      <c r="E19" s="48"/>
+      <c r="E19" s="55"/>
       <c r="F19" s="21">
         <f t="shared" si="4"/>
         <v>24.17</v>
       </c>
-      <c r="G19" s="48"/>
+      <c r="G19" s="55"/>
       <c r="H19" s="8">
         <v>15</v>
       </c>
@@ -1337,14 +1567,14 @@
         <f t="shared" si="5"/>
         <v>1.6113333333333335</v>
       </c>
-      <c r="J19" s="45"/>
+      <c r="J19" s="49"/>
       <c r="K19" s="9">
         <f t="shared" si="6"/>
         <v>3.8992552751344642</v>
       </c>
-      <c r="L19" s="45"/>
-      <c r="M19" s="50" t="s">
-        <v>14</v>
+      <c r="L19" s="49"/>
+      <c r="M19" s="51" t="s">
+        <v>67</v>
       </c>
       <c r="N19" s="10" t="s">
         <v>9</v>
@@ -1354,16 +1584,16 @@
       <c r="B20" s="20">
         <v>1.01</v>
       </c>
-      <c r="C20" s="48"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="21">
         <v>22.87</v>
       </c>
-      <c r="E20" s="48"/>
+      <c r="E20" s="55"/>
       <c r="F20" s="21">
         <f t="shared" si="4"/>
         <v>21.86</v>
       </c>
-      <c r="G20" s="48"/>
+      <c r="G20" s="55"/>
       <c r="H20" s="8">
         <v>15</v>
       </c>
@@ -1371,13 +1601,13 @@
         <f>F20/H20</f>
         <v>1.4573333333333334</v>
       </c>
-      <c r="J20" s="45"/>
+      <c r="J20" s="49"/>
       <c r="K20" s="9">
         <f t="shared" si="6"/>
         <v>4.3112991765782249</v>
       </c>
-      <c r="L20" s="45"/>
-      <c r="M20" s="50"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="51"/>
       <c r="N20" s="10" t="s">
         <v>10</v>
       </c>
@@ -1386,16 +1616,16 @@
       <c r="B21" s="20">
         <v>0.98</v>
       </c>
-      <c r="C21" s="48"/>
+      <c r="C21" s="55"/>
       <c r="D21" s="21">
         <v>25.17</v>
       </c>
-      <c r="E21" s="48"/>
+      <c r="E21" s="55"/>
       <c r="F21" s="21">
         <f t="shared" si="4"/>
         <v>24.19</v>
       </c>
-      <c r="G21" s="48"/>
+      <c r="G21" s="55"/>
       <c r="H21" s="8">
         <v>15</v>
       </c>
@@ -1403,14 +1633,14 @@
         <f t="shared" ref="I21:I22" si="7">F21/H21</f>
         <v>1.6126666666666667</v>
       </c>
-      <c r="J21" s="45"/>
+      <c r="J21" s="49"/>
       <c r="K21" s="9">
         <f t="shared" si="6"/>
         <v>3.8960314179412983</v>
       </c>
-      <c r="L21" s="45"/>
-      <c r="M21" s="50" t="s">
-        <v>15</v>
+      <c r="L21" s="49"/>
+      <c r="M21" s="51" t="s">
+        <v>69</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>9</v>
@@ -1420,16 +1650,16 @@
       <c r="B22" s="22">
         <v>0.16</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="23">
         <v>23.35</v>
       </c>
-      <c r="E22" s="49"/>
+      <c r="E22" s="56"/>
       <c r="F22" s="23">
         <f t="shared" si="4"/>
         <v>23.19</v>
       </c>
-      <c r="G22" s="49"/>
+      <c r="G22" s="56"/>
       <c r="H22" s="11">
         <v>15</v>
       </c>
@@ -1437,13 +1667,13 @@
         <f t="shared" si="7"/>
         <v>1.546</v>
       </c>
-      <c r="J22" s="46"/>
+      <c r="J22" s="50"/>
       <c r="K22" s="12">
         <f t="shared" si="6"/>
         <v>4.0640362225097029</v>
       </c>
-      <c r="L22" s="46"/>
-      <c r="M22" s="51"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="52"/>
       <c r="N22" s="13" t="s">
         <v>10</v>
       </c>
@@ -1455,7 +1685,7 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O26" s="1"/>
     </row>
@@ -1467,19 +1697,19 @@
         <v>0</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F28" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H28" s="15" t="s">
         <v>3</v>
@@ -1488,13 +1718,13 @@
         <v>4</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K28" s="16" t="s">
         <v>5</v>
       </c>
       <c r="L28" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M28" s="16" t="s">
         <v>6</v>
@@ -1544,8 +1774,8 @@
         <f>2*3.1415/(I29^2)*J29</f>
         <v>7.2288342232660327E-2</v>
       </c>
-      <c r="M29" s="50" t="s">
-        <v>13</v>
+      <c r="M29" s="51" t="s">
+        <v>66</v>
       </c>
       <c r="N29" s="10" t="s">
         <v>12</v>
@@ -1591,7 +1821,7 @@
         <f t="shared" ref="L30:L34" si="12">2*3.1415/(I30^2)*J30</f>
         <v>3.5153330035183339E-3</v>
       </c>
-      <c r="M30" s="50"/>
+      <c r="M30" s="51"/>
       <c r="N30" s="10" t="s">
         <v>11</v>
       </c>
@@ -1636,8 +1866,8 @@
         <f t="shared" si="12"/>
         <v>8.1204475737634202E-2</v>
       </c>
-      <c r="M31" s="50" t="s">
-        <v>14</v>
+      <c r="M31" s="51" t="s">
+        <v>67</v>
       </c>
       <c r="N31" s="10" t="s">
         <v>12</v>
@@ -1683,7 +1913,7 @@
         <f t="shared" si="12"/>
         <v>1.3544091585553845E-3</v>
       </c>
-      <c r="M32" s="50"/>
+      <c r="M32" s="51"/>
       <c r="N32" s="10" t="s">
         <v>11</v>
       </c>
@@ -1728,8 +1958,8 @@
         <f t="shared" si="12"/>
         <v>7.5519887439593092E-2</v>
       </c>
-      <c r="M33" s="50" t="s">
-        <v>15</v>
+      <c r="M33" s="51" t="s">
+        <v>69</v>
       </c>
       <c r="N33" s="10" t="s">
         <v>12</v>
@@ -1775,14 +2005,14 @@
         <f t="shared" si="12"/>
         <v>4.0135951780690592E-4</v>
       </c>
-      <c r="M34" s="51"/>
+      <c r="M34" s="52"/>
       <c r="N34" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1791,19 +2021,19 @@
         <v>0</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F38" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H38" s="15" t="s">
         <v>3</v>
@@ -1812,13 +2042,13 @@
         <v>4</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K38" s="16" t="s">
         <v>5</v>
       </c>
       <c r="L38" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M38" s="16" t="s">
         <v>6</v>
@@ -1833,13 +2063,13 @@
         <v>6.56</v>
       </c>
       <c r="C39" s="24">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D39" s="21">
         <v>30.87</v>
       </c>
       <c r="E39" s="24">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F39" s="21">
         <f t="shared" ref="F39:F44" si="14">D39-B39</f>
@@ -1847,7 +2077,7 @@
       </c>
       <c r="G39" s="21">
         <f>(E39^2*2)^(1/2)</f>
-        <v>0.42426406871192851</v>
+        <v>0.14142135623730953</v>
       </c>
       <c r="H39" s="8">
         <v>16</v>
@@ -1858,7 +2088,7 @@
       </c>
       <c r="J39" s="9">
         <f>G39/H39</f>
-        <v>2.6516504294495532E-2</v>
+        <v>8.8388347648318457E-3</v>
       </c>
       <c r="K39" s="9">
         <f>2*3.1415/I39</f>
@@ -1866,10 +2096,10 @@
       </c>
       <c r="L39" s="9">
         <f>2*3.1415/(I39^2)*J39</f>
-        <v>7.2169446953054009E-2</v>
-      </c>
-      <c r="M39" s="50" t="s">
-        <v>13</v>
+        <v>2.4056482317684674E-2</v>
+      </c>
+      <c r="M39" s="51" t="s">
+        <v>66</v>
       </c>
       <c r="N39" s="10" t="s">
         <v>12</v>
@@ -1880,13 +2110,13 @@
         <v>6.56</v>
       </c>
       <c r="C40" s="24">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="D40" s="21">
         <v>95.23</v>
       </c>
       <c r="E40" s="24">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="F40" s="21">
         <f t="shared" si="14"/>
@@ -1894,7 +2124,7 @@
       </c>
       <c r="G40" s="21">
         <f t="shared" ref="G40:G44" si="16">(E40^2*2)^(1/2)</f>
-        <v>0.84852813742385702</v>
+        <v>0.42426406871192851</v>
       </c>
       <c r="H40" s="8">
         <v>5</v>
@@ -1905,7 +2135,7 @@
       </c>
       <c r="J40" s="9">
         <f t="shared" ref="J40:J44" si="17">G40/H40</f>
-        <v>0.16970562748477142</v>
+        <v>8.4852813742385708E-2</v>
       </c>
       <c r="K40" s="27">
         <f t="shared" ref="K40:K44" si="18">2*3.1415/I40</f>
@@ -1913,9 +2143,9 @@
       </c>
       <c r="L40" s="27">
         <f t="shared" ref="L40:L44" si="19">2*3.1415/(I40^2)*J40</f>
-        <v>3.3903918496078793E-3</v>
-      </c>
-      <c r="M40" s="50"/>
+        <v>1.6951959248039396E-3</v>
+      </c>
+      <c r="M40" s="51"/>
       <c r="N40" s="10" t="s">
         <v>11</v>
       </c>
@@ -1925,13 +2155,13 @@
         <v>12.51</v>
       </c>
       <c r="C41" s="24">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D41" s="21">
         <v>34.659999999999997</v>
       </c>
       <c r="E41" s="24">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F41" s="21">
         <f t="shared" si="14"/>
@@ -1939,7 +2169,7 @@
       </c>
       <c r="G41" s="21">
         <f t="shared" si="16"/>
-        <v>0.42426406871192851</v>
+        <v>0.14142135623730953</v>
       </c>
       <c r="H41" s="8">
         <v>15</v>
@@ -1950,7 +2180,7 @@
       </c>
       <c r="J41" s="9">
         <f t="shared" si="17"/>
-        <v>2.8284271247461901E-2</v>
+        <v>9.428090415820635E-3</v>
       </c>
       <c r="K41" s="9">
         <f t="shared" si="18"/>
@@ -1958,10 +2188,10 @@
       </c>
       <c r="L41" s="9">
         <f t="shared" si="19"/>
-        <v>8.1498029861565083E-2</v>
-      </c>
-      <c r="M41" s="50" t="s">
-        <v>14</v>
+        <v>2.7166009953855028E-2</v>
+      </c>
+      <c r="M41" s="51" t="s">
+        <v>67</v>
       </c>
       <c r="N41" s="10" t="s">
         <v>12</v>
@@ -1972,13 +2202,13 @@
         <v>12.51</v>
       </c>
       <c r="C42" s="24">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="D42" s="21">
         <v>154.38999999999999</v>
       </c>
       <c r="E42" s="24">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="F42" s="21">
         <f t="shared" si="14"/>
@@ -1986,7 +2216,7 @@
       </c>
       <c r="G42" s="21">
         <f t="shared" si="16"/>
-        <v>0.84852813742385702</v>
+        <v>0.42426406871192851</v>
       </c>
       <c r="H42" s="8">
         <v>5</v>
@@ -1997,7 +2227,7 @@
       </c>
       <c r="J42" s="9">
         <f t="shared" si="17"/>
-        <v>0.16970562748477142</v>
+        <v>8.4852813742385708E-2</v>
       </c>
       <c r="K42" s="25">
         <f t="shared" si="18"/>
@@ -2005,9 +2235,9 @@
       </c>
       <c r="L42" s="25">
         <f t="shared" si="19"/>
-        <v>1.3242224692580457E-3</v>
-      </c>
-      <c r="M42" s="50"/>
+        <v>6.6211123462902287E-4</v>
+      </c>
+      <c r="M42" s="51"/>
       <c r="N42" s="10" t="s">
         <v>11</v>
       </c>
@@ -2017,13 +2247,13 @@
         <v>50.21</v>
       </c>
       <c r="C43" s="24">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D43" s="21">
         <v>74.62</v>
       </c>
       <c r="E43" s="24">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F43" s="21">
         <f t="shared" si="14"/>
@@ -2031,7 +2261,7 @@
       </c>
       <c r="G43" s="21">
         <f t="shared" si="16"/>
-        <v>0.42426406871192851</v>
+        <v>0.14142135623730953</v>
       </c>
       <c r="H43" s="8">
         <v>15</v>
@@ -2042,7 +2272,7 @@
       </c>
       <c r="J43" s="9">
         <f t="shared" si="17"/>
-        <v>2.8284271247461901E-2</v>
+        <v>9.428090415820635E-3</v>
       </c>
       <c r="K43" s="9">
         <f t="shared" si="18"/>
@@ -2050,10 +2280,10 @@
       </c>
       <c r="L43" s="9">
         <f t="shared" si="19"/>
-        <v>6.7105638426564918E-2</v>
-      </c>
-      <c r="M43" s="50" t="s">
-        <v>15</v>
+        <v>2.2368546142188309E-2</v>
+      </c>
+      <c r="M43" s="51" t="s">
+        <v>69</v>
       </c>
       <c r="N43" s="10" t="s">
         <v>12</v>
@@ -2064,13 +2294,13 @@
         <v>13.11</v>
       </c>
       <c r="C44" s="23">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="D44" s="23">
         <v>195.3</v>
       </c>
       <c r="E44" s="23">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="F44" s="23">
         <f t="shared" si="14"/>
@@ -2078,7 +2308,7 @@
       </c>
       <c r="G44" s="23">
         <f t="shared" si="16"/>
-        <v>0.84852813742385702</v>
+        <v>0.42426406871192851</v>
       </c>
       <c r="H44" s="11">
         <v>2.5</v>
@@ -2089,7 +2319,7 @@
       </c>
       <c r="J44" s="12">
         <f t="shared" si="17"/>
-        <v>0.33941125496954283</v>
+        <v>0.16970562748477142</v>
       </c>
       <c r="K44" s="26">
         <f t="shared" si="18"/>
@@ -2097,9 +2327,9 @@
       </c>
       <c r="L44" s="26">
         <f t="shared" si="19"/>
-        <v>4.0153577493506974E-4</v>
-      </c>
-      <c r="M44" s="51"/>
+        <v>2.0076788746753487E-4</v>
+      </c>
+      <c r="M44" s="52"/>
       <c r="N44" s="13" t="s">
         <v>11</v>
       </c>
@@ -2107,38 +2337,38 @@
     <row r="47" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48" s="30" t="s">
+      <c r="F48" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="F48" s="34" t="s">
+      <c r="J48" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="K48" s="39" t="s">
         <v>32</v>
-      </c>
-      <c r="G48" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="H48" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="J48" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="K48" s="39" t="s">
-        <v>35</v>
       </c>
       <c r="L48" s="35"/>
       <c r="M48" s="40" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N48" s="39" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
@@ -2146,7 +2376,7 @@
         <f>0.5*(K6+K7)</f>
         <v>4.2577961343879984</v>
       </c>
-      <c r="C49" s="45">
+      <c r="C49" s="49">
         <f>0.5*(0.14^2*2)^(1/2)</f>
         <v>9.8994949366116664E-2</v>
       </c>
@@ -2154,34 +2384,34 @@
         <f>0.5*(K7-K6)</f>
         <v>0.3665905191939447</v>
       </c>
-      <c r="E49" s="45">
+      <c r="E49" s="49">
         <f>0.5*(0.14^2*2)^(1/2)</f>
         <v>9.8994949366116664E-2</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F49" s="9">
         <f>((B49-K29)/(L29^2+$C$49^2)^(1/2))</f>
         <v>0.97193057143698647</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="9">
         <f>(D49-K30)/(E49^2+L30^2)^(1/2)</f>
         <v>5.885781328622379E-2</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J49" s="36">
+        <v>23</v>
+      </c>
+      <c r="J49" s="32">
         <f>(K17-K6)/($L$5^2*2)^(1/2)</f>
-        <v>3.1622798200484303E-2</v>
+        <v>6.3245596400968607E-2</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M49" s="20">
         <f>(K29-K39)/(L29^2+L39^2)^(1/2)</f>
-        <v>3.3333310753236582E-2</v>
+        <v>4.4691912188513483E-2</v>
       </c>
       <c r="N49" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
@@ -2189,36 +2419,36 @@
         <f>0.5*(K8+K9)</f>
         <v>4.1031298973041004</v>
       </c>
-      <c r="C50" s="45"/>
+      <c r="C50" s="49"/>
       <c r="D50" s="9">
         <f>0.5*(K9-K8)</f>
         <v>0.20226069200608698</v>
       </c>
-      <c r="E50" s="45"/>
-      <c r="F50" s="8">
+      <c r="E50" s="49"/>
+      <c r="F50" s="9">
         <f>(K31-B50)/($C$49^2+L31^2)^(1/2)</f>
         <v>1.1250690950260425</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G50" s="9">
         <f>(K32-D50)/(E49^2+L32^2)^(1/2)</f>
         <v>0.21886252398763628</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J50" s="36">
+        <v>24</v>
+      </c>
+      <c r="J50" s="32">
         <f>-((K18-K7)/($L$5^2*2)^(1/2))</f>
-        <v>4.4501107000805673E-2</v>
+        <v>8.9002214001611346E-2</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M50" s="20">
         <f>(K30-K40)/(L30^2+L40^2)^(1/2)</f>
-        <v>1.3245663520478983</v>
+        <v>1.6575674507512761</v>
       </c>
       <c r="N50" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
@@ -2226,36 +2456,36 @@
         <f>0.5*(K10+K11)</f>
         <v>3.9825223744093377</v>
       </c>
-      <c r="C51" s="45"/>
+      <c r="C51" s="49"/>
       <c r="D51" s="9">
         <f>0.5*(K11-K10)</f>
         <v>8.3267099274872969E-2</v>
       </c>
-      <c r="E51" s="45"/>
+      <c r="E51" s="49"/>
       <c r="F51" s="9">
         <f>(K33-B51)/($C$49^2+L33^2)^(1/2)</f>
         <v>0.90999639197923299</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G51" s="9">
         <f>(K34-D51)/(E49^2+L34^2)^(1/2)</f>
         <v>2.9586283901921914E-2</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J51" s="36">
+        <v>25</v>
+      </c>
+      <c r="J51" s="32">
         <f t="shared" ref="J51:J54" si="21">-((K19-K8)/($L$5^2*2)^(1/2))</f>
-        <v>7.9286119057560122E-3</v>
+        <v>1.5857223811512024E-2</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M51" s="20">
         <f>-(K31-K41)/(L31^2+L41^2)^(1/2)</f>
-        <v>6.6666449648587145E-2</v>
+        <v>8.9571808082463872E-2</v>
       </c>
       <c r="N51" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
@@ -2263,36 +2493,36 @@
         <f>0.5*(K17+K18)</f>
         <v>4.2564853947985597</v>
       </c>
-      <c r="C52" s="45"/>
+      <c r="C52" s="49"/>
       <c r="D52" s="9">
         <f>0.5*(K18-K17)</f>
         <v>0.35884271489781527</v>
       </c>
-      <c r="E52" s="45"/>
-      <c r="F52" s="8">
+      <c r="E52" s="49"/>
+      <c r="F52" s="9">
         <f>(B52-K39)/(C49^2+L39^2)^(1/2)</f>
-        <v>0.98958050042072654</v>
-      </c>
-      <c r="G52" s="8">
+        <v>1.19000001855603</v>
+      </c>
+      <c r="G52" s="9">
         <f>(D52-K40)/(E49^2+L40^2)^(1/2)</f>
-        <v>4.5950383262993784E-2</v>
+        <v>4.5970584191746773E-2</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J52" s="36">
+        <v>26</v>
+      </c>
+      <c r="J52" s="32">
         <f>((K20-K9)/($L$5^2*2)^(1/2))</f>
-        <v>2.9026593849972387E-2</v>
+        <v>5.8053187699944775E-2</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M52" s="20">
         <f>(K32-K42)/(L32^2+L42^2)^(1/2)</f>
-        <v>1.3248317351945658</v>
+        <v>1.6645782141382892</v>
       </c>
       <c r="N52" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
@@ -2300,36 +2530,36 @@
         <f>0.5*(K19+K20)</f>
         <v>4.1052772258563444</v>
       </c>
-      <c r="C53" s="45"/>
+      <c r="C53" s="49"/>
       <c r="D53" s="9">
         <f>0.5*(K20-K19)</f>
         <v>0.20602195072188034</v>
       </c>
-      <c r="E53" s="45"/>
-      <c r="F53" s="8">
+      <c r="E53" s="49"/>
+      <c r="F53" s="9">
         <f>(K41-B53)/(C49^2+L41^2)^(1/2)</f>
-        <v>1.1665024889085782</v>
-      </c>
-      <c r="G53" s="8">
+        <v>1.4570790638505422</v>
+      </c>
+      <c r="G53" s="9">
         <f>(K42-D53)/(E49^2+L42^2)^(1/2)</f>
-        <v>0.15552491741628091</v>
+        <v>0.1555353524313417</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J53" s="36">
+        <v>27</v>
+      </c>
+      <c r="J53" s="32">
         <f t="shared" si="21"/>
-        <v>1.5837557969662359E-2</v>
+        <v>3.1675115939324719E-2</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M53" s="20">
         <f>(K33-K43)/(L33^2+L43^2)^(1/2)</f>
-        <v>2.3252263517370415</v>
+        <v>2.9824960609100675</v>
       </c>
       <c r="N53" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2337,50 +2567,58 @@
         <f>0.5*(K21+K22)</f>
         <v>3.9800338202255006</v>
       </c>
-      <c r="C54" s="46"/>
+      <c r="C54" s="50"/>
       <c r="D54" s="12">
         <f>0.5*(K22-K21)</f>
         <v>8.4002402284202304E-2</v>
       </c>
-      <c r="E54" s="46"/>
-      <c r="F54" s="11">
+      <c r="E54" s="50"/>
+      <c r="F54" s="12">
         <f>(B54-K43)/(C49^2+L43^2)^(1/2)</f>
-        <v>0.99598912625181757</v>
-      </c>
-      <c r="G54" s="11">
+        <v>1.1736663877259397</v>
+      </c>
+      <c r="G54" s="12">
         <f>(K44-D54)/(E49^2+L44^2)^(1/2)</f>
-        <v>2.2349826698040965E-2</v>
+        <v>2.2349964585483263E-2</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J54" s="37">
+        <v>28</v>
+      </c>
+      <c r="J54" s="33">
         <f t="shared" si="21"/>
-        <v>8.6130419084638823E-3</v>
+        <v>1.7226083816927765E-2</v>
       </c>
       <c r="K54" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M54" s="22">
         <f>-(K34-K44)/(L34^2+L44^2)^(1/2)</f>
-        <v>3.3333331726910567E-2</v>
+        <v>4.216925484107769E-2</v>
       </c>
       <c r="N54" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="J16:J22"/>
+    <mergeCell ref="L16:L22"/>
+    <mergeCell ref="C5:C11"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="E5:E11"/>
+    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="G5:G11"/>
+    <mergeCell ref="G16:G22"/>
     <mergeCell ref="C49:C54"/>
     <mergeCell ref="E49:E54"/>
     <mergeCell ref="M21:M22"/>
@@ -2397,14 +2635,6 @@
     <mergeCell ref="M33:M34"/>
     <mergeCell ref="J5:J11"/>
     <mergeCell ref="L5:L11"/>
-    <mergeCell ref="J16:J22"/>
-    <mergeCell ref="L16:L22"/>
-    <mergeCell ref="C5:C11"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="E5:E11"/>
-    <mergeCell ref="E16:E22"/>
-    <mergeCell ref="G5:G11"/>
-    <mergeCell ref="G16:G22"/>
   </mergeCells>
   <pageMargins left="0" right="0.39370078740157483" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
@@ -2413,156 +2643,547 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F10"/>
+  <dimension ref="B1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="13.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="32">
+      <c r="H2" s="45"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" s="31"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="60">
+        <v>1</v>
+      </c>
+      <c r="C3" s="32">
         <f>(Tabelle1!I6^2-Tabelle1!I7^2)/(Tabelle1!I7^2+Tabelle1!I6^2)</f>
         <v>0.17093020749081209</v>
       </c>
-      <c r="C3" s="9">
+      <c r="D3" s="9">
         <f>(((4*Tabelle1!I6*Tabelle1!I7^2)/(Tabelle1!I6^2+Tabelle1!I7^2)^2*Tabelle1!J5)^2+((4*Tabelle1!I6^2*Tabelle1!I7)/(Tabelle1!I6^2+Tabelle1!I7^2)^2*Tabelle1!J5)^2)^(1/2)</f>
-        <v>5.568169003714471E-2</v>
-      </c>
-      <c r="D3" s="9">
+        <v>2.7840845018572355E-2</v>
+      </c>
+      <c r="E3" s="9">
         <f>-(Tabelle1!K17^2-Tabelle1!K18^2)/(Tabelle1!K17^2+Tabelle1!K18^2)</f>
         <v>0.1674199579732934</v>
       </c>
-      <c r="E3" s="41">
+      <c r="F3" s="41">
         <f>(((4*Tabelle1!I17*Tabelle1!I18^2)/(Tabelle1!I17^2+Tabelle1!I18^2)^2*Tabelle1!$J$16)^2+((4*Tabelle1!I17^2*Tabelle1!I18)/(Tabelle1!I17^2+Tabelle1!I18^2)^2*Tabelle1!$J$16)^2)^(1/2)</f>
-        <v>5.572419540872918E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="32">
+        <v>2.786209770436459E-2</v>
+      </c>
+      <c r="I3" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="24">
+        <f>C3/C4</f>
+        <v>1.7379873992390689</v>
+      </c>
+      <c r="K3" s="24">
+        <f>((D3/C4)^2+(C3*D4/(C4)^2)^2)^(1/2)</f>
+        <v>0.5593823300176225</v>
+      </c>
+      <c r="L3" s="21">
+        <f>C3/C5</f>
+        <v>4.0894360694637033</v>
+      </c>
+      <c r="M3" s="24">
+        <f>((D3/C5)^2+(C3*D5/(C5)^2)^2)^(1/2)</f>
+        <v>2.6944266336475353</v>
+      </c>
+      <c r="N3" s="21">
+        <f>C4/C5</f>
+        <v>2.3529722201980023</v>
+      </c>
+      <c r="O3" s="72">
+        <f>((D4/C5)^2+(C4*D5/(C5)^2)^2)^(1/2)</f>
+        <v>1.6380622069228872</v>
+      </c>
+      <c r="P3" s="58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="60">
+        <v>2</v>
+      </c>
+      <c r="C4" s="32">
         <f>(Tabelle1!I8^2-Tabelle1!I9^2)/(Tabelle1!I8^2+Tabelle1!I9^2)</f>
         <v>9.8349509073339253E-2</v>
       </c>
-      <c r="C4" s="9">
+      <c r="D4" s="9">
         <f>(((4*Tabelle1!I9*Tabelle1!I8^2)/(Tabelle1!I9^2+Tabelle1!I8^2)^2*Tabelle1!J5)^2+((4*Tabelle1!I9^2*Tabelle1!I8)/(Tabelle1!I8^2+Tabelle1!I9^2)^2*Tabelle1!J5)^2)^(1/2)</f>
-        <v>5.4603783164213278E-2</v>
-      </c>
-      <c r="D4" s="9">
+        <v>2.7301891582106639E-2</v>
+      </c>
+      <c r="E4" s="9">
         <f>-(Tabelle1!K19^2-Tabelle1!K20^2)/(Tabelle1!K19^2+Tabelle1!K20^2)</f>
         <v>0.10011717920603433</v>
       </c>
-      <c r="E4" s="41">
+      <c r="F4" s="41">
         <f>(((4*Tabelle1!I20*Tabelle1!I19^2)/(Tabelle1!I20^2+Tabelle1!I19^2)^2*Tabelle1!$J$16)^2+((4*Tabelle1!I20^2*Tabelle1!I19)/(Tabelle1!I20^2+Tabelle1!I19^2)^2*Tabelle1!$J$16)^2)^(1/2)</f>
-        <v>5.4615418770292766E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="33">
+        <v>2.7307709385146383E-2</v>
+      </c>
+      <c r="I4" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="24">
+        <f>E3/E4</f>
+        <v>1.6722400621051712</v>
+      </c>
+      <c r="K4" s="24">
+        <f>((F3/E4)^2+(E3*F4/(E4)^2)^2)^(1/2)</f>
+        <v>0.53431248042009716</v>
+      </c>
+      <c r="L4" s="21">
+        <f>E3/E5</f>
+        <v>3.9679455831755579</v>
+      </c>
+      <c r="M4" s="24">
+        <f>((F3/E5)^2+(E3*F5/(E5)^2)^2)^(1/2)</f>
+        <v>2.5933537848659269</v>
+      </c>
+      <c r="N4" s="21">
+        <f>E4/E5</f>
+        <v>2.3728325095742169</v>
+      </c>
+      <c r="O4" s="72">
+        <f>((F4/E5)^2+(E4*F5/(E5)^2)^2)^(1/2)</f>
+        <v>1.6334024834178698</v>
+      </c>
+      <c r="P4" s="58"/>
+    </row>
+    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="61">
+        <v>3</v>
+      </c>
+      <c r="C5" s="33">
         <f>(Tabelle1!I10^2-Tabelle1!I11^2)/(Tabelle1!I10^2+Tabelle1!I11^2)</f>
         <v>4.1797989890872217E-2</v>
       </c>
-      <c r="C5" s="12">
+      <c r="D5" s="12">
         <f>(((4*Tabelle1!I10*Tabelle1!I11^2)/(Tabelle1!I10^2+Tabelle1!I11^2)^2*Tabelle1!J5)^2+((4*Tabelle1!I10^2*Tabelle1!I11)/(Tabelle1!I11^2+Tabelle1!I10^2)^2*Tabelle1!J5)^2)^(1/2)</f>
-        <v>5.3369777823496702E-2</v>
-      </c>
-      <c r="D5" s="12">
+        <v>2.6684888911748351E-2</v>
+      </c>
+      <c r="E5" s="12">
         <f>-(Tabelle1!K21^2-Tabelle1!K22^2)/(Tabelle1!K21^2+Tabelle1!K22^2)</f>
         <v>4.2193108363977799E-2</v>
       </c>
-      <c r="E5" s="42">
+      <c r="F5" s="42">
         <f>(((4*Tabelle1!I21*Tabelle1!I22^2)/(Tabelle1!I21^2+Tabelle1!I22^2)^2*Tabelle1!$J$16)^2+((4*Tabelle1!I21^2*Tabelle1!I22)/(Tabelle1!I21^2+Tabelle1!I22^2)^2*Tabelle1!$J$16)^2)^(1/2)</f>
-        <v>5.3334877109922248E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="28" t="s">
+        <v>2.6667438554961124E-2</v>
+      </c>
+      <c r="I5" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="24">
+        <f>C8/C9</f>
+        <v>1.8901390521122998</v>
+      </c>
+      <c r="K5" s="24">
+        <f>((D8/C9)^2+(C8*D9/(C8)^2)^2)^(1/2)</f>
+        <v>0.29515906800261626</v>
+      </c>
+      <c r="L5" s="69">
+        <f>C8/C10</f>
+        <v>4.7263884143137203</v>
+      </c>
+      <c r="M5" s="70">
+        <f>((D8/C10)^2+(C8*D10/(C10)^2)^2)^(1/2)</f>
+        <v>2.9633054792932461</v>
+      </c>
+      <c r="N5" s="21">
+        <f>C9/C10</f>
+        <v>2.5005506388706205</v>
+      </c>
+      <c r="O5" s="72">
+        <f>((D9/C10)^2+(C9*D10/(C10)^2)^2)^(1/2)</f>
+        <v>1.6532714960783514</v>
+      </c>
+      <c r="P5" s="58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="68">
+        <f>E8/E9</f>
+        <v>1.8074179396238848</v>
+      </c>
+      <c r="K6" s="12">
+        <f>((F8/E9)^2+((E8*F9/E8)^2)^2)^(1/2)</f>
+        <v>0.26965037577781475</v>
+      </c>
+      <c r="L6" s="71">
+        <f>E8/E10</f>
+        <v>4.5647570604152854</v>
+      </c>
+      <c r="M6" s="71">
+        <f>((F8/E10)^2+(E8*F10/(E10)^2)^2)^(1/2)</f>
+        <v>3.1823962068331344</v>
+      </c>
+      <c r="N6" s="23">
+        <f>E9/E10</f>
+        <v>2.5255680827009996</v>
+      </c>
+      <c r="O6" s="23">
+        <f>((F9/E10)^2+(E9*F10/(E10)^2)^2)^(1/2)</f>
+        <v>1.8498714920658181</v>
+      </c>
+      <c r="P6" s="59"/>
+    </row>
+    <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="54" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="32">
+      <c r="H7" s="45"/>
+    </row>
+    <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="60">
+        <v>1</v>
+      </c>
+      <c r="C8" s="32">
         <f>(Tabelle1!K7^2-Tabelle1!K6^2)/(2*Tabelle1!K6^2)</f>
         <v>0.20617107152522135</v>
       </c>
-      <c r="C8" s="55">
+      <c r="D8" s="46">
         <f>((Tabelle1!K7/Tabelle1!K6^2*Tabelle1!L5)^2+(Tabelle1!L5/Tabelle1!K6)^2)^(1/2)</f>
-        <v>5.7452357245344074E-2</v>
-      </c>
-      <c r="D8" s="57">
+        <v>2.8726178622672037E-2</v>
+      </c>
+      <c r="E8" s="48">
         <f>(Tabelle1!K18^2-Tabelle1!K17^2)/(2*Tabelle1!K17^2)</f>
         <v>0.20108572091849766</v>
       </c>
-      <c r="E8" s="41">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="32">
+      <c r="F8" s="41">
+        <v>0.03</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="60">
+        <v>2</v>
+      </c>
+      <c r="C9" s="32">
         <f>(Tabelle1!K9^2-Tabelle1!K8^2)/(2*Tabelle1!K8^2)</f>
         <v>0.10907719794203374</v>
       </c>
-      <c r="C9" s="55">
+      <c r="D9" s="46">
         <f>((Tabelle1!K9/Tabelle1!K8^2*Tabelle1!L5)^2+(Tabelle1!L5/Tabelle1!K8)^2)^(1/2)</f>
-        <v>5.4954982964065036E-2</v>
-      </c>
-      <c r="D9" s="9">
+        <v>2.7477491482032518E-2</v>
+      </c>
+      <c r="E9" s="9">
         <f>(Tabelle1!K20^2-Tabelle1!K19^2)/(2*Tabelle1!K19^2)</f>
         <v>0.11125579563537068</v>
       </c>
-      <c r="E9" s="41">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="33">
+      <c r="F9" s="41">
+        <v>0.03</v>
+      </c>
+      <c r="I9" s="36">
+        <v>1</v>
+      </c>
+      <c r="J9" s="44">
+        <v>39</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="61">
+        <v>3</v>
+      </c>
+      <c r="C10" s="33">
         <f>(Tabelle1!K11^2-Tabelle1!K10^2)/(2*Tabelle1!K10^2)</f>
         <v>4.3621271349777072E-2</v>
       </c>
-      <c r="C10" s="56">
+      <c r="D10" s="47">
         <f>((Tabelle1!K11/Tabelle1!K10^2*Tabelle1!L5)^2+(Tabelle1!L5/Tabelle1!K10)^2)^(1/2)</f>
-        <v>5.333071066707535E-2</v>
-      </c>
-      <c r="D10" s="12">
+        <v>2.6665355333537675E-2</v>
+      </c>
+      <c r="E10" s="12">
         <f>(Tabelle1!K22^2-Tabelle1!K21^2)/(2*Tabelle1!K21^2)</f>
         <v>4.4051790326866506E-2</v>
       </c>
-      <c r="E10" s="42">
-        <v>0.05</v>
-      </c>
+      <c r="F10" s="42">
+        <v>0.03</v>
+      </c>
+      <c r="I10" s="36">
+        <v>2</v>
+      </c>
+      <c r="J10" s="66">
+        <v>29.1</v>
+      </c>
+      <c r="K10" s="10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="37">
+        <v>3</v>
+      </c>
+      <c r="J11" s="67">
+        <v>19.2</v>
+      </c>
+      <c r="K11" s="13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+    </row>
+    <row r="13" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="I13" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="N13" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="O13" s="31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="I14" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" s="76">
+        <f>(J9/J10)^2</f>
+        <v>1.7961526198320754</v>
+      </c>
+      <c r="K14" s="77">
+        <f>((2*J9*K9/J10^2)^2+(2*J9^2*K10/J10^3)^2)^(1/2)</f>
+        <v>1.5402423517349509E-2</v>
+      </c>
+      <c r="L14" s="12">
+        <f>(J9/J11)^2</f>
+        <v>4.1259765625</v>
+      </c>
+      <c r="M14" s="68">
+        <f>((2*J9*K9/J11^2)^2+(2*J9^2*K11/J11^3)^2)^(1/2)</f>
+        <v>4.7904956853605025E-2</v>
+      </c>
+      <c r="N14" s="78">
+        <f>(J10/J11)^2</f>
+        <v>2.2971191406250009</v>
+      </c>
+      <c r="O14" s="79">
+        <f>((2*J10*K10/J11^2)^2+(2*J10^2*K11/J11^3)^2)^(1/2)</f>
+        <v>2.8667369720308367E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
+    </row>
+    <row r="16" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="84" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="30"/>
+      <c r="L16" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="M16" s="30"/>
+      <c r="N16" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" s="81"/>
+    </row>
+    <row r="17" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I17" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="36">
+        <f>($J$14-J3)/($K$14^2+$K3^2)^(1/2)</f>
+        <v>0.10394175994244702</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8">
+        <f>($L$14-L3)/($M$14^2+$M3^2)^(1/2)</f>
+        <v>1.3559366833354623E-2</v>
+      </c>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8">
+        <f>-($N$14-N3)/($O$14^2+$O3^2)^(1/2)</f>
+        <v>3.4091823884333627E-2</v>
+      </c>
+      <c r="O17" s="82" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I18" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="36">
+        <f>($J$14-J4)/($K$14^2+$K4^2)^(1/2)</f>
+        <v>0.23181398576174447</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8">
+        <f>($L$14-L4)/($M$14^2+$M4^2)^(1/2)</f>
+        <v>6.0926521209526498E-2</v>
+      </c>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8">
+        <f t="shared" ref="N18:N20" si="0">-($N$14-N4)/($O$14^2+$O4^2)^(1/2)</f>
+        <v>4.6346024030790162E-2</v>
+      </c>
+      <c r="O18" s="82"/>
+    </row>
+    <row r="19" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I19" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="36">
+        <f>-($J$14-J5)/($K$14^2+$K5^2)^(1/2)</f>
+        <v>0.3179937034666534</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8">
+        <f>-($L$14-L5)/($M$14^2+$M5^2)^(1/2)</f>
+        <v>0.20258910705433528</v>
+      </c>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.12302935297849633</v>
+      </c>
+      <c r="O19" s="82" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="37">
+        <f>-($J$14-J6)/($K$14^2+$K6^2)^(1/2)</f>
+        <v>4.1709517274559779E-2</v>
+      </c>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11">
+        <f>-($L$14-L6)/($M$14^2+$M6^2)^(1/2)</f>
+        <v>0.13786177611944797</v>
+      </c>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11">
+        <f t="shared" si="0"/>
+        <v>0.12347966675427205</v>
+      </c>
+      <c r="O20" s="83"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="O17:O18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Praktikum/211 - Gekoppelte Pendel/Gekopplete_Pendel.xlsx
+++ b/Praktikum/211 - Gekoppelte Pendel/Gekopplete_Pendel.xlsx
@@ -698,37 +698,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -761,17 +731,47 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1130,20 +1130,20 @@
       <c r="B5" s="20">
         <v>1.33</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="77">
         <v>0.1</v>
       </c>
       <c r="D5" s="21">
         <v>25.53</v>
       </c>
-      <c r="E5" s="54">
+      <c r="E5" s="77">
         <v>0.1</v>
       </c>
       <c r="F5" s="21">
         <f>D5-B5</f>
         <v>24.200000000000003</v>
       </c>
-      <c r="G5" s="54">
+      <c r="G5" s="77">
         <f>($E$5*2)^(1/2)</f>
         <v>0.44721359549995793</v>
       </c>
@@ -1154,7 +1154,7 @@
         <f>F5/H5</f>
         <v>1.6133333333333335</v>
       </c>
-      <c r="J5" s="53">
+      <c r="J5" s="74">
         <f>G5/H5</f>
         <v>2.9814239699997195E-2</v>
       </c>
@@ -1162,7 +1162,7 @@
         <f>2*3.1415/I5</f>
         <v>3.8944214876033056</v>
       </c>
-      <c r="L5" s="53">
+      <c r="L5" s="74">
         <f>2*3.1415/(I5^2)*J5</f>
         <v>7.196852214311443E-2</v>
       </c>
@@ -1177,16 +1177,16 @@
       <c r="B6" s="20">
         <v>5.97</v>
       </c>
-      <c r="C6" s="55"/>
+      <c r="C6" s="78"/>
       <c r="D6" s="21">
         <v>30.19</v>
       </c>
-      <c r="E6" s="55"/>
+      <c r="E6" s="78"/>
       <c r="F6" s="21">
         <f t="shared" ref="F6:F11" si="0">D6-B6</f>
         <v>24.220000000000002</v>
       </c>
-      <c r="G6" s="55"/>
+      <c r="G6" s="78"/>
       <c r="H6" s="4">
         <v>15</v>
       </c>
@@ -1194,13 +1194,13 @@
         <f t="shared" ref="I6:I8" si="1">F6/H6</f>
         <v>1.6146666666666669</v>
       </c>
-      <c r="J6" s="49"/>
+      <c r="J6" s="75"/>
       <c r="K6" s="9">
         <f t="shared" ref="K6:K11" si="2">2*3.1415/I6</f>
         <v>3.8912056151940542</v>
       </c>
-      <c r="L6" s="49"/>
-      <c r="M6" s="51" t="s">
+      <c r="L6" s="75"/>
+      <c r="M6" s="80" t="s">
         <v>66</v>
       </c>
       <c r="N6" s="5" t="s">
@@ -1211,16 +1211,16 @@
       <c r="B7" s="20">
         <v>1.44</v>
       </c>
-      <c r="C7" s="55"/>
+      <c r="C7" s="78"/>
       <c r="D7" s="21">
         <v>21.82</v>
       </c>
-      <c r="E7" s="55"/>
+      <c r="E7" s="78"/>
       <c r="F7" s="21">
         <f t="shared" si="0"/>
         <v>20.38</v>
       </c>
-      <c r="G7" s="55"/>
+      <c r="G7" s="78"/>
       <c r="H7" s="4">
         <v>15</v>
       </c>
@@ -1228,13 +1228,13 @@
         <f t="shared" si="1"/>
         <v>1.3586666666666667</v>
       </c>
-      <c r="J7" s="49"/>
+      <c r="J7" s="75"/>
       <c r="K7" s="9">
         <f t="shared" si="2"/>
         <v>4.6243866535819436</v>
       </c>
-      <c r="L7" s="49"/>
-      <c r="M7" s="51"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="80"/>
       <c r="N7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1243,16 +1243,16 @@
       <c r="B8" s="20">
         <v>0.59</v>
       </c>
-      <c r="C8" s="55"/>
+      <c r="C8" s="78"/>
       <c r="D8" s="21">
         <v>24.75</v>
       </c>
-      <c r="E8" s="55"/>
+      <c r="E8" s="78"/>
       <c r="F8" s="21">
         <f t="shared" si="0"/>
         <v>24.16</v>
       </c>
-      <c r="G8" s="55"/>
+      <c r="G8" s="78"/>
       <c r="H8" s="4">
         <v>15</v>
       </c>
@@ -1260,13 +1260,13 @@
         <f t="shared" si="1"/>
         <v>1.6106666666666667</v>
       </c>
-      <c r="J8" s="49"/>
+      <c r="J8" s="75"/>
       <c r="K8" s="9">
         <f t="shared" si="2"/>
         <v>3.9008692052980134</v>
       </c>
-      <c r="L8" s="49"/>
-      <c r="M8" s="51" t="s">
+      <c r="L8" s="75"/>
+      <c r="M8" s="80" t="s">
         <v>67</v>
       </c>
       <c r="N8" s="5" t="s">
@@ -1277,16 +1277,16 @@
       <c r="B9" s="20">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C9" s="55"/>
+      <c r="C9" s="78"/>
       <c r="D9" s="21">
         <v>22.18</v>
       </c>
-      <c r="E9" s="55"/>
+      <c r="E9" s="78"/>
       <c r="F9" s="21">
         <f t="shared" si="0"/>
         <v>21.89</v>
       </c>
-      <c r="G9" s="55"/>
+      <c r="G9" s="78"/>
       <c r="H9" s="4">
         <v>15</v>
       </c>
@@ -1294,13 +1294,13 @@
         <f>F9/H9</f>
         <v>1.4593333333333334</v>
       </c>
-      <c r="J9" s="49"/>
+      <c r="J9" s="75"/>
       <c r="K9" s="9">
         <f t="shared" si="2"/>
         <v>4.3053905893101874</v>
       </c>
-      <c r="L9" s="49"/>
-      <c r="M9" s="51"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="80"/>
       <c r="N9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1309,16 +1309,16 @@
       <c r="B10" s="20">
         <v>0.94</v>
       </c>
-      <c r="C10" s="55"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="21">
         <v>25.11</v>
       </c>
-      <c r="E10" s="55"/>
+      <c r="E10" s="78"/>
       <c r="F10" s="21">
         <f t="shared" si="0"/>
         <v>24.169999999999998</v>
       </c>
-      <c r="G10" s="55"/>
+      <c r="G10" s="78"/>
       <c r="H10" s="4">
         <v>15</v>
       </c>
@@ -1326,13 +1326,13 @@
         <f t="shared" ref="I10:I11" si="3">F10/H10</f>
         <v>1.6113333333333333</v>
       </c>
-      <c r="J10" s="49"/>
+      <c r="J10" s="75"/>
       <c r="K10" s="9">
         <f t="shared" si="2"/>
         <v>3.8992552751344647</v>
       </c>
-      <c r="L10" s="49"/>
-      <c r="M10" s="51" t="s">
+      <c r="L10" s="75"/>
+      <c r="M10" s="80" t="s">
         <v>68</v>
       </c>
       <c r="N10" s="5" t="s">
@@ -1343,16 +1343,16 @@
       <c r="B11" s="22">
         <v>0.94</v>
       </c>
-      <c r="C11" s="56"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="23">
         <v>24.12</v>
       </c>
-      <c r="E11" s="56"/>
+      <c r="E11" s="79"/>
       <c r="F11" s="23">
         <f t="shared" si="0"/>
         <v>23.18</v>
       </c>
-      <c r="G11" s="56"/>
+      <c r="G11" s="79"/>
       <c r="H11" s="6">
         <v>15</v>
       </c>
@@ -1360,13 +1360,13 @@
         <f t="shared" si="3"/>
         <v>1.5453333333333332</v>
       </c>
-      <c r="J11" s="50"/>
+      <c r="J11" s="76"/>
       <c r="K11" s="12">
         <f t="shared" si="2"/>
         <v>4.0657894736842106</v>
       </c>
-      <c r="L11" s="50"/>
-      <c r="M11" s="52"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="81"/>
       <c r="N11" s="7" t="s">
         <v>10</v>
       </c>
@@ -1437,20 +1437,20 @@
       <c r="B16" s="20">
         <v>1.53</v>
       </c>
-      <c r="C16" s="54">
+      <c r="C16" s="77">
         <v>0.1</v>
       </c>
       <c r="D16" s="21">
         <v>25.86</v>
       </c>
-      <c r="E16" s="54">
+      <c r="E16" s="77">
         <v>0.1</v>
       </c>
       <c r="F16" s="21">
         <f>D16-B16</f>
         <v>24.33</v>
       </c>
-      <c r="G16" s="54">
+      <c r="G16" s="77">
         <f>($E$5*2)^(1/2)</f>
         <v>0.44721359549995793</v>
       </c>
@@ -1461,7 +1461,7 @@
         <f>F16/H16</f>
         <v>1.6219999999999999</v>
       </c>
-      <c r="J16" s="53">
+      <c r="J16" s="74">
         <f>G16/H16</f>
         <v>2.9814239699997195E-2</v>
       </c>
@@ -1469,7 +1469,7 @@
         <f>2*3.1415/I16</f>
         <v>3.8736128236744762</v>
       </c>
-      <c r="L16" s="53">
+      <c r="L16" s="74">
         <f>2*3.1415/(I16^2)*J16</f>
         <v>7.120149274353503E-2</v>
       </c>
@@ -1484,16 +1484,16 @@
       <c r="B17" s="20">
         <v>5.98</v>
       </c>
-      <c r="C17" s="55"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="21">
         <v>30.16</v>
       </c>
-      <c r="E17" s="55"/>
+      <c r="E17" s="78"/>
       <c r="F17" s="21">
         <f t="shared" ref="F17:F22" si="4">D17-B17</f>
         <v>24.18</v>
       </c>
-      <c r="G17" s="55"/>
+      <c r="G17" s="78"/>
       <c r="H17" s="8">
         <v>15</v>
       </c>
@@ -1501,13 +1501,13 @@
         <f t="shared" ref="I17:I19" si="5">F17/H17</f>
         <v>1.6119999999999999</v>
       </c>
-      <c r="J17" s="49"/>
+      <c r="J17" s="75"/>
       <c r="K17" s="9">
         <f t="shared" ref="K17:K22" si="6">2*3.1415/I17</f>
         <v>3.8976426799007449</v>
       </c>
-      <c r="L17" s="49"/>
-      <c r="M17" s="51" t="s">
+      <c r="L17" s="75"/>
+      <c r="M17" s="80" t="s">
         <v>66</v>
       </c>
       <c r="N17" s="10" t="s">
@@ -1518,16 +1518,16 @@
       <c r="B18" s="20">
         <v>0.72</v>
       </c>
-      <c r="C18" s="55"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="21">
         <v>21.14</v>
       </c>
-      <c r="E18" s="55"/>
+      <c r="E18" s="78"/>
       <c r="F18" s="21">
         <f t="shared" si="4"/>
         <v>20.420000000000002</v>
       </c>
-      <c r="G18" s="55"/>
+      <c r="G18" s="78"/>
       <c r="H18" s="8">
         <v>15</v>
       </c>
@@ -1535,13 +1535,13 @@
         <f t="shared" si="5"/>
         <v>1.3613333333333335</v>
       </c>
-      <c r="J18" s="49"/>
+      <c r="J18" s="75"/>
       <c r="K18" s="9">
         <f t="shared" si="6"/>
         <v>4.6153281096963754</v>
       </c>
-      <c r="L18" s="49"/>
-      <c r="M18" s="51"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="80"/>
       <c r="N18" s="10" t="s">
         <v>10</v>
       </c>
@@ -1550,16 +1550,16 @@
       <c r="B19" s="20">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C19" s="55"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="21">
         <v>24.73</v>
       </c>
-      <c r="E19" s="55"/>
+      <c r="E19" s="78"/>
       <c r="F19" s="21">
         <f t="shared" si="4"/>
         <v>24.17</v>
       </c>
-      <c r="G19" s="55"/>
+      <c r="G19" s="78"/>
       <c r="H19" s="8">
         <v>15</v>
       </c>
@@ -1567,13 +1567,13 @@
         <f t="shared" si="5"/>
         <v>1.6113333333333335</v>
       </c>
-      <c r="J19" s="49"/>
+      <c r="J19" s="75"/>
       <c r="K19" s="9">
         <f t="shared" si="6"/>
         <v>3.8992552751344642</v>
       </c>
-      <c r="L19" s="49"/>
-      <c r="M19" s="51" t="s">
+      <c r="L19" s="75"/>
+      <c r="M19" s="80" t="s">
         <v>67</v>
       </c>
       <c r="N19" s="10" t="s">
@@ -1584,16 +1584,16 @@
       <c r="B20" s="20">
         <v>1.01</v>
       </c>
-      <c r="C20" s="55"/>
+      <c r="C20" s="78"/>
       <c r="D20" s="21">
         <v>22.87</v>
       </c>
-      <c r="E20" s="55"/>
+      <c r="E20" s="78"/>
       <c r="F20" s="21">
         <f t="shared" si="4"/>
         <v>21.86</v>
       </c>
-      <c r="G20" s="55"/>
+      <c r="G20" s="78"/>
       <c r="H20" s="8">
         <v>15</v>
       </c>
@@ -1601,13 +1601,13 @@
         <f>F20/H20</f>
         <v>1.4573333333333334</v>
       </c>
-      <c r="J20" s="49"/>
+      <c r="J20" s="75"/>
       <c r="K20" s="9">
         <f t="shared" si="6"/>
         <v>4.3112991765782249</v>
       </c>
-      <c r="L20" s="49"/>
-      <c r="M20" s="51"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="80"/>
       <c r="N20" s="10" t="s">
         <v>10</v>
       </c>
@@ -1616,16 +1616,16 @@
       <c r="B21" s="20">
         <v>0.98</v>
       </c>
-      <c r="C21" s="55"/>
+      <c r="C21" s="78"/>
       <c r="D21" s="21">
         <v>25.17</v>
       </c>
-      <c r="E21" s="55"/>
+      <c r="E21" s="78"/>
       <c r="F21" s="21">
         <f t="shared" si="4"/>
         <v>24.19</v>
       </c>
-      <c r="G21" s="55"/>
+      <c r="G21" s="78"/>
       <c r="H21" s="8">
         <v>15</v>
       </c>
@@ -1633,13 +1633,13 @@
         <f t="shared" ref="I21:I22" si="7">F21/H21</f>
         <v>1.6126666666666667</v>
       </c>
-      <c r="J21" s="49"/>
+      <c r="J21" s="75"/>
       <c r="K21" s="9">
         <f t="shared" si="6"/>
         <v>3.8960314179412983</v>
       </c>
-      <c r="L21" s="49"/>
-      <c r="M21" s="51" t="s">
+      <c r="L21" s="75"/>
+      <c r="M21" s="80" t="s">
         <v>69</v>
       </c>
       <c r="N21" s="10" t="s">
@@ -1650,16 +1650,16 @@
       <c r="B22" s="22">
         <v>0.16</v>
       </c>
-      <c r="C22" s="56"/>
+      <c r="C22" s="79"/>
       <c r="D22" s="23">
         <v>23.35</v>
       </c>
-      <c r="E22" s="56"/>
+      <c r="E22" s="79"/>
       <c r="F22" s="23">
         <f t="shared" si="4"/>
         <v>23.19</v>
       </c>
-      <c r="G22" s="56"/>
+      <c r="G22" s="79"/>
       <c r="H22" s="11">
         <v>15</v>
       </c>
@@ -1667,13 +1667,13 @@
         <f t="shared" si="7"/>
         <v>1.546</v>
       </c>
-      <c r="J22" s="50"/>
+      <c r="J22" s="76"/>
       <c r="K22" s="12">
         <f t="shared" si="6"/>
         <v>4.0640362225097029</v>
       </c>
-      <c r="L22" s="50"/>
-      <c r="M22" s="52"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="81"/>
       <c r="N22" s="13" t="s">
         <v>10</v>
       </c>
@@ -1774,7 +1774,7 @@
         <f>2*3.1415/(I29^2)*J29</f>
         <v>7.2288342232660327E-2</v>
       </c>
-      <c r="M29" s="51" t="s">
+      <c r="M29" s="80" t="s">
         <v>66</v>
       </c>
       <c r="N29" s="10" t="s">
@@ -1821,7 +1821,7 @@
         <f t="shared" ref="L30:L34" si="12">2*3.1415/(I30^2)*J30</f>
         <v>3.5153330035183339E-3</v>
       </c>
-      <c r="M30" s="51"/>
+      <c r="M30" s="80"/>
       <c r="N30" s="10" t="s">
         <v>11</v>
       </c>
@@ -1866,7 +1866,7 @@
         <f t="shared" si="12"/>
         <v>8.1204475737634202E-2</v>
       </c>
-      <c r="M31" s="51" t="s">
+      <c r="M31" s="80" t="s">
         <v>67</v>
       </c>
       <c r="N31" s="10" t="s">
@@ -1913,7 +1913,7 @@
         <f t="shared" si="12"/>
         <v>1.3544091585553845E-3</v>
       </c>
-      <c r="M32" s="51"/>
+      <c r="M32" s="80"/>
       <c r="N32" s="10" t="s">
         <v>11</v>
       </c>
@@ -1958,7 +1958,7 @@
         <f t="shared" si="12"/>
         <v>7.5519887439593092E-2</v>
       </c>
-      <c r="M33" s="51" t="s">
+      <c r="M33" s="80" t="s">
         <v>69</v>
       </c>
       <c r="N33" s="10" t="s">
@@ -2005,7 +2005,7 @@
         <f t="shared" si="12"/>
         <v>4.0135951780690592E-4</v>
       </c>
-      <c r="M34" s="52"/>
+      <c r="M34" s="81"/>
       <c r="N34" s="13" t="s">
         <v>11</v>
       </c>
@@ -2098,7 +2098,7 @@
         <f>2*3.1415/(I39^2)*J39</f>
         <v>2.4056482317684674E-2</v>
       </c>
-      <c r="M39" s="51" t="s">
+      <c r="M39" s="80" t="s">
         <v>66</v>
       </c>
       <c r="N39" s="10" t="s">
@@ -2145,7 +2145,7 @@
         <f t="shared" ref="L40:L44" si="19">2*3.1415/(I40^2)*J40</f>
         <v>1.6951959248039396E-3</v>
       </c>
-      <c r="M40" s="51"/>
+      <c r="M40" s="80"/>
       <c r="N40" s="10" t="s">
         <v>11</v>
       </c>
@@ -2190,7 +2190,7 @@
         <f t="shared" si="19"/>
         <v>2.7166009953855028E-2</v>
       </c>
-      <c r="M41" s="51" t="s">
+      <c r="M41" s="80" t="s">
         <v>67</v>
       </c>
       <c r="N41" s="10" t="s">
@@ -2237,7 +2237,7 @@
         <f t="shared" si="19"/>
         <v>6.6211123462902287E-4</v>
       </c>
-      <c r="M42" s="51"/>
+      <c r="M42" s="80"/>
       <c r="N42" s="10" t="s">
         <v>11</v>
       </c>
@@ -2282,7 +2282,7 @@
         <f t="shared" si="19"/>
         <v>2.2368546142188309E-2</v>
       </c>
-      <c r="M43" s="51" t="s">
+      <c r="M43" s="80" t="s">
         <v>69</v>
       </c>
       <c r="N43" s="10" t="s">
@@ -2329,7 +2329,7 @@
         <f t="shared" si="19"/>
         <v>2.0076788746753487E-4</v>
       </c>
-      <c r="M44" s="52"/>
+      <c r="M44" s="81"/>
       <c r="N44" s="13" t="s">
         <v>11</v>
       </c>
@@ -2376,7 +2376,7 @@
         <f>0.5*(K6+K7)</f>
         <v>4.2577961343879984</v>
       </c>
-      <c r="C49" s="49">
+      <c r="C49" s="75">
         <f>0.5*(0.14^2*2)^(1/2)</f>
         <v>9.8994949366116664E-2</v>
       </c>
@@ -2384,7 +2384,7 @@
         <f>0.5*(K7-K6)</f>
         <v>0.3665905191939447</v>
       </c>
-      <c r="E49" s="49">
+      <c r="E49" s="75">
         <f>0.5*(0.14^2*2)^(1/2)</f>
         <v>9.8994949366116664E-2</v>
       </c>
@@ -2419,12 +2419,12 @@
         <f>0.5*(K8+K9)</f>
         <v>4.1031298973041004</v>
       </c>
-      <c r="C50" s="49"/>
+      <c r="C50" s="75"/>
       <c r="D50" s="9">
         <f>0.5*(K9-K8)</f>
         <v>0.20226069200608698</v>
       </c>
-      <c r="E50" s="49"/>
+      <c r="E50" s="75"/>
       <c r="F50" s="9">
         <f>(K31-B50)/($C$49^2+L31^2)^(1/2)</f>
         <v>1.1250690950260425</v>
@@ -2456,12 +2456,12 @@
         <f>0.5*(K10+K11)</f>
         <v>3.9825223744093377</v>
       </c>
-      <c r="C51" s="49"/>
+      <c r="C51" s="75"/>
       <c r="D51" s="9">
         <f>0.5*(K11-K10)</f>
         <v>8.3267099274872969E-2</v>
       </c>
-      <c r="E51" s="49"/>
+      <c r="E51" s="75"/>
       <c r="F51" s="9">
         <f>(K33-B51)/($C$49^2+L33^2)^(1/2)</f>
         <v>0.90999639197923299</v>
@@ -2493,12 +2493,12 @@
         <f>0.5*(K17+K18)</f>
         <v>4.2564853947985597</v>
       </c>
-      <c r="C52" s="49"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="9">
         <f>0.5*(K18-K17)</f>
         <v>0.35884271489781527</v>
       </c>
-      <c r="E52" s="49"/>
+      <c r="E52" s="75"/>
       <c r="F52" s="9">
         <f>(B52-K39)/(C49^2+L39^2)^(1/2)</f>
         <v>1.19000001855603</v>
@@ -2530,12 +2530,12 @@
         <f>0.5*(K19+K20)</f>
         <v>4.1052772258563444</v>
       </c>
-      <c r="C53" s="49"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="9">
         <f>0.5*(K20-K19)</f>
         <v>0.20602195072188034</v>
       </c>
-      <c r="E53" s="49"/>
+      <c r="E53" s="75"/>
       <c r="F53" s="9">
         <f>(K41-B53)/(C49^2+L41^2)^(1/2)</f>
         <v>1.4570790638505422</v>
@@ -2567,12 +2567,12 @@
         <f>0.5*(K21+K22)</f>
         <v>3.9800338202255006</v>
       </c>
-      <c r="C54" s="50"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="12">
         <f>0.5*(K22-K21)</f>
         <v>8.4002402284202304E-2</v>
       </c>
-      <c r="E54" s="50"/>
+      <c r="E54" s="76"/>
       <c r="F54" s="12">
         <f>(B54-K43)/(C49^2+L43^2)^(1/2)</f>
         <v>1.1736663877259397</v>
@@ -2611,14 +2611,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="J16:J22"/>
-    <mergeCell ref="L16:L22"/>
-    <mergeCell ref="C5:C11"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="E5:E11"/>
-    <mergeCell ref="E16:E22"/>
-    <mergeCell ref="G5:G11"/>
-    <mergeCell ref="G16:G22"/>
     <mergeCell ref="C49:C54"/>
     <mergeCell ref="E49:E54"/>
     <mergeCell ref="M21:M22"/>
@@ -2635,6 +2627,14 @@
     <mergeCell ref="M33:M34"/>
     <mergeCell ref="J5:J11"/>
     <mergeCell ref="L5:L11"/>
+    <mergeCell ref="J16:J22"/>
+    <mergeCell ref="L16:L22"/>
+    <mergeCell ref="C5:C11"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="E5:E11"/>
+    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="G5:G11"/>
+    <mergeCell ref="G16:G22"/>
   </mergeCells>
   <pageMargins left="0" right="0.39370078740157483" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
@@ -2643,6 +2643,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2659,7 +2662,7 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="54" t="s">
         <v>55</v>
       </c>
       <c r="C2" s="28" t="s">
@@ -2675,11 +2678,11 @@
         <v>54</v>
       </c>
       <c r="H2" s="45"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="62" t="s">
+      <c r="I2" s="53"/>
+      <c r="J2" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="62" t="s">
+      <c r="K2" s="52" t="s">
         <v>62</v>
       </c>
       <c r="L2" s="30" t="s">
@@ -2691,13 +2694,13 @@
       <c r="N2" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="65" t="s">
+      <c r="O2" s="55" t="s">
         <v>64</v>
       </c>
       <c r="P2" s="31"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="60">
+      <c r="B3" s="50">
         <v>1</v>
       </c>
       <c r="C3" s="32">
@@ -2716,7 +2719,7 @@
         <f>(((4*Tabelle1!I17*Tabelle1!I18^2)/(Tabelle1!I17^2+Tabelle1!I18^2)^2*Tabelle1!$J$16)^2+((4*Tabelle1!I17^2*Tabelle1!I18)/(Tabelle1!I17^2+Tabelle1!I18^2)^2*Tabelle1!$J$16)^2)^(1/2)</f>
         <v>2.786209770436459E-2</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="I3" s="50" t="s">
         <v>58</v>
       </c>
       <c r="J3" s="24">
@@ -2739,16 +2742,16 @@
         <f>C4/C5</f>
         <v>2.3529722201980023</v>
       </c>
-      <c r="O3" s="72">
+      <c r="O3" s="62">
         <f>((D4/C5)^2+(C4*D5/(C5)^2)^2)^(1/2)</f>
         <v>1.6380622069228872</v>
       </c>
-      <c r="P3" s="58" t="s">
+      <c r="P3" s="84" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="60">
+      <c r="B4" s="50">
         <v>2</v>
       </c>
       <c r="C4" s="32">
@@ -2767,7 +2770,7 @@
         <f>(((4*Tabelle1!I20*Tabelle1!I19^2)/(Tabelle1!I20^2+Tabelle1!I19^2)^2*Tabelle1!$J$16)^2+((4*Tabelle1!I20^2*Tabelle1!I19)/(Tabelle1!I20^2+Tabelle1!I19^2)^2*Tabelle1!$J$16)^2)^(1/2)</f>
         <v>2.7307709385146383E-2</v>
       </c>
-      <c r="I4" s="60" t="s">
+      <c r="I4" s="50" t="s">
         <v>57</v>
       </c>
       <c r="J4" s="24">
@@ -2790,14 +2793,14 @@
         <f>E4/E5</f>
         <v>2.3728325095742169</v>
       </c>
-      <c r="O4" s="72">
+      <c r="O4" s="62">
         <f>((F4/E5)^2+(E4*F5/(E5)^2)^2)^(1/2)</f>
         <v>1.6334024834178698</v>
       </c>
-      <c r="P4" s="58"/>
+      <c r="P4" s="84"/>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="61">
+      <c r="B5" s="51">
         <v>3</v>
       </c>
       <c r="C5" s="33">
@@ -2816,7 +2819,7 @@
         <f>(((4*Tabelle1!I21*Tabelle1!I22^2)/(Tabelle1!I21^2+Tabelle1!I22^2)^2*Tabelle1!$J$16)^2+((4*Tabelle1!I21^2*Tabelle1!I22)/(Tabelle1!I21^2+Tabelle1!I22^2)^2*Tabelle1!$J$16)^2)^(1/2)</f>
         <v>2.6667438554961124E-2</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="50" t="s">
         <v>58</v>
       </c>
       <c r="J5" s="24">
@@ -2827,11 +2830,11 @@
         <f>((D8/C9)^2+(C8*D9/(C8)^2)^2)^(1/2)</f>
         <v>0.29515906800261626</v>
       </c>
-      <c r="L5" s="69">
+      <c r="L5" s="59">
         <f>C8/C10</f>
         <v>4.7263884143137203</v>
       </c>
-      <c r="M5" s="70">
+      <c r="M5" s="60">
         <f>((D8/C10)^2+(C8*D10/(C10)^2)^2)^(1/2)</f>
         <v>2.9633054792932461</v>
       </c>
@@ -2839,19 +2842,19 @@
         <f>C9/C10</f>
         <v>2.5005506388706205</v>
       </c>
-      <c r="O5" s="72">
+      <c r="O5" s="62">
         <f>((D9/C10)^2+(C9*D10/(C10)^2)^2)^(1/2)</f>
         <v>1.6532714960783514</v>
       </c>
-      <c r="P5" s="58" t="s">
+      <c r="P5" s="84" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="68">
+      <c r="J6" s="58">
         <f>E8/E9</f>
         <v>1.8074179396238848</v>
       </c>
@@ -2859,11 +2862,11 @@
         <f>((F8/E9)^2+((E8*F9/E8)^2)^2)^(1/2)</f>
         <v>0.26965037577781475</v>
       </c>
-      <c r="L6" s="71">
+      <c r="L6" s="61">
         <f>E8/E10</f>
         <v>4.5647570604152854</v>
       </c>
-      <c r="M6" s="71">
+      <c r="M6" s="61">
         <f>((F8/E10)^2+(E8*F10/(E10)^2)^2)^(1/2)</f>
         <v>3.1823962068331344</v>
       </c>
@@ -2875,10 +2878,10 @@
         <f>((F9/E10)^2+(E9*F10/(E10)^2)^2)^(1/2)</f>
         <v>1.8498714920658181</v>
       </c>
-      <c r="P6" s="59"/>
+      <c r="P6" s="85"/>
     </row>
     <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="54" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="28" t="s">
@@ -2896,7 +2899,7 @@
       <c r="H7" s="45"/>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="60">
+      <c r="B8" s="50">
         <v>1</v>
       </c>
       <c r="C8" s="32">
@@ -2925,7 +2928,7 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="60">
+      <c r="B9" s="50">
         <v>2</v>
       </c>
       <c r="C9" s="32">
@@ -2954,7 +2957,7 @@
       </c>
     </row>
     <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="61">
+      <c r="B10" s="51">
         <v>3</v>
       </c>
       <c r="C10" s="33">
@@ -2975,7 +2978,7 @@
       <c r="I10" s="36">
         <v>2</v>
       </c>
-      <c r="J10" s="66">
+      <c r="J10" s="56">
         <v>29.1</v>
       </c>
       <c r="K10" s="10">
@@ -2986,7 +2989,7 @@
       <c r="I11" s="37">
         <v>3</v>
       </c>
-      <c r="J11" s="67">
+      <c r="J11" s="57">
         <v>19.2</v>
       </c>
       <c r="K11" s="13">
@@ -3002,26 +3005,26 @@
       <c r="H12" s="45"/>
     </row>
     <row r="13" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="I13" s="63" t="s">
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="I13" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="J13" s="73" t="s">
+      <c r="J13" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="62" t="s">
+      <c r="K13" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="L13" s="74" t="s">
+      <c r="L13" s="64" t="s">
         <v>75</v>
       </c>
       <c r="M13" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="N13" s="75" t="s">
+      <c r="N13" s="65" t="s">
         <v>77</v>
       </c>
       <c r="O13" s="31" t="s">
@@ -3029,18 +3032,18 @@
       </c>
     </row>
     <row r="14" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="I14" s="61" t="s">
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="I14" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="J14" s="76">
+      <c r="J14" s="66">
         <f>(J9/J10)^2</f>
         <v>1.7961526198320754</v>
       </c>
-      <c r="K14" s="77">
+      <c r="K14" s="67">
         <f>((2*J9*K9/J10^2)^2+(2*J9^2*K10/J10^3)^2)^(1/2)</f>
         <v>1.5402423517349509E-2</v>
       </c>
@@ -3048,53 +3051,53 @@
         <f>(J9/J11)^2</f>
         <v>4.1259765625</v>
       </c>
-      <c r="M14" s="68">
+      <c r="M14" s="58">
         <f>((2*J9*K9/J11^2)^2+(2*J9^2*K11/J11^3)^2)^(1/2)</f>
         <v>4.7904956853605025E-2</v>
       </c>
-      <c r="N14" s="78">
+      <c r="N14" s="68">
         <f>(J10/J11)^2</f>
         <v>2.2971191406250009</v>
       </c>
-      <c r="O14" s="79">
+      <c r="O14" s="69">
         <f>((2*J10*K10/J11^2)^2+(2*J10^2*K11/J11^3)^2)^(1/2)</f>
         <v>2.8667369720308367E-2</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
       <c r="I15" s="18"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="80"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
     </row>
     <row r="16" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="84" t="s">
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="72" t="s">
         <v>80</v>
       </c>
       <c r="K16" s="30"/>
-      <c r="L16" s="85" t="s">
+      <c r="L16" s="73" t="s">
         <v>81</v>
       </c>
       <c r="M16" s="30"/>
-      <c r="N16" s="85" t="s">
+      <c r="N16" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="O16" s="81"/>
+      <c r="O16" s="71"/>
     </row>
     <row r="17" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I17" s="60" t="s">
+      <c r="I17" s="50" t="s">
         <v>58</v>
       </c>
       <c r="J17" s="36">
@@ -3116,7 +3119,7 @@
       </c>
     </row>
     <row r="18" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I18" s="60" t="s">
+      <c r="I18" s="50" t="s">
         <v>57</v>
       </c>
       <c r="J18" s="36">
@@ -3136,7 +3139,7 @@
       <c r="O18" s="82"/>
     </row>
     <row r="19" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I19" s="60" t="s">
+      <c r="I19" s="50" t="s">
         <v>58</v>
       </c>
       <c r="J19" s="36">
@@ -3158,7 +3161,7 @@
       </c>
     </row>
     <row r="20" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I20" s="61" t="s">
+      <c r="I20" s="51" t="s">
         <v>57</v>
       </c>
       <c r="J20" s="37">
@@ -3185,6 +3188,6 @@
     <mergeCell ref="O17:O18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="58" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>